--- a/test/temp.xlsx
+++ b/test/temp.xlsx
@@ -37563,154 +37563,154 @@
   <sheetData>
     <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>582</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:51">
@@ -37718,154 +37718,154 @@
         <v>772</v>
       </c>
       <c r="B2">
+        <v>0.0027</v>
+      </c>
+      <c r="C2">
         <v>0.00254</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.00213</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
       <c r="E2">
         <v>0.00888</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.00213</v>
+      </c>
+      <c r="H2">
+        <v>0.00196</v>
+      </c>
+      <c r="I2">
+        <v>0.00442</v>
+      </c>
+      <c r="J2">
+        <v>0.00517</v>
+      </c>
+      <c r="K2">
+        <v>0.00341</v>
+      </c>
+      <c r="L2">
+        <v>0.00317</v>
+      </c>
+      <c r="M2">
+        <v>0.00236</v>
+      </c>
+      <c r="N2">
+        <v>0.00141</v>
+      </c>
+      <c r="O2">
+        <v>0.00287</v>
+      </c>
+      <c r="P2">
+        <v>0.01563</v>
+      </c>
+      <c r="Q2">
+        <v>0.0018</v>
+      </c>
+      <c r="R2">
         <v>0.01131</v>
       </c>
-      <c r="G2">
-        <v>0.0027</v>
-      </c>
-      <c r="H2">
-        <v>0.00363</v>
-      </c>
-      <c r="I2">
-        <v>0.00213</v>
-      </c>
-      <c r="J2">
-        <v>0.00041</v>
-      </c>
-      <c r="K2">
+      <c r="S2">
+        <v>0.00887</v>
+      </c>
+      <c r="T2">
+        <v>0.00604</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.00061</v>
+      </c>
+      <c r="W2">
+        <v>0.02008</v>
+      </c>
+      <c r="X2">
+        <v>0.08519</v>
+      </c>
+      <c r="Y2">
+        <v>0.00037</v>
+      </c>
+      <c r="Z2">
+        <v>0.0034</v>
+      </c>
+      <c r="AA2">
         <v>0.03162</v>
       </c>
-      <c r="L2">
-        <v>0.00442</v>
-      </c>
-      <c r="M2">
+      <c r="AB2">
+        <v>0.00712</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.00424</v>
+      </c>
+      <c r="AE2">
+        <v>0.00491</v>
+      </c>
+      <c r="AF2">
+        <v>0.00298</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0.00118</v>
+      </c>
+      <c r="AI2">
         <v>0.15169</v>
       </c>
-      <c r="N2">
-        <v>0.10169</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0.00236</v>
-      </c>
-      <c r="Q2">
-        <v>0.00517</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.00963</v>
-      </c>
-      <c r="T2">
-        <v>0.00196</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.00118</v>
-      </c>
-      <c r="W2">
-        <v>0.0093</v>
-      </c>
-      <c r="X2">
-        <v>0.02284</v>
-      </c>
-      <c r="Y2">
-        <v>0.00141</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0.03224</v>
-      </c>
-      <c r="AB2">
-        <v>0.00694</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.01915</v>
-      </c>
-      <c r="AF2">
-        <v>0.00061</v>
-      </c>
-      <c r="AG2">
-        <v>0.0034</v>
-      </c>
-      <c r="AH2">
-        <v>0.005</v>
-      </c>
-      <c r="AI2">
-        <v>0.0018</v>
-      </c>
       <c r="AJ2">
+        <v>0.02026</v>
+      </c>
+      <c r="AK2">
+        <v>0.02518</v>
+      </c>
+      <c r="AL2">
+        <v>0.006</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0.01218</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
         <v>0.00116</v>
       </c>
-      <c r="AK2">
-        <v>0.01563</v>
-      </c>
-      <c r="AL2">
-        <v>0.02008</v>
-      </c>
-      <c r="AM2">
-        <v>0.01196</v>
-      </c>
-      <c r="AN2">
+      <c r="AS2">
+        <v>0.00467</v>
+      </c>
+      <c r="AT2">
+        <v>0.11111</v>
+      </c>
+      <c r="AU2">
         <v>0.01547</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0.06079</v>
-      </c>
-      <c r="AQ2">
-        <v>0.00075</v>
-      </c>
-      <c r="AR2">
-        <v>0.00887</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0.00649</v>
-      </c>
-      <c r="AU2">
-        <v>0.00066</v>
-      </c>
       <c r="AV2">
-        <v>0.00028</v>
+        <v>0.00669</v>
       </c>
       <c r="AW2">
-        <v>0.00317</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0053</v>
+        <v>0.04436</v>
       </c>
       <c r="AY2">
-        <v>0.03349</v>
+        <v>0.00187</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -37873,154 +37873,154 @@
         <v>773</v>
       </c>
       <c r="B3">
+        <v>0.00338</v>
+      </c>
+      <c r="C3">
         <v>0.00086</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.00138</v>
-      </c>
-      <c r="D3">
-        <v>0.00068</v>
       </c>
       <c r="E3">
         <v>0.00059</v>
       </c>
       <c r="F3">
+        <v>0.00068</v>
+      </c>
+      <c r="G3">
+        <v>0.00389</v>
+      </c>
+      <c r="H3">
+        <v>0.0011</v>
+      </c>
+      <c r="I3">
+        <v>0.00086</v>
+      </c>
+      <c r="J3">
+        <v>0.00245</v>
+      </c>
+      <c r="K3">
+        <v>0.00092</v>
+      </c>
+      <c r="L3">
+        <v>0.00248</v>
+      </c>
+      <c r="M3">
+        <v>0.00287</v>
+      </c>
+      <c r="N3">
+        <v>0.00214</v>
+      </c>
+      <c r="O3">
+        <v>0.00215</v>
+      </c>
+      <c r="P3">
+        <v>0.00127</v>
+      </c>
+      <c r="Q3">
+        <v>0.00316</v>
+      </c>
+      <c r="R3">
         <v>0.00019</v>
       </c>
-      <c r="G3">
-        <v>0.00338</v>
-      </c>
-      <c r="H3">
-        <v>0.01665</v>
-      </c>
-      <c r="I3">
-        <v>0.00389</v>
-      </c>
-      <c r="J3">
-        <v>0.00074</v>
-      </c>
-      <c r="K3">
+      <c r="S3">
+        <v>0.0006</v>
+      </c>
+      <c r="T3">
+        <v>0.00495</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.00261</v>
+      </c>
+      <c r="W3">
+        <v>0.00395</v>
+      </c>
+      <c r="X3">
+        <v>0.04881</v>
+      </c>
+      <c r="Y3">
+        <v>0.00049</v>
+      </c>
+      <c r="Z3">
+        <v>0.00631</v>
+      </c>
+      <c r="AA3">
         <v>0.00266</v>
       </c>
-      <c r="L3">
-        <v>0.00086</v>
-      </c>
-      <c r="M3">
+      <c r="AB3">
+        <v>0.00337</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0.00723</v>
+      </c>
+      <c r="AE3">
+        <v>0.02281</v>
+      </c>
+      <c r="AF3">
+        <v>0.01315</v>
+      </c>
+      <c r="AG3">
+        <v>0.00034</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>0.0619</v>
       </c>
-      <c r="N3">
-        <v>0.01117</v>
-      </c>
-      <c r="O3">
-        <v>0.00501</v>
-      </c>
-      <c r="P3">
-        <v>0.00287</v>
-      </c>
-      <c r="Q3">
-        <v>0.00245</v>
-      </c>
-      <c r="R3">
+      <c r="AJ3">
+        <v>0.00695</v>
+      </c>
+      <c r="AK3">
+        <v>0.00685</v>
+      </c>
+      <c r="AL3">
+        <v>0.00146</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0.00025</v>
+      </c>
+      <c r="AO3">
+        <v>0.00109</v>
+      </c>
+      <c r="AP3">
+        <v>0.00037</v>
+      </c>
+      <c r="AQ3">
+        <v>0.00153</v>
+      </c>
+      <c r="AR3">
         <v>0.00012</v>
       </c>
-      <c r="S3">
-        <v>0.00124</v>
-      </c>
-      <c r="T3">
-        <v>0.0011</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.00156</v>
-      </c>
-      <c r="X3">
-        <v>0.01389</v>
-      </c>
-      <c r="Y3">
-        <v>0.00214</v>
-      </c>
-      <c r="Z3">
-        <v>0.00022</v>
-      </c>
-      <c r="AA3">
-        <v>0.02832</v>
-      </c>
-      <c r="AB3">
-        <v>0.0006</v>
-      </c>
-      <c r="AC3">
-        <v>0.00017</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.00189</v>
-      </c>
-      <c r="AF3">
-        <v>0.00261</v>
-      </c>
-      <c r="AG3">
-        <v>0.00631</v>
-      </c>
-      <c r="AH3">
-        <v>0.0093</v>
-      </c>
-      <c r="AI3">
-        <v>0.00316</v>
-      </c>
-      <c r="AJ3">
-        <v>0.00012</v>
-      </c>
-      <c r="AK3">
-        <v>0.00127</v>
-      </c>
-      <c r="AL3">
-        <v>0.00395</v>
-      </c>
-      <c r="AM3">
-        <v>0.00582</v>
-      </c>
-      <c r="AN3">
+      <c r="AS3">
+        <v>0.00062</v>
+      </c>
+      <c r="AT3">
+        <v>0.01433</v>
+      </c>
+      <c r="AU3">
         <v>0.00134</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0.04228</v>
-      </c>
-      <c r="AQ3">
-        <v>0.00091</v>
-      </c>
-      <c r="AR3">
-        <v>0.0006</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0.01749</v>
-      </c>
-      <c r="AU3">
-        <v>0.00164</v>
-      </c>
       <c r="AV3">
-        <v>0.00069</v>
+        <v>0.00268</v>
       </c>
       <c r="AW3">
-        <v>0.00248</v>
+        <v>0.00018</v>
       </c>
       <c r="AX3">
-        <v>0.00662</v>
+        <v>0.00722</v>
       </c>
       <c r="AY3">
-        <v>0.00257</v>
+        <v>0.01726</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -38028,154 +38028,154 @@
         <v>774</v>
       </c>
       <c r="B4">
+        <v>0.0008</v>
+      </c>
+      <c r="C4">
         <v>0.00047</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.00076</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>0.00041</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.0025</v>
+      </c>
+      <c r="H4">
+        <v>0.00063</v>
+      </c>
+      <c r="I4">
+        <v>0.00135</v>
+      </c>
+      <c r="J4">
+        <v>0.00096</v>
+      </c>
+      <c r="K4">
+        <v>0.00032</v>
+      </c>
+      <c r="L4">
+        <v>0.00124</v>
+      </c>
+      <c r="M4">
+        <v>0.00831</v>
+      </c>
+      <c r="N4">
+        <v>0.0003</v>
+      </c>
+      <c r="O4">
+        <v>0.00277</v>
+      </c>
+      <c r="P4">
+        <v>0.00464</v>
+      </c>
+      <c r="Q4">
+        <v>0.00208</v>
+      </c>
+      <c r="R4">
         <v>0.00026</v>
       </c>
-      <c r="G4">
-        <v>0.0008</v>
-      </c>
-      <c r="H4">
-        <v>0.00375</v>
-      </c>
-      <c r="I4">
-        <v>0.0025</v>
-      </c>
-      <c r="J4">
-        <v>0.00051</v>
-      </c>
-      <c r="K4">
-        <v>0.00475</v>
-      </c>
-      <c r="L4">
-        <v>0.00135</v>
-      </c>
-      <c r="M4">
-        <v>0.03957</v>
-      </c>
-      <c r="N4">
-        <v>0.00782</v>
-      </c>
-      <c r="O4">
-        <v>0.00138</v>
-      </c>
-      <c r="P4">
-        <v>0.00831</v>
-      </c>
-      <c r="Q4">
-        <v>0.00096</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00063</v>
+        <v>0.00388</v>
       </c>
       <c r="U4">
         <v>0.00049</v>
       </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.00099</v>
+      </c>
+      <c r="X4">
+        <v>0.03039</v>
+      </c>
+      <c r="Y4">
+        <v>0.00092</v>
+      </c>
+      <c r="Z4">
+        <v>0.00301</v>
+      </c>
+      <c r="AA4">
+        <v>0.00475</v>
+      </c>
+      <c r="AB4">
+        <v>0.00149</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.00368</v>
+      </c>
+      <c r="AE4">
+        <v>0.00511</v>
+      </c>
+      <c r="AF4">
+        <v>0.00407</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>0.00014</v>
       </c>
-      <c r="W4">
-        <v>0.00281</v>
-      </c>
-      <c r="X4">
-        <v>0.00743</v>
-      </c>
-      <c r="Y4">
-        <v>0.0003</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0.00361</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.00174</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0.00301</v>
-      </c>
-      <c r="AH4">
-        <v>0.00148</v>
-      </c>
       <c r="AI4">
-        <v>0.00208</v>
+        <v>0.03957</v>
       </c>
       <c r="AJ4">
+        <v>0.00216</v>
+      </c>
+      <c r="AK4">
+        <v>0.0063</v>
+      </c>
+      <c r="AL4">
+        <v>0.00453</v>
+      </c>
+      <c r="AM4">
+        <v>0.00017</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0.00068</v>
+      </c>
+      <c r="AQ4">
+        <v>0.00464</v>
+      </c>
+      <c r="AR4">
         <v>0.00065</v>
       </c>
-      <c r="AK4">
-        <v>0.00464</v>
-      </c>
-      <c r="AL4">
-        <v>0.00099</v>
-      </c>
-      <c r="AM4">
-        <v>0.01607</v>
-      </c>
-      <c r="AN4">
+      <c r="AS4">
+        <v>0.00102</v>
+      </c>
+      <c r="AT4">
+        <v>0.03613</v>
+      </c>
+      <c r="AU4">
         <v>0.00031</v>
       </c>
-      <c r="AO4">
-        <v>0.00013</v>
-      </c>
-      <c r="AP4">
-        <v>0.06078</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0.01166</v>
-      </c>
-      <c r="AU4">
-        <v>0.00552</v>
-      </c>
       <c r="AV4">
-        <v>0.00284</v>
+        <v>0.00447</v>
       </c>
       <c r="AW4">
-        <v>0.00124</v>
+        <v>0.00293</v>
       </c>
       <c r="AX4">
-        <v>0.00173</v>
+        <v>0.00043</v>
       </c>
       <c r="AY4">
-        <v>0.00487</v>
+        <v>0.00404</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -38183,154 +38183,154 @@
         <v>775</v>
       </c>
       <c r="B5">
+        <v>0.00199</v>
+      </c>
+      <c r="C5">
         <v>0.00231</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.00099</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="E5">
         <v>0.00079</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.00267</v>
+      </c>
+      <c r="H5">
+        <v>0.00173</v>
+      </c>
+      <c r="I5">
+        <v>0.00197</v>
+      </c>
+      <c r="J5">
+        <v>0.00052</v>
+      </c>
+      <c r="K5">
+        <v>0.00083</v>
+      </c>
+      <c r="L5">
+        <v>0.00136</v>
+      </c>
+      <c r="M5">
+        <v>0.00128</v>
+      </c>
+      <c r="N5">
+        <v>0.00191</v>
+      </c>
+      <c r="O5">
+        <v>0.00132</v>
+      </c>
+      <c r="P5">
+        <v>0.00342</v>
+      </c>
+      <c r="Q5">
+        <v>0.00209</v>
+      </c>
+      <c r="R5">
         <v>0.00017</v>
       </c>
-      <c r="G5">
-        <v>0.00199</v>
-      </c>
-      <c r="H5">
-        <v>0.0108</v>
-      </c>
-      <c r="I5">
-        <v>0.00267</v>
-      </c>
-      <c r="J5">
-        <v>0.00011</v>
-      </c>
-      <c r="K5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.00532</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.00595</v>
+      </c>
+      <c r="X5">
+        <v>0.00134</v>
+      </c>
+      <c r="Y5">
+        <v>0.00176</v>
+      </c>
+      <c r="Z5">
+        <v>0.00503</v>
+      </c>
+      <c r="AA5">
         <v>0.00084</v>
       </c>
-      <c r="L5">
-        <v>0.00197</v>
-      </c>
-      <c r="M5">
-        <v>0.00861</v>
-      </c>
-      <c r="N5">
-        <v>0.00014</v>
-      </c>
-      <c r="O5">
-        <v>0.0006</v>
-      </c>
-      <c r="P5">
-        <v>0.00128</v>
-      </c>
-      <c r="Q5">
-        <v>0.00052</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.00191</v>
-      </c>
-      <c r="T5">
-        <v>0.00173</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.00028</v>
-      </c>
-      <c r="W5">
-        <v>0.00649</v>
-      </c>
-      <c r="X5">
-        <v>0.00264</v>
-      </c>
-      <c r="Y5">
-        <v>0.00191</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.01287</v>
-      </c>
       <c r="AB5">
-        <v>0.00054</v>
+        <v>0.00075</v>
       </c>
       <c r="AC5">
         <v>0.00016</v>
       </c>
       <c r="AD5">
-        <v>0.00016</v>
+        <v>0.00524</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.00524</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.00416</v>
       </c>
       <c r="AG5">
-        <v>0.00503</v>
+        <v>0.00215</v>
       </c>
       <c r="AH5">
-        <v>0.00032</v>
+        <v>0.00028</v>
       </c>
       <c r="AI5">
-        <v>0.00209</v>
+        <v>0.00861</v>
       </c>
       <c r="AJ5">
+        <v>0.0008</v>
+      </c>
+      <c r="AK5">
+        <v>0.00277</v>
+      </c>
+      <c r="AL5">
+        <v>0.00686</v>
+      </c>
+      <c r="AM5">
+        <v>0.00022</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0.00022</v>
+      </c>
+      <c r="AQ5">
+        <v>0.00328</v>
+      </c>
+      <c r="AR5">
         <v>0.00053</v>
       </c>
-      <c r="AK5">
-        <v>0.00342</v>
-      </c>
-      <c r="AL5">
-        <v>0.00595</v>
-      </c>
-      <c r="AM5">
-        <v>0.00988</v>
-      </c>
-      <c r="AN5">
+      <c r="AS5">
+        <v>0.00033</v>
+      </c>
+      <c r="AT5">
+        <v>0.0209</v>
+      </c>
+      <c r="AU5">
         <v>0.0004</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0.00459</v>
-      </c>
-      <c r="AQ5">
-        <v>0.00102</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0.00011</v>
-      </c>
-      <c r="AT5">
-        <v>0.0106</v>
-      </c>
-      <c r="AU5">
-        <v>0.00422</v>
-      </c>
       <c r="AV5">
-        <v>0.01922</v>
+        <v>0.00633</v>
       </c>
       <c r="AW5">
-        <v>0.00136</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00048</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00013</v>
+        <v>0.00466</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -38338,154 +38338,154 @@
         <v>776</v>
       </c>
       <c r="B6">
+        <v>0.00595</v>
+      </c>
+      <c r="C6">
         <v>0.00562</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.0052</v>
-      </c>
-      <c r="D6">
-        <v>0.00043</v>
       </c>
       <c r="E6">
         <v>0.00693</v>
       </c>
       <c r="F6">
+        <v>0.00043</v>
+      </c>
+      <c r="G6">
+        <v>0.00784</v>
+      </c>
+      <c r="H6">
+        <v>0.00417</v>
+      </c>
+      <c r="I6">
+        <v>0.00554</v>
+      </c>
+      <c r="J6">
+        <v>0.01379</v>
+      </c>
+      <c r="K6">
+        <v>0.00581</v>
+      </c>
+      <c r="L6">
+        <v>0.00564</v>
+      </c>
+      <c r="M6">
+        <v>0.0112</v>
+      </c>
+      <c r="N6">
+        <v>0.00593</v>
+      </c>
+      <c r="O6">
+        <v>0.00574</v>
+      </c>
+      <c r="P6">
+        <v>0.00905</v>
+      </c>
+      <c r="Q6">
+        <v>0.00587</v>
+      </c>
+      <c r="R6">
         <v>0.00117</v>
       </c>
-      <c r="G6">
-        <v>0.00595</v>
-      </c>
-      <c r="H6">
-        <v>0.00364</v>
-      </c>
-      <c r="I6">
-        <v>0.00784</v>
-      </c>
-      <c r="J6">
+      <c r="S6">
+        <v>0.00151</v>
+      </c>
+      <c r="T6">
+        <v>0.00754</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.00475</v>
+      </c>
+      <c r="X6">
+        <v>0.03814</v>
+      </c>
+      <c r="Y6">
+        <v>0.00073</v>
+      </c>
+      <c r="Z6">
+        <v>0.00708</v>
+      </c>
+      <c r="AA6">
+        <v>0.00394</v>
+      </c>
+      <c r="AB6">
+        <v>0.01576</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0.00737</v>
+      </c>
+      <c r="AE6">
+        <v>0.00917</v>
+      </c>
+      <c r="AF6">
+        <v>0.00942</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0.00116</v>
+      </c>
+      <c r="AI6">
+        <v>0.09111</v>
+      </c>
+      <c r="AJ6">
+        <v>0.01637</v>
+      </c>
+      <c r="AK6">
+        <v>0.00844</v>
+      </c>
+      <c r="AL6">
+        <v>0.00597</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>0.00062</v>
       </c>
-      <c r="K6">
-        <v>0.00394</v>
-      </c>
-      <c r="L6">
-        <v>0.00554</v>
-      </c>
-      <c r="M6">
-        <v>0.09111</v>
-      </c>
-      <c r="N6">
-        <v>0.043</v>
-      </c>
-      <c r="O6">
-        <v>0.00126</v>
-      </c>
-      <c r="P6">
-        <v>0.0112</v>
-      </c>
-      <c r="Q6">
-        <v>0.01379</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.00201</v>
-      </c>
-      <c r="T6">
-        <v>0.00417</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0.00116</v>
-      </c>
-      <c r="W6">
-        <v>0.00339</v>
-      </c>
-      <c r="X6">
-        <v>0.01268</v>
-      </c>
-      <c r="Y6">
-        <v>0.00593</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0.00823</v>
-      </c>
-      <c r="AB6">
-        <v>0.00076</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0.00238</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0.00708</v>
-      </c>
-      <c r="AH6">
-        <v>0.01014</v>
-      </c>
-      <c r="AI6">
-        <v>0.00587</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0.00905</v>
-      </c>
-      <c r="AL6">
-        <v>0.00475</v>
-      </c>
-      <c r="AM6">
-        <v>0.04169</v>
-      </c>
-      <c r="AN6">
+      <c r="AQ6">
+        <v>0.00192</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0.00109</v>
+      </c>
+      <c r="AT6">
+        <v>0.0421</v>
+      </c>
+      <c r="AU6">
         <v>0.00198</v>
       </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0.01537</v>
-      </c>
-      <c r="AQ6">
-        <v>0.00143</v>
-      </c>
-      <c r="AR6">
-        <v>0.00151</v>
-      </c>
-      <c r="AS6">
-        <v>0.00016</v>
-      </c>
-      <c r="AT6">
-        <v>0.01306</v>
-      </c>
-      <c r="AU6">
-        <v>0.0028</v>
-      </c>
       <c r="AV6">
-        <v>0.00043</v>
+        <v>0.0039</v>
       </c>
       <c r="AW6">
-        <v>0.00564</v>
+        <v>0.00022</v>
       </c>
       <c r="AX6">
-        <v>0.01059</v>
+        <v>0.00158</v>
       </c>
       <c r="AY6">
-        <v>0.01398</v>
+        <v>0.00677</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -38493,154 +38493,154 @@
         <v>777</v>
       </c>
       <c r="B7">
+        <v>0.00286</v>
+      </c>
+      <c r="C7">
         <v>0.00204</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.0014</v>
-      </c>
-      <c r="D7">
-        <v>0.0004</v>
       </c>
       <c r="E7">
         <v>0.00082</v>
       </c>
       <c r="F7">
+        <v>0.0004</v>
+      </c>
+      <c r="G7">
+        <v>0.00215</v>
+      </c>
+      <c r="H7">
+        <v>0.00164</v>
+      </c>
+      <c r="I7">
+        <v>0.00174</v>
+      </c>
+      <c r="J7">
+        <v>0.00166</v>
+      </c>
+      <c r="K7">
+        <v>0.00219</v>
+      </c>
+      <c r="L7">
+        <v>0.00172</v>
+      </c>
+      <c r="M7">
+        <v>0.00545</v>
+      </c>
+      <c r="N7">
+        <v>0.00178</v>
+      </c>
+      <c r="O7">
+        <v>0.00318</v>
+      </c>
+      <c r="P7">
+        <v>0.00165</v>
+      </c>
+      <c r="Q7">
+        <v>0.00244</v>
+      </c>
+      <c r="R7">
         <v>0.00022</v>
       </c>
-      <c r="G7">
-        <v>0.00286</v>
-      </c>
-      <c r="H7">
-        <v>0.01532</v>
-      </c>
-      <c r="I7">
-        <v>0.00215</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="S7">
+        <v>0.00036</v>
+      </c>
+      <c r="T7">
+        <v>0.00372</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.00236</v>
+      </c>
+      <c r="W7">
+        <v>0.00448</v>
+      </c>
+      <c r="X7">
+        <v>0.03237</v>
+      </c>
+      <c r="Y7">
+        <v>0.00027</v>
+      </c>
+      <c r="Z7">
+        <v>0.00218</v>
+      </c>
+      <c r="AA7">
         <v>0.0013</v>
       </c>
-      <c r="L7">
-        <v>0.00174</v>
-      </c>
-      <c r="M7">
+      <c r="AB7">
+        <v>0.00157</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0.00561</v>
+      </c>
+      <c r="AE7">
+        <v>0.00383</v>
+      </c>
+      <c r="AF7">
+        <v>0.00175</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0.00049</v>
+      </c>
+      <c r="AI7">
         <v>0.05243</v>
       </c>
-      <c r="N7">
-        <v>0.01288</v>
-      </c>
-      <c r="O7">
-        <v>0.00119</v>
-      </c>
-      <c r="P7">
-        <v>0.00545</v>
-      </c>
-      <c r="Q7">
-        <v>0.00166</v>
-      </c>
-      <c r="R7">
+      <c r="AJ7">
+        <v>0.00771</v>
+      </c>
+      <c r="AK7">
+        <v>0.00944</v>
+      </c>
+      <c r="AL7">
+        <v>0.00216</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>0.00015</v>
       </c>
-      <c r="S7">
-        <v>0.00316</v>
-      </c>
-      <c r="T7">
-        <v>0.00164</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0.00049</v>
-      </c>
-      <c r="W7">
-        <v>0.00133</v>
-      </c>
-      <c r="X7">
-        <v>0.00907</v>
-      </c>
-      <c r="Y7">
-        <v>0.00178</v>
-      </c>
-      <c r="Z7">
-        <v>0.00026</v>
-      </c>
-      <c r="AA7">
-        <v>0.03929</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0.00021</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0.00205</v>
-      </c>
-      <c r="AF7">
-        <v>0.00236</v>
-      </c>
-      <c r="AG7">
-        <v>0.00218</v>
-      </c>
-      <c r="AH7">
-        <v>0.00764</v>
-      </c>
-      <c r="AI7">
-        <v>0.00244</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0.00165</v>
-      </c>
-      <c r="AL7">
-        <v>0.00448</v>
-      </c>
-      <c r="AM7">
-        <v>0.00734</v>
-      </c>
-      <c r="AN7">
-        <v>0.0016</v>
-      </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AP7">
-        <v>0.02561</v>
+        <v>0.00015</v>
       </c>
       <c r="AQ7">
-        <v>0.00162</v>
+        <v>0.00073</v>
       </c>
       <c r="AR7">
-        <v>0.00036</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>0.00029</v>
       </c>
       <c r="AT7">
-        <v>0.00599</v>
+        <v>0.02015</v>
       </c>
       <c r="AU7">
-        <v>0.00127</v>
+        <v>0.0016</v>
       </c>
       <c r="AV7">
-        <v>0.0002</v>
+        <v>0.00148</v>
       </c>
       <c r="AW7">
-        <v>0.00172</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>0.00446</v>
+        <v>0.00558</v>
       </c>
       <c r="AY7">
-        <v>0.00925</v>
+        <v>0.00348</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -38648,154 +38648,154 @@
         <v>778</v>
       </c>
       <c r="B8">
+        <v>0.0057</v>
+      </c>
+      <c r="C8">
         <v>0.00635</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.00431</v>
-      </c>
-      <c r="D8">
-        <v>0.00084</v>
       </c>
       <c r="E8">
         <v>0.01041</v>
       </c>
       <c r="F8">
+        <v>0.00084</v>
+      </c>
+      <c r="G8">
+        <v>0.00751</v>
+      </c>
+      <c r="H8">
+        <v>0.00476</v>
+      </c>
+      <c r="I8">
+        <v>0.00693</v>
+      </c>
+      <c r="J8">
+        <v>0.00574</v>
+      </c>
+      <c r="K8">
+        <v>0.00455</v>
+      </c>
+      <c r="L8">
+        <v>0.0045</v>
+      </c>
+      <c r="M8">
+        <v>0.01662</v>
+      </c>
+      <c r="N8">
+        <v>0.00501</v>
+      </c>
+      <c r="O8">
+        <v>0.00446</v>
+      </c>
+      <c r="P8">
+        <v>0.01414</v>
+      </c>
+      <c r="Q8">
+        <v>0.00473</v>
+      </c>
+      <c r="R8">
         <v>0.00092</v>
       </c>
-      <c r="G8">
-        <v>0.0057</v>
-      </c>
-      <c r="H8">
-        <v>0.00188</v>
-      </c>
-      <c r="I8">
-        <v>0.00751</v>
-      </c>
-      <c r="J8">
-        <v>0.00107</v>
-      </c>
-      <c r="K8">
+      <c r="S8">
+        <v>0.00111</v>
+      </c>
+      <c r="T8">
+        <v>0.00772</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.00015</v>
+      </c>
+      <c r="W8">
+        <v>0.00487</v>
+      </c>
+      <c r="X8">
+        <v>0.01789</v>
+      </c>
+      <c r="Y8">
+        <v>0.00083</v>
+      </c>
+      <c r="Z8">
+        <v>0.00693</v>
+      </c>
+      <c r="AA8">
         <v>0.00424</v>
       </c>
-      <c r="L8">
-        <v>0.00693</v>
-      </c>
-      <c r="M8">
+      <c r="AB8">
+        <v>0.00519</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0.00774</v>
+      </c>
+      <c r="AE8">
+        <v>0.0106</v>
+      </c>
+      <c r="AF8">
+        <v>0.0081</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.00114</v>
+      </c>
+      <c r="AI8">
         <v>0.0582</v>
       </c>
-      <c r="N8">
-        <v>0.032</v>
-      </c>
-      <c r="O8">
-        <v>0.00247</v>
-      </c>
-      <c r="P8">
-        <v>0.01662</v>
-      </c>
-      <c r="Q8">
-        <v>0.00574</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.00066</v>
-      </c>
-      <c r="T8">
-        <v>0.00476</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0.00114</v>
-      </c>
-      <c r="W8">
-        <v>0.00499</v>
-      </c>
-      <c r="X8">
-        <v>0.0137</v>
-      </c>
-      <c r="Y8">
-        <v>0.00501</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0.01342</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0.00116</v>
-      </c>
-      <c r="AF8">
+      <c r="AJ8">
+        <v>0.01436</v>
+      </c>
+      <c r="AK8">
+        <v>0.00635</v>
+      </c>
+      <c r="AL8">
+        <v>0.0039</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>0.00015</v>
       </c>
-      <c r="AG8">
-        <v>0.00693</v>
-      </c>
-      <c r="AH8">
-        <v>0.00661</v>
-      </c>
-      <c r="AI8">
-        <v>0.00473</v>
-      </c>
-      <c r="AJ8">
+      <c r="AP8">
+        <v>0.00046</v>
+      </c>
+      <c r="AQ8">
+        <v>0.00113</v>
+      </c>
+      <c r="AR8">
         <v>0.00029</v>
       </c>
-      <c r="AK8">
-        <v>0.01414</v>
-      </c>
-      <c r="AL8">
-        <v>0.00487</v>
-      </c>
-      <c r="AM8">
-        <v>0.01973</v>
-      </c>
-      <c r="AN8">
+      <c r="AS8">
+        <v>0.00137</v>
+      </c>
+      <c r="AT8">
+        <v>0.05668</v>
+      </c>
+      <c r="AU8">
         <v>0.00193</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0.01744</v>
-      </c>
-      <c r="AQ8">
-        <v>0.00224</v>
-      </c>
-      <c r="AR8">
-        <v>0.00111</v>
-      </c>
-      <c r="AS8">
-        <v>0.0003</v>
-      </c>
-      <c r="AT8">
-        <v>0.01211</v>
-      </c>
-      <c r="AU8">
-        <v>0.00263</v>
-      </c>
       <c r="AV8">
-        <v>0.00063</v>
+        <v>0.00365</v>
       </c>
       <c r="AW8">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>0.00617</v>
+        <v>0.00193</v>
       </c>
       <c r="AY8">
-        <v>0.0097</v>
+        <v>0.01104</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -38803,13 +38803,13 @@
         <v>779</v>
       </c>
       <c r="B9">
+        <v>0.00023</v>
+      </c>
+      <c r="C9">
         <v>0.00083</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.00061</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
       </c>
       <c r="E9">
         <v>0.00012</v>
@@ -38818,139 +38818,139 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00023</v>
+        <v>0.00125</v>
       </c>
       <c r="H9">
-        <v>0.00123</v>
+        <v>0.00066</v>
       </c>
       <c r="I9">
-        <v>0.00125</v>
+        <v>0.00074</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="K9">
+        <v>0.00028</v>
+      </c>
+      <c r="L9">
+        <v>0.00075</v>
+      </c>
+      <c r="M9">
+        <v>0.00173</v>
+      </c>
+      <c r="N9">
+        <v>0.00051</v>
+      </c>
+      <c r="O9">
+        <v>0.00145</v>
+      </c>
+      <c r="P9">
+        <v>0.00516</v>
+      </c>
+      <c r="Q9">
+        <v>0.00083</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.00268</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.0013</v>
+      </c>
+      <c r="X9">
+        <v>0.00331</v>
+      </c>
+      <c r="Y9">
+        <v>0.00102</v>
+      </c>
+      <c r="Z9">
+        <v>0.00097</v>
+      </c>
+      <c r="AA9">
         <v>0.00019</v>
       </c>
-      <c r="L9">
-        <v>0.00074</v>
-      </c>
-      <c r="M9">
+      <c r="AB9">
+        <v>0.00029</v>
+      </c>
+      <c r="AC9">
+        <v>0.00042</v>
+      </c>
+      <c r="AD9">
+        <v>0.00362</v>
+      </c>
+      <c r="AE9">
+        <v>0.00101</v>
+      </c>
+      <c r="AF9">
+        <v>0.00177</v>
+      </c>
+      <c r="AG9">
+        <v>0.00041</v>
+      </c>
+      <c r="AH9">
+        <v>0.00012</v>
+      </c>
+      <c r="AI9">
         <v>0.00528</v>
       </c>
-      <c r="N9">
-        <v>0.00057</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.00173</v>
-      </c>
-      <c r="Q9">
+      <c r="AJ9">
+        <v>0.00027</v>
+      </c>
+      <c r="AK9">
+        <v>0.00514</v>
+      </c>
+      <c r="AL9">
+        <v>0.00307</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0.00331</v>
+      </c>
+      <c r="AR9">
         <v>0.00014</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.00064</v>
-      </c>
-      <c r="T9">
-        <v>0.00066</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0.00012</v>
-      </c>
-      <c r="W9">
-        <v>0.00323</v>
-      </c>
-      <c r="X9">
-        <v>0.00292</v>
-      </c>
-      <c r="Y9">
-        <v>0.00051</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0.01363</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0.00042</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0.00097</v>
-      </c>
-      <c r="AH9">
-        <v>0.00022</v>
-      </c>
-      <c r="AI9">
-        <v>0.00083</v>
-      </c>
-      <c r="AJ9">
-        <v>0.00014</v>
-      </c>
-      <c r="AK9">
-        <v>0.00516</v>
-      </c>
-      <c r="AL9">
-        <v>0.0013</v>
-      </c>
-      <c r="AM9">
-        <v>0.00409</v>
-      </c>
-      <c r="AN9">
+      <c r="AS9">
+        <v>0.0003</v>
+      </c>
+      <c r="AT9">
+        <v>0.01383</v>
+      </c>
+      <c r="AU9">
         <v>0.00027</v>
       </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0.00362</v>
-      </c>
-      <c r="AQ9">
-        <v>0.00055</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0.00696</v>
-      </c>
-      <c r="AU9">
-        <v>0.00235</v>
-      </c>
       <c r="AV9">
-        <v>0.00641</v>
+        <v>0.004</v>
       </c>
       <c r="AW9">
-        <v>0.00075</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.00065</v>
+        <v>0.00038</v>
       </c>
       <c r="AY9">
-        <v>0.00115</v>
+        <v>0.00137</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -38958,61 +38958,61 @@
         <v>780</v>
       </c>
       <c r="B10">
+        <v>0.00173</v>
+      </c>
+      <c r="C10">
         <v>0.00066</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.0003</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
       <c r="E10">
         <v>0.00013</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.00166</v>
+      </c>
+      <c r="H10">
+        <v>0.00035</v>
+      </c>
+      <c r="I10">
+        <v>0.00047</v>
+      </c>
+      <c r="J10">
+        <v>0.00164</v>
+      </c>
+      <c r="K10">
+        <v>0.00118</v>
+      </c>
+      <c r="L10">
+        <v>0.00159</v>
+      </c>
+      <c r="M10">
+        <v>0.00294</v>
+      </c>
+      <c r="N10">
+        <v>0.0011</v>
+      </c>
+      <c r="O10">
+        <v>0.00189</v>
+      </c>
+      <c r="P10">
+        <v>0.00163</v>
+      </c>
+      <c r="Q10">
+        <v>0.00158</v>
+      </c>
+      <c r="R10">
         <v>0.00024</v>
       </c>
-      <c r="G10">
-        <v>0.00173</v>
-      </c>
-      <c r="H10">
-        <v>0.00326</v>
-      </c>
-      <c r="I10">
-        <v>0.00166</v>
-      </c>
-      <c r="J10">
-        <v>0.00048</v>
-      </c>
-      <c r="K10">
-        <v>0.005</v>
-      </c>
-      <c r="L10">
-        <v>0.00047</v>
-      </c>
-      <c r="M10">
-        <v>0.03368</v>
-      </c>
-      <c r="N10">
-        <v>0.00302</v>
-      </c>
-      <c r="O10">
-        <v>0.00427</v>
-      </c>
-      <c r="P10">
-        <v>0.00294</v>
-      </c>
-      <c r="Q10">
-        <v>0.00164</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.00035</v>
+        <v>0.00424</v>
       </c>
       <c r="U10">
         <v>0.00046</v>
@@ -39021,91 +39021,91 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.00174</v>
+        <v>0.00115</v>
       </c>
       <c r="X10">
-        <v>0.00467</v>
+        <v>0.02179</v>
       </c>
       <c r="Y10">
-        <v>0.0011</v>
+        <v>0.00143</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.00264</v>
       </c>
       <c r="AA10">
-        <v>0.00112</v>
+        <v>0.005</v>
       </c>
       <c r="AB10">
-        <v>0.00077</v>
+        <v>0.00354</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.00529</v>
       </c>
       <c r="AE10">
-        <v>0.0002</v>
+        <v>0.00642</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="AG10">
-        <v>0.00264</v>
+        <v>0.00022</v>
       </c>
       <c r="AH10">
-        <v>0.00183</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.00158</v>
+        <v>0.03368</v>
       </c>
       <c r="AJ10">
+        <v>0.00143</v>
+      </c>
+      <c r="AK10">
+        <v>0.00434</v>
+      </c>
+      <c r="AL10">
+        <v>0.00451</v>
+      </c>
+      <c r="AM10">
+        <v>0.00016</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0.00032</v>
+      </c>
+      <c r="AQ10">
+        <v>0.00548</v>
+      </c>
+      <c r="AR10">
         <v>0.00045</v>
       </c>
-      <c r="AK10">
-        <v>0.00163</v>
-      </c>
-      <c r="AL10">
-        <v>0.00115</v>
-      </c>
-      <c r="AM10">
-        <v>0.01382</v>
-      </c>
-      <c r="AN10">
+      <c r="AS10">
+        <v>0.00079</v>
+      </c>
+      <c r="AT10">
+        <v>0.02401</v>
+      </c>
+      <c r="AU10">
         <v>0.00029</v>
       </c>
-      <c r="AO10">
-        <v>0.00012</v>
-      </c>
-      <c r="AP10">
-        <v>0.0342</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0.01223</v>
-      </c>
-      <c r="AU10">
-        <v>0.00654</v>
-      </c>
       <c r="AV10">
-        <v>0.00989</v>
+        <v>0.00456</v>
       </c>
       <c r="AW10">
-        <v>0.00159</v>
+        <v>0.00249</v>
       </c>
       <c r="AX10">
-        <v>0.00137</v>
+        <v>0.0008</v>
       </c>
       <c r="AY10">
-        <v>0.00188</v>
+        <v>0.00438</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -39113,154 +39113,154 @@
         <v>781</v>
       </c>
       <c r="B11">
+        <v>0.01049</v>
+      </c>
+      <c r="C11">
         <v>0.0081</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.00898</v>
-      </c>
-      <c r="D11">
-        <v>0.00124</v>
       </c>
       <c r="E11">
         <v>0.01176</v>
       </c>
       <c r="F11">
+        <v>0.00124</v>
+      </c>
+      <c r="G11">
+        <v>0.01081</v>
+      </c>
+      <c r="H11">
+        <v>0.006</v>
+      </c>
+      <c r="I11">
+        <v>0.00709</v>
+      </c>
+      <c r="J11">
+        <v>0.00803</v>
+      </c>
+      <c r="K11">
+        <v>0.00837</v>
+      </c>
+      <c r="L11">
+        <v>0.00775</v>
+      </c>
+      <c r="M11">
+        <v>0.02914</v>
+      </c>
+      <c r="N11">
+        <v>0.01474</v>
+      </c>
+      <c r="O11">
+        <v>0.00632</v>
+      </c>
+      <c r="P11">
+        <v>0.01513</v>
+      </c>
+      <c r="Q11">
+        <v>0.00398</v>
+      </c>
+      <c r="R11">
         <v>0.0027</v>
       </c>
-      <c r="G11">
-        <v>0.01049</v>
-      </c>
-      <c r="H11">
-        <v>0.00062</v>
-      </c>
-      <c r="I11">
-        <v>0.01081</v>
-      </c>
-      <c r="J11">
-        <v>0.00135</v>
-      </c>
-      <c r="K11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.01202</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.00261</v>
+      </c>
+      <c r="X11">
+        <v>0.00636</v>
+      </c>
+      <c r="Y11">
+        <v>0.00097</v>
+      </c>
+      <c r="Z11">
+        <v>0.01082</v>
+      </c>
+      <c r="AA11">
         <v>0.00227</v>
       </c>
-      <c r="L11">
-        <v>0.00709</v>
-      </c>
-      <c r="M11">
+      <c r="AB11">
+        <v>0.00698</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0.01279</v>
+      </c>
+      <c r="AE11">
+        <v>0.01603</v>
+      </c>
+      <c r="AF11">
+        <v>0.01522</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0.00186</v>
+      </c>
+      <c r="AI11">
         <v>0.02692</v>
       </c>
-      <c r="N11">
-        <v>0.00799</v>
-      </c>
-      <c r="O11">
-        <v>0.00242</v>
-      </c>
-      <c r="P11">
-        <v>0.02914</v>
-      </c>
-      <c r="Q11">
-        <v>0.00803</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0.006</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0.00186</v>
-      </c>
-      <c r="W11">
-        <v>0.00486</v>
-      </c>
-      <c r="X11">
-        <v>0.01575</v>
-      </c>
-      <c r="Y11">
-        <v>0.01474</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0.00158</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0.01082</v>
-      </c>
-      <c r="AH11">
-        <v>0.00649</v>
-      </c>
-      <c r="AI11">
-        <v>0.00398</v>
-      </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.01513</v>
+        <v>0.00801</v>
       </c>
       <c r="AL11">
-        <v>0.00261</v>
+        <v>0.00573</v>
       </c>
       <c r="AM11">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.00224</v>
+      </c>
+      <c r="AQ11">
+        <v>0.00332</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0.0009</v>
+      </c>
+      <c r="AT11">
+        <v>0.02117</v>
+      </c>
+      <c r="AU11">
         <v>0.00163</v>
       </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0.0077</v>
-      </c>
-      <c r="AQ11">
-        <v>0.00412</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0.00045</v>
-      </c>
-      <c r="AT11">
-        <v>0.01315</v>
-      </c>
-      <c r="AU11">
-        <v>0.00274</v>
-      </c>
       <c r="AV11">
-        <v>0.00062</v>
+        <v>0.01408</v>
       </c>
       <c r="AW11">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>0.00649</v>
+        <v>0.00114</v>
       </c>
       <c r="AY11">
-        <v>0.00027</v>
+        <v>0.01181</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -39268,154 +39268,154 @@
         <v>782</v>
       </c>
       <c r="B12">
+        <v>0.00275</v>
+      </c>
+      <c r="C12">
         <v>0.00245</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.00157</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>0.00602</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.00462</v>
+      </c>
+      <c r="H12">
+        <v>0.00249</v>
+      </c>
+      <c r="I12">
+        <v>0.00366</v>
+      </c>
+      <c r="J12">
+        <v>0.00232</v>
+      </c>
+      <c r="K12">
+        <v>0.00131</v>
+      </c>
+      <c r="L12">
+        <v>0.00177</v>
+      </c>
+      <c r="M12">
+        <v>0.00041</v>
+      </c>
+      <c r="N12">
+        <v>0.00213</v>
+      </c>
+      <c r="O12">
+        <v>0.00363</v>
+      </c>
+      <c r="P12">
+        <v>0.00726</v>
+      </c>
+      <c r="Q12">
+        <v>0.00215</v>
+      </c>
+      <c r="R12">
         <v>0.00742</v>
       </c>
-      <c r="G12">
-        <v>0.00275</v>
-      </c>
-      <c r="H12">
-        <v>0.00121</v>
-      </c>
-      <c r="I12">
-        <v>0.00462</v>
-      </c>
-      <c r="J12">
-        <v>0.00035</v>
-      </c>
-      <c r="K12">
+      <c r="S12">
+        <v>0.01025</v>
+      </c>
+      <c r="T12">
+        <v>0.00472</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.00106</v>
+      </c>
+      <c r="W12">
+        <v>0.02354</v>
+      </c>
+      <c r="X12">
+        <v>0.08343</v>
+      </c>
+      <c r="Y12">
+        <v>0.00057</v>
+      </c>
+      <c r="Z12">
+        <v>0.00163</v>
+      </c>
+      <c r="AA12">
         <v>0.02383</v>
       </c>
-      <c r="L12">
-        <v>0.00366</v>
-      </c>
-      <c r="M12">
+      <c r="AB12">
+        <v>0.00531</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.00282</v>
+      </c>
+      <c r="AE12">
+        <v>0.00289</v>
+      </c>
+      <c r="AF12">
+        <v>0.0021</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.00044</v>
+      </c>
+      <c r="AI12">
         <v>0.18067</v>
       </c>
-      <c r="N12">
-        <v>0.09819</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0.00041</v>
-      </c>
-      <c r="Q12">
-        <v>0.00232</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0.00809</v>
-      </c>
-      <c r="T12">
-        <v>0.00249</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0.00044</v>
-      </c>
-      <c r="W12">
-        <v>0.00707</v>
-      </c>
-      <c r="X12">
-        <v>0.02053</v>
-      </c>
-      <c r="Y12">
-        <v>0.00213</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0.018</v>
-      </c>
-      <c r="AB12">
-        <v>0.00688</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0.01726</v>
-      </c>
-      <c r="AF12">
-        <v>0.00106</v>
-      </c>
-      <c r="AG12">
-        <v>0.00163</v>
-      </c>
-      <c r="AH12">
-        <v>0.00714</v>
-      </c>
-      <c r="AI12">
-        <v>0.00215</v>
-      </c>
       <c r="AJ12">
+        <v>0.01788</v>
+      </c>
+      <c r="AK12">
+        <v>0.02738</v>
+      </c>
+      <c r="AL12">
+        <v>0.00745</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0.00017</v>
+      </c>
+      <c r="AP12">
+        <v>0.00774</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>0.001</v>
       </c>
-      <c r="AK12">
-        <v>0.00726</v>
-      </c>
-      <c r="AL12">
-        <v>0.02354</v>
-      </c>
-      <c r="AM12">
-        <v>0.01088</v>
-      </c>
-      <c r="AN12">
+      <c r="AS12">
+        <v>0.00369</v>
+      </c>
+      <c r="AT12">
+        <v>0.08392</v>
+      </c>
+      <c r="AU12">
         <v>0.01181</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0.04662</v>
-      </c>
-      <c r="AQ12">
-        <v>0.00032</v>
-      </c>
-      <c r="AR12">
-        <v>0.01025</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0.00674</v>
-      </c>
-      <c r="AU12">
-        <v>0.0012</v>
-      </c>
       <c r="AV12">
-        <v>0</v>
+        <v>0.00619</v>
       </c>
       <c r="AW12">
-        <v>0.00177</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>0.00484</v>
+        <v>0.03083</v>
       </c>
       <c r="AY12">
-        <v>0.03519</v>
+        <v>0.00325</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -39423,13 +39423,13 @@
         <v>783</v>
       </c>
       <c r="B13">
+        <v>0.00143</v>
+      </c>
+      <c r="C13">
         <v>0.00085</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.0007</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
       </c>
       <c r="E13">
         <v>0.0001</v>
@@ -39438,139 +39438,139 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00143</v>
+        <v>0.00205</v>
       </c>
       <c r="H13">
-        <v>0.00303</v>
+        <v>0.00109</v>
       </c>
       <c r="I13">
-        <v>0.00205</v>
+        <v>0.00133</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="K13">
+        <v>0.00069</v>
+      </c>
+      <c r="L13">
+        <v>0.00102</v>
+      </c>
+      <c r="M13">
+        <v>0.00085</v>
+      </c>
+      <c r="N13">
+        <v>0.00106</v>
+      </c>
+      <c r="O13">
+        <v>0.00173</v>
+      </c>
+      <c r="P13">
+        <v>0.00356</v>
+      </c>
+      <c r="Q13">
+        <v>0.00109</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0.00346</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.00196</v>
+      </c>
+      <c r="X13">
+        <v>0.00198</v>
+      </c>
+      <c r="Y13">
+        <v>0.00115</v>
+      </c>
+      <c r="Z13">
+        <v>0.00193</v>
+      </c>
+      <c r="AA13">
         <v>0.00015</v>
       </c>
-      <c r="L13">
-        <v>0.00133</v>
-      </c>
-      <c r="M13">
+      <c r="AB13">
+        <v>0.00048</v>
+      </c>
+      <c r="AC13">
+        <v>0.00035</v>
+      </c>
+      <c r="AD13">
+        <v>0.00418</v>
+      </c>
+      <c r="AE13">
+        <v>0.00272</v>
+      </c>
+      <c r="AF13">
+        <v>0.0018</v>
+      </c>
+      <c r="AG13">
+        <v>0.00085</v>
+      </c>
+      <c r="AH13">
+        <v>0.0001</v>
+      </c>
+      <c r="AI13">
         <v>0.00568</v>
       </c>
-      <c r="N13">
-        <v>0.00062</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0.00085</v>
-      </c>
-      <c r="Q13">
+      <c r="AJ13">
+        <v>0.00022</v>
+      </c>
+      <c r="AK13">
+        <v>0.00358</v>
+      </c>
+      <c r="AL13">
+        <v>0.00434</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0.00272</v>
+      </c>
+      <c r="AR13">
         <v>0.00012</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.00053</v>
-      </c>
-      <c r="T13">
-        <v>0.00109</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0.0001</v>
-      </c>
-      <c r="W13">
-        <v>0.00335</v>
-      </c>
-      <c r="X13">
-        <v>0.00344</v>
-      </c>
-      <c r="Y13">
-        <v>0.00106</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0.01079</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0.00035</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0.00193</v>
-      </c>
-      <c r="AH13">
-        <v>0.00053</v>
-      </c>
-      <c r="AI13">
-        <v>0.00109</v>
-      </c>
-      <c r="AJ13">
+      <c r="AS13">
         <v>0.00012</v>
       </c>
-      <c r="AK13">
-        <v>0.00356</v>
-      </c>
-      <c r="AL13">
-        <v>0.00196</v>
-      </c>
-      <c r="AM13">
-        <v>0.00445</v>
-      </c>
-      <c r="AN13">
+      <c r="AT13">
+        <v>0.01052</v>
+      </c>
+      <c r="AU13">
         <v>0.00022</v>
       </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0.00386</v>
-      </c>
-      <c r="AQ13">
-        <v>0.00068</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0.00687</v>
-      </c>
-      <c r="AU13">
-        <v>0.00167</v>
-      </c>
       <c r="AV13">
-        <v>0.00902</v>
+        <v>0.00426</v>
       </c>
       <c r="AW13">
-        <v>0.00102</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
       <c r="AY13">
-        <v>0.00146</v>
+        <v>0.00194</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -39578,154 +39578,154 @@
         <v>784</v>
       </c>
       <c r="B14">
+        <v>0.00064</v>
+      </c>
+      <c r="C14">
         <v>0.00113</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.00093</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
       </c>
       <c r="E14">
         <v>0.00065</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.00137</v>
+      </c>
+      <c r="H14">
+        <v>0.00121</v>
+      </c>
+      <c r="I14">
+        <v>0.00081</v>
+      </c>
+      <c r="J14">
+        <v>0.00169</v>
+      </c>
+      <c r="K14">
+        <v>0.0003</v>
+      </c>
+      <c r="L14">
+        <v>0.001</v>
+      </c>
+      <c r="M14">
+        <v>0.00379</v>
+      </c>
+      <c r="N14">
+        <v>0.00056</v>
+      </c>
+      <c r="O14">
+        <v>0.00071</v>
+      </c>
+      <c r="P14">
+        <v>0.00367</v>
+      </c>
+      <c r="Q14">
+        <v>0.00054</v>
+      </c>
+      <c r="R14">
         <v>0.00025</v>
       </c>
-      <c r="G14">
-        <v>0.00064</v>
-      </c>
-      <c r="H14">
-        <v>0.01053</v>
-      </c>
-      <c r="I14">
-        <v>0.00137</v>
-      </c>
-      <c r="J14">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0.00437</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.00426</v>
+      </c>
+      <c r="X14">
         <v>0.00033</v>
       </c>
-      <c r="K14">
+      <c r="Y14">
+        <v>0.00189</v>
+      </c>
+      <c r="Z14">
+        <v>0.00076</v>
+      </c>
+      <c r="AA14">
         <v>0.00062</v>
       </c>
-      <c r="L14">
-        <v>0.00081</v>
-      </c>
-      <c r="M14">
+      <c r="AB14">
+        <v>0.00095</v>
+      </c>
+      <c r="AC14">
+        <v>0.00023</v>
+      </c>
+      <c r="AD14">
+        <v>0.0034</v>
+      </c>
+      <c r="AE14">
+        <v>0.00173</v>
+      </c>
+      <c r="AF14">
+        <v>0.0015</v>
+      </c>
+      <c r="AG14">
+        <v>0.00362</v>
+      </c>
+      <c r="AH14">
+        <v>0.00014</v>
+      </c>
+      <c r="AI14">
         <v>0.01157</v>
       </c>
-      <c r="N14">
-        <v>0.00062</v>
-      </c>
-      <c r="O14">
-        <v>0.00044</v>
-      </c>
-      <c r="P14">
-        <v>0.00379</v>
-      </c>
-      <c r="Q14">
-        <v>0.00169</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0.00187</v>
-      </c>
-      <c r="T14">
-        <v>0.00121</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0.00014</v>
-      </c>
-      <c r="W14">
-        <v>0.00687</v>
-      </c>
-      <c r="X14">
-        <v>0.00412</v>
-      </c>
-      <c r="Y14">
-        <v>0.00056</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0.01264</v>
-      </c>
-      <c r="AB14">
-        <v>0.0008</v>
-      </c>
-      <c r="AC14">
+      <c r="AJ14">
+        <v>0.00089</v>
+      </c>
+      <c r="AK14">
+        <v>0.00155</v>
+      </c>
+      <c r="AL14">
+        <v>0.0069</v>
+      </c>
+      <c r="AM14">
+        <v>0.00016</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0.00016</v>
+      </c>
+      <c r="AQ14">
+        <v>0.00242</v>
+      </c>
+      <c r="AR14">
         <v>0.00046</v>
       </c>
-      <c r="AD14">
-        <v>0.00023</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0.00076</v>
-      </c>
-      <c r="AH14">
-        <v>0.00047</v>
-      </c>
-      <c r="AI14">
-        <v>0.00054</v>
-      </c>
-      <c r="AJ14">
-        <v>0.00046</v>
-      </c>
-      <c r="AK14">
-        <v>0.00367</v>
-      </c>
-      <c r="AL14">
-        <v>0.00426</v>
-      </c>
-      <c r="AM14">
-        <v>0.0104</v>
-      </c>
-      <c r="AN14">
+      <c r="AS14">
+        <v>0.00033</v>
+      </c>
+      <c r="AT14">
+        <v>0.0189</v>
+      </c>
+      <c r="AU14">
         <v>0.00089</v>
       </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0.00677</v>
-      </c>
-      <c r="AQ14">
-        <v>0.0009</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0.0106</v>
-      </c>
-      <c r="AU14">
-        <v>0.00528</v>
-      </c>
       <c r="AV14">
-        <v>0.0222</v>
+        <v>0.00726</v>
       </c>
       <c r="AW14">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>0.00024</v>
+        <v>0.00166</v>
       </c>
       <c r="AY14">
-        <v>0.00019</v>
+        <v>0.00086</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -39733,154 +39733,154 @@
         <v>785</v>
       </c>
       <c r="B15">
+        <v>0.01067</v>
+      </c>
+      <c r="C15">
         <v>0.01177</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.01011</v>
-      </c>
-      <c r="D15">
-        <v>0.00106</v>
       </c>
       <c r="E15">
         <v>0.00796</v>
       </c>
       <c r="F15">
+        <v>0.00106</v>
+      </c>
+      <c r="G15">
+        <v>0.01596</v>
+      </c>
+      <c r="H15">
+        <v>0.01203</v>
+      </c>
+      <c r="I15">
+        <v>0.01162</v>
+      </c>
+      <c r="J15">
+        <v>0.00817</v>
+      </c>
+      <c r="K15">
+        <v>0.01258</v>
+      </c>
+      <c r="L15">
+        <v>0.01299</v>
+      </c>
+      <c r="M15">
+        <v>0.02772</v>
+      </c>
+      <c r="N15">
+        <v>0.01633</v>
+      </c>
+      <c r="O15">
+        <v>0.01232</v>
+      </c>
+      <c r="P15">
+        <v>0.00849</v>
+      </c>
+      <c r="Q15">
+        <v>0.00898</v>
+      </c>
+      <c r="R15">
         <v>0.00087</v>
       </c>
-      <c r="G15">
-        <v>0.01067</v>
-      </c>
-      <c r="H15">
-        <v>0.00238</v>
-      </c>
-      <c r="I15">
-        <v>0.01596</v>
-      </c>
-      <c r="J15">
-        <v>0.00116</v>
-      </c>
-      <c r="K15">
+      <c r="S15">
+        <v>0.00093</v>
+      </c>
+      <c r="T15">
+        <v>0.01541</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0.00019</v>
+      </c>
+      <c r="W15">
+        <v>0.00728</v>
+      </c>
+      <c r="X15">
+        <v>0.0156</v>
+      </c>
+      <c r="Y15">
+        <v>0.00063</v>
+      </c>
+      <c r="Z15">
+        <v>0.01431</v>
+      </c>
+      <c r="AA15">
         <v>0.00438</v>
       </c>
-      <c r="L15">
-        <v>0.01162</v>
-      </c>
-      <c r="M15">
+      <c r="AB15">
+        <v>0.00525</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.01729</v>
+      </c>
+      <c r="AE15">
+        <v>0.01973</v>
+      </c>
+      <c r="AF15">
+        <v>0.01784</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0.00176</v>
+      </c>
+      <c r="AI15">
         <v>0.03495</v>
       </c>
-      <c r="N15">
-        <v>0.00809</v>
-      </c>
-      <c r="O15">
-        <v>0.00208</v>
-      </c>
-      <c r="P15">
-        <v>0.02772</v>
-      </c>
-      <c r="Q15">
-        <v>0.00817</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0.00249</v>
-      </c>
-      <c r="T15">
-        <v>0.01203</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0.00176</v>
-      </c>
-      <c r="W15">
-        <v>0.0035</v>
-      </c>
-      <c r="X15">
-        <v>0.01028</v>
-      </c>
-      <c r="Y15">
-        <v>0.01633</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0.00068</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0.00098</v>
-      </c>
-      <c r="AF15">
+      <c r="AJ15">
+        <v>0.00559</v>
+      </c>
+      <c r="AK15">
+        <v>0.00482</v>
+      </c>
+      <c r="AL15">
+        <v>0.00246</v>
+      </c>
+      <c r="AM15">
         <v>0.00019</v>
       </c>
-      <c r="AG15">
-        <v>0.01431</v>
-      </c>
-      <c r="AH15">
-        <v>0.01255</v>
-      </c>
-      <c r="AI15">
-        <v>0.00898</v>
-      </c>
-      <c r="AJ15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0.00135</v>
+      </c>
+      <c r="AQ15">
+        <v>0.00381</v>
+      </c>
+      <c r="AR15">
         <v>0.00037</v>
       </c>
-      <c r="AK15">
-        <v>0.00849</v>
-      </c>
-      <c r="AL15">
-        <v>0.00728</v>
-      </c>
-      <c r="AM15">
-        <v>0.00283</v>
-      </c>
-      <c r="AN15">
+      <c r="AS15">
+        <v>0.00135</v>
+      </c>
+      <c r="AT15">
+        <v>0.01075</v>
+      </c>
+      <c r="AU15">
         <v>0.00105</v>
       </c>
-      <c r="AO15">
-        <v>0.00029</v>
-      </c>
-      <c r="AP15">
-        <v>0.01268</v>
-      </c>
-      <c r="AQ15">
-        <v>0.00142</v>
-      </c>
-      <c r="AR15">
-        <v>0.00093</v>
-      </c>
-      <c r="AS15">
-        <v>0.00038</v>
-      </c>
-      <c r="AT15">
-        <v>0.02089</v>
-      </c>
-      <c r="AU15">
-        <v>0.00159</v>
-      </c>
       <c r="AV15">
-        <v>0.00054</v>
+        <v>0.01001</v>
       </c>
       <c r="AW15">
-        <v>0.01299</v>
+        <v>0.00055</v>
       </c>
       <c r="AX15">
-        <v>0.00307</v>
+        <v>0</v>
       </c>
       <c r="AY15">
-        <v>0.00069</v>
+        <v>0.01725</v>
       </c>
     </row>
   </sheetData>

--- a/test/temp.xlsx
+++ b/test/temp.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="cleaned_raw_input" sheetId="1" r:id="rId1"/>
     <sheet name="discriminatory_args" sheetId="2" r:id="rId2"/>
+    <sheet name="ARGs_importance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="788">
   <si>
     <t>tetQ</t>
   </si>
@@ -2373,6 +2374,12 @@
   </si>
   <si>
     <t>VR8</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>importance</t>
   </si>
 </sst>
 </file>
@@ -37555,2332 +37562,6935 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:DS15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:123">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="CY1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="DO1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>103</v>
+      <c r="DP1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B2">
+        <v>0.15169</v>
+      </c>
+      <c r="C2">
+        <v>0.01391</v>
+      </c>
+      <c r="D2">
+        <v>0.00649</v>
+      </c>
+      <c r="E2">
+        <v>0.11111</v>
+      </c>
+      <c r="F2">
+        <v>0.06846</v>
+      </c>
+      <c r="G2">
+        <v>0.05795</v>
+      </c>
+      <c r="H2">
+        <v>0.10169</v>
+      </c>
+      <c r="I2">
+        <v>0.06079</v>
+      </c>
+      <c r="J2">
+        <v>0.07268</v>
+      </c>
+      <c r="K2">
+        <v>0.00989</v>
+      </c>
+      <c r="L2">
+        <v>0.00604</v>
+      </c>
+      <c r="M2">
+        <v>0.05437</v>
+      </c>
+      <c r="N2">
+        <v>0.00669</v>
+      </c>
+      <c r="O2">
+        <v>0.02518</v>
+      </c>
+      <c r="P2">
+        <v>0.08519</v>
+      </c>
+      <c r="Q2">
+        <v>0.03349</v>
+      </c>
+      <c r="R2">
+        <v>0.01196</v>
+      </c>
+      <c r="S2">
+        <v>0.01365</v>
+      </c>
+      <c r="T2">
+        <v>0.00284</v>
+      </c>
+      <c r="U2">
+        <v>0.00424</v>
+      </c>
+      <c r="V2">
+        <v>0.00066</v>
+      </c>
+      <c r="W2">
+        <v>0.00213</v>
+      </c>
+      <c r="X2">
+        <v>0.03504</v>
+      </c>
+      <c r="Y2">
+        <v>0.01257</v>
+      </c>
+      <c r="Z2">
+        <v>0.00221</v>
+      </c>
+      <c r="AA2">
+        <v>0.00117</v>
+      </c>
+      <c r="AB2">
+        <v>0.01563</v>
+      </c>
+      <c r="AC2">
+        <v>0.00298</v>
+      </c>
+      <c r="AD2">
+        <v>0.00385</v>
+      </c>
+      <c r="AE2">
+        <v>0.00317</v>
+      </c>
+      <c r="AF2">
+        <v>0.00111</v>
+      </c>
+      <c r="AG2">
+        <v>0.01556</v>
+      </c>
+      <c r="AH2">
+        <v>0.0034</v>
+      </c>
+      <c r="AI2">
+        <v>0.006</v>
+      </c>
+      <c r="AJ2">
+        <v>0.00363</v>
+      </c>
+      <c r="AK2">
+        <v>0.00028</v>
+      </c>
+      <c r="AL2">
+        <v>0.03162</v>
+      </c>
+      <c r="AM2">
+        <v>0.03224</v>
+      </c>
+      <c r="AN2">
+        <v>0.04063</v>
+      </c>
+      <c r="AO2">
         <v>0.0027</v>
       </c>
-      <c r="C2">
+      <c r="AP2">
+        <v>0.00888</v>
+      </c>
+      <c r="AQ2">
+        <v>0.02008</v>
+      </c>
+      <c r="AR2">
+        <v>0.00213</v>
+      </c>
+      <c r="AS2">
+        <v>0.00712</v>
+      </c>
+      <c r="AT2">
+        <v>0.02026</v>
+      </c>
+      <c r="AU2">
+        <v>0.00284</v>
+      </c>
+      <c r="AV2">
+        <v>0.00517</v>
+      </c>
+      <c r="AW2">
+        <v>0.00028</v>
+      </c>
+      <c r="AX2">
+        <v>0.00196</v>
+      </c>
+      <c r="AY2">
+        <v>0.005</v>
+      </c>
+      <c r="AZ2">
+        <v>0.00442</v>
+      </c>
+      <c r="BA2">
+        <v>0.00287</v>
+      </c>
+      <c r="BB2">
+        <v>0.00369</v>
+      </c>
+      <c r="BC2">
+        <v>0.00236</v>
+      </c>
+      <c r="BD2">
+        <v>0.00341</v>
+      </c>
+      <c r="BE2">
+        <v>0.00037</v>
+      </c>
+      <c r="BF2">
+        <v>0.00049</v>
+      </c>
+      <c r="BG2">
+        <v>0.0018</v>
+      </c>
+      <c r="BH2">
+        <v>0.0053</v>
+      </c>
+      <c r="BI2">
+        <v>0.04436</v>
+      </c>
+      <c r="BJ2">
+        <v>0.01915</v>
+      </c>
+      <c r="BK2">
+        <v>0.0093</v>
+      </c>
+      <c r="BL2">
+        <v>0.03745</v>
+      </c>
+      <c r="BM2">
         <v>0.00254</v>
       </c>
-      <c r="D2">
-        <v>0.00213</v>
-      </c>
-      <c r="E2">
-        <v>0.00888</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.00213</v>
-      </c>
-      <c r="H2">
-        <v>0.00196</v>
-      </c>
-      <c r="I2">
-        <v>0.00442</v>
-      </c>
-      <c r="J2">
-        <v>0.00517</v>
-      </c>
-      <c r="K2">
+      <c r="BN2">
+        <v>0.00141</v>
+      </c>
+      <c r="BO2">
+        <v>0.00794</v>
+      </c>
+      <c r="BP2">
+        <v>0.00755</v>
+      </c>
+      <c r="BQ2">
+        <v>0.01218</v>
+      </c>
+      <c r="BR2">
+        <v>0.00963</v>
+      </c>
+      <c r="BS2">
         <v>0.00341</v>
       </c>
-      <c r="L2">
-        <v>0.00317</v>
-      </c>
-      <c r="M2">
-        <v>0.00236</v>
-      </c>
-      <c r="N2">
-        <v>0.00141</v>
-      </c>
-      <c r="O2">
-        <v>0.00287</v>
-      </c>
-      <c r="P2">
-        <v>0.01563</v>
-      </c>
-      <c r="Q2">
-        <v>0.0018</v>
-      </c>
-      <c r="R2">
+      <c r="BT2">
+        <v>0.01547</v>
+      </c>
+      <c r="BU2">
+        <v>0.00467</v>
+      </c>
+      <c r="BV2">
         <v>0.01131</v>
       </c>
-      <c r="S2">
+      <c r="BW2">
+        <v>0.0065</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0.00368</v>
+      </c>
+      <c r="BZ2">
+        <v>0.00671</v>
+      </c>
+      <c r="CA2">
+        <v>0.00118</v>
+      </c>
+      <c r="CB2">
+        <v>0.00117</v>
+      </c>
+      <c r="CC2">
         <v>0.00887</v>
       </c>
-      <c r="T2">
-        <v>0.00604</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="CD2">
         <v>0.00061</v>
       </c>
-      <c r="W2">
-        <v>0.02008</v>
-      </c>
-      <c r="X2">
-        <v>0.08519</v>
-      </c>
-      <c r="Y2">
-        <v>0.00037</v>
-      </c>
-      <c r="Z2">
-        <v>0.0034</v>
-      </c>
-      <c r="AA2">
-        <v>0.03162</v>
-      </c>
-      <c r="AB2">
-        <v>0.00712</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.00424</v>
-      </c>
-      <c r="AE2">
-        <v>0.00491</v>
-      </c>
-      <c r="AF2">
-        <v>0.00298</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0.00118</v>
-      </c>
-      <c r="AI2">
-        <v>0.15169</v>
-      </c>
-      <c r="AJ2">
-        <v>0.02026</v>
-      </c>
-      <c r="AK2">
-        <v>0.02518</v>
-      </c>
-      <c r="AL2">
-        <v>0.006</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0.01218</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
+      <c r="CE2">
+        <v>0.00075</v>
+      </c>
+      <c r="CF2">
+        <v>0.00029</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0.00019</v>
+      </c>
+      <c r="CK2">
         <v>0.00116</v>
       </c>
-      <c r="AS2">
-        <v>0.00467</v>
-      </c>
-      <c r="AT2">
-        <v>0.11111</v>
-      </c>
-      <c r="AU2">
-        <v>0.01547</v>
-      </c>
-      <c r="AV2">
-        <v>0.00669</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0.04436</v>
-      </c>
-      <c r="AY2">
-        <v>0.00187</v>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0.00148</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0.00112</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0.00694</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0.00055</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0.00319</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0.00083</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0.00028</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0.00054</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0.00027</v>
+      </c>
+      <c r="DQ2">
+        <v>0.00059</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
         <v>773</v>
       </c>
       <c r="B3">
+        <v>0.0619</v>
+      </c>
+      <c r="C3">
+        <v>0.01183</v>
+      </c>
+      <c r="D3">
+        <v>0.01749</v>
+      </c>
+      <c r="E3">
+        <v>0.01433</v>
+      </c>
+      <c r="F3">
+        <v>0.02658</v>
+      </c>
+      <c r="G3">
+        <v>0.02891</v>
+      </c>
+      <c r="H3">
+        <v>0.01117</v>
+      </c>
+      <c r="I3">
+        <v>0.04228</v>
+      </c>
+      <c r="J3">
+        <v>0.04813</v>
+      </c>
+      <c r="K3">
+        <v>0.00647</v>
+      </c>
+      <c r="L3">
+        <v>0.00495</v>
+      </c>
+      <c r="M3">
+        <v>0.03416</v>
+      </c>
+      <c r="N3">
+        <v>0.00268</v>
+      </c>
+      <c r="O3">
+        <v>0.00685</v>
+      </c>
+      <c r="P3">
+        <v>0.04881</v>
+      </c>
+      <c r="Q3">
+        <v>0.00257</v>
+      </c>
+      <c r="R3">
+        <v>0.00582</v>
+      </c>
+      <c r="S3">
+        <v>0.00149</v>
+      </c>
+      <c r="T3">
+        <v>0.0016</v>
+      </c>
+      <c r="U3">
+        <v>0.00723</v>
+      </c>
+      <c r="V3">
+        <v>0.00164</v>
+      </c>
+      <c r="W3">
+        <v>0.00138</v>
+      </c>
+      <c r="X3">
+        <v>0.02197</v>
+      </c>
+      <c r="Y3">
+        <v>0.01125</v>
+      </c>
+      <c r="Z3">
+        <v>0.00233</v>
+      </c>
+      <c r="AA3">
+        <v>0.0012</v>
+      </c>
+      <c r="AB3">
+        <v>0.00127</v>
+      </c>
+      <c r="AC3">
+        <v>0.01315</v>
+      </c>
+      <c r="AD3">
+        <v>0.01112</v>
+      </c>
+      <c r="AE3">
+        <v>0.00248</v>
+      </c>
+      <c r="AF3">
+        <v>0.0009</v>
+      </c>
+      <c r="AG3">
+        <v>0.01034</v>
+      </c>
+      <c r="AH3">
+        <v>0.00631</v>
+      </c>
+      <c r="AI3">
+        <v>0.00146</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01665</v>
+      </c>
+      <c r="AK3">
+        <v>0.00069</v>
+      </c>
+      <c r="AL3">
+        <v>0.00266</v>
+      </c>
+      <c r="AM3">
+        <v>0.02832</v>
+      </c>
+      <c r="AN3">
+        <v>0.0015</v>
+      </c>
+      <c r="AO3">
         <v>0.00338</v>
       </c>
-      <c r="C3">
+      <c r="AP3">
+        <v>0.00059</v>
+      </c>
+      <c r="AQ3">
+        <v>0.00395</v>
+      </c>
+      <c r="AR3">
+        <v>0.00389</v>
+      </c>
+      <c r="AS3">
+        <v>0.00337</v>
+      </c>
+      <c r="AT3">
+        <v>0.00695</v>
+      </c>
+      <c r="AU3">
+        <v>0.01489</v>
+      </c>
+      <c r="AV3">
+        <v>0.00245</v>
+      </c>
+      <c r="AW3">
+        <v>0.00034</v>
+      </c>
+      <c r="AX3">
+        <v>0.0011</v>
+      </c>
+      <c r="AY3">
+        <v>0.0093</v>
+      </c>
+      <c r="AZ3">
         <v>0.00086</v>
       </c>
-      <c r="D3">
-        <v>0.00138</v>
-      </c>
-      <c r="E3">
+      <c r="BA3">
+        <v>0.00215</v>
+      </c>
+      <c r="BB3">
         <v>0.00059</v>
       </c>
-      <c r="F3">
+      <c r="BC3">
+        <v>0.00287</v>
+      </c>
+      <c r="BD3">
+        <v>0.00346</v>
+      </c>
+      <c r="BE3">
+        <v>0.00049</v>
+      </c>
+      <c r="BF3">
+        <v>0.02068</v>
+      </c>
+      <c r="BG3">
+        <v>0.00316</v>
+      </c>
+      <c r="BH3">
+        <v>0.00662</v>
+      </c>
+      <c r="BI3">
+        <v>0.00722</v>
+      </c>
+      <c r="BJ3">
+        <v>0.00189</v>
+      </c>
+      <c r="BK3">
+        <v>0.00156</v>
+      </c>
+      <c r="BL3">
+        <v>0.0015</v>
+      </c>
+      <c r="BM3">
+        <v>0.00086</v>
+      </c>
+      <c r="BN3">
+        <v>0.00214</v>
+      </c>
+      <c r="BO3">
+        <v>0.00577</v>
+      </c>
+      <c r="BP3">
+        <v>0.00394</v>
+      </c>
+      <c r="BQ3">
+        <v>0.00037</v>
+      </c>
+      <c r="BR3">
+        <v>0.00124</v>
+      </c>
+      <c r="BS3">
+        <v>0.00092</v>
+      </c>
+      <c r="BT3">
+        <v>0.00134</v>
+      </c>
+      <c r="BU3">
+        <v>0.00062</v>
+      </c>
+      <c r="BV3">
+        <v>0.00019</v>
+      </c>
+      <c r="BW3">
+        <v>0.0009</v>
+      </c>
+      <c r="BX3">
+        <v>0.00139</v>
+      </c>
+      <c r="BY3">
+        <v>0.00069</v>
+      </c>
+      <c r="BZ3">
+        <v>0.00659</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.00036</v>
+      </c>
+      <c r="CC3">
+        <v>0.0006</v>
+      </c>
+      <c r="CD3">
+        <v>0.00261</v>
+      </c>
+      <c r="CE3">
+        <v>0.00091</v>
+      </c>
+      <c r="CF3">
+        <v>0.00156</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.00034</v>
+      </c>
+      <c r="CI3">
+        <v>0.00026</v>
+      </c>
+      <c r="CJ3">
+        <v>0.00012</v>
+      </c>
+      <c r="CK3">
+        <v>0.00012</v>
+      </c>
+      <c r="CL3">
+        <v>0.00018</v>
+      </c>
+      <c r="CM3">
+        <v>0.0018</v>
+      </c>
+      <c r="CN3">
+        <v>0.00113</v>
+      </c>
+      <c r="CO3">
+        <v>0.00028</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0.00027</v>
+      </c>
+      <c r="CR3">
+        <v>0.0006</v>
+      </c>
+      <c r="CS3">
+        <v>0.00109</v>
+      </c>
+      <c r="CT3">
+        <v>0.00045</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0.00101</v>
+      </c>
+      <c r="CY3">
         <v>0.00068</v>
       </c>
-      <c r="G3">
-        <v>0.00389</v>
-      </c>
-      <c r="H3">
-        <v>0.0011</v>
-      </c>
-      <c r="I3">
-        <v>0.00086</v>
-      </c>
-      <c r="J3">
-        <v>0.00245</v>
-      </c>
-      <c r="K3">
-        <v>0.00092</v>
-      </c>
-      <c r="L3">
-        <v>0.00248</v>
-      </c>
-      <c r="M3">
-        <v>0.00287</v>
-      </c>
-      <c r="N3">
-        <v>0.00214</v>
-      </c>
-      <c r="O3">
-        <v>0.00215</v>
-      </c>
-      <c r="P3">
-        <v>0.00127</v>
-      </c>
-      <c r="Q3">
-        <v>0.00316</v>
-      </c>
-      <c r="R3">
-        <v>0.00019</v>
-      </c>
-      <c r="S3">
-        <v>0.0006</v>
-      </c>
-      <c r="T3">
-        <v>0.00495</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.00261</v>
-      </c>
-      <c r="W3">
-        <v>0.00395</v>
-      </c>
-      <c r="X3">
-        <v>0.04881</v>
-      </c>
-      <c r="Y3">
-        <v>0.00049</v>
-      </c>
-      <c r="Z3">
-        <v>0.00631</v>
-      </c>
-      <c r="AA3">
-        <v>0.00266</v>
-      </c>
-      <c r="AB3">
-        <v>0.00337</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0.00723</v>
-      </c>
-      <c r="AE3">
-        <v>0.02281</v>
-      </c>
-      <c r="AF3">
-        <v>0.01315</v>
-      </c>
-      <c r="AG3">
-        <v>0.00034</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0.0619</v>
-      </c>
-      <c r="AJ3">
-        <v>0.00695</v>
-      </c>
-      <c r="AK3">
-        <v>0.00685</v>
-      </c>
-      <c r="AL3">
-        <v>0.00146</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
+      <c r="CZ3">
+        <v>0.00075</v>
+      </c>
+      <c r="DA3">
+        <v>0.00022</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0.00017</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0.00017</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
         <v>0.00025</v>
       </c>
-      <c r="AO3">
-        <v>0.00109</v>
-      </c>
-      <c r="AP3">
-        <v>0.00037</v>
-      </c>
-      <c r="AQ3">
-        <v>0.00153</v>
-      </c>
-      <c r="AR3">
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0.00022</v>
+      </c>
+      <c r="DS3">
         <v>0.00012</v>
       </c>
-      <c r="AS3">
-        <v>0.00062</v>
-      </c>
-      <c r="AT3">
-        <v>0.01433</v>
-      </c>
-      <c r="AU3">
-        <v>0.00134</v>
-      </c>
-      <c r="AV3">
-        <v>0.00268</v>
-      </c>
-      <c r="AW3">
-        <v>0.00018</v>
-      </c>
-      <c r="AX3">
-        <v>0.00722</v>
-      </c>
-      <c r="AY3">
-        <v>0.01726</v>
-      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B4">
+        <v>0.03957</v>
+      </c>
+      <c r="C4">
+        <v>0.01391</v>
+      </c>
+      <c r="D4">
+        <v>0.01166</v>
+      </c>
+      <c r="E4">
+        <v>0.03613</v>
+      </c>
+      <c r="F4">
+        <v>0.01542</v>
+      </c>
+      <c r="G4">
+        <v>0.01678</v>
+      </c>
+      <c r="H4">
+        <v>0.00782</v>
+      </c>
+      <c r="I4">
+        <v>0.06078</v>
+      </c>
+      <c r="J4">
+        <v>0.02375</v>
+      </c>
+      <c r="K4">
+        <v>0.00587</v>
+      </c>
+      <c r="L4">
+        <v>0.00388</v>
+      </c>
+      <c r="M4">
+        <v>0.01805</v>
+      </c>
+      <c r="N4">
+        <v>0.00447</v>
+      </c>
+      <c r="O4">
+        <v>0.0063</v>
+      </c>
+      <c r="P4">
+        <v>0.03039</v>
+      </c>
+      <c r="Q4">
+        <v>0.00487</v>
+      </c>
+      <c r="R4">
+        <v>0.01607</v>
+      </c>
+      <c r="S4">
+        <v>0.00268</v>
+      </c>
+      <c r="T4">
+        <v>0.00275</v>
+      </c>
+      <c r="U4">
+        <v>0.00368</v>
+      </c>
+      <c r="V4">
+        <v>0.00552</v>
+      </c>
+      <c r="W4">
+        <v>0.00076</v>
+      </c>
+      <c r="X4">
+        <v>0.00882</v>
+      </c>
+      <c r="Y4">
+        <v>0.01612</v>
+      </c>
+      <c r="Z4">
+        <v>0.00322</v>
+      </c>
+      <c r="AA4">
+        <v>0.00345</v>
+      </c>
+      <c r="AB4">
+        <v>0.00464</v>
+      </c>
+      <c r="AC4">
+        <v>0.00407</v>
+      </c>
+      <c r="AD4">
+        <v>0.00533</v>
+      </c>
+      <c r="AE4">
+        <v>0.00124</v>
+      </c>
+      <c r="AF4">
+        <v>0.00217</v>
+      </c>
+      <c r="AG4">
+        <v>0.00698</v>
+      </c>
+      <c r="AH4">
+        <v>0.00301</v>
+      </c>
+      <c r="AI4">
+        <v>0.00453</v>
+      </c>
+      <c r="AJ4">
+        <v>0.00375</v>
+      </c>
+      <c r="AK4">
+        <v>0.00284</v>
+      </c>
+      <c r="AL4">
+        <v>0.00475</v>
+      </c>
+      <c r="AM4">
+        <v>0.00361</v>
+      </c>
+      <c r="AN4">
+        <v>0.00089</v>
+      </c>
+      <c r="AO4">
         <v>0.0008</v>
       </c>
-      <c r="C4">
+      <c r="AP4">
+        <v>0.00041</v>
+      </c>
+      <c r="AQ4">
+        <v>0.00099</v>
+      </c>
+      <c r="AR4">
+        <v>0.0025</v>
+      </c>
+      <c r="AS4">
+        <v>0.00149</v>
+      </c>
+      <c r="AT4">
+        <v>0.00216</v>
+      </c>
+      <c r="AU4">
+        <v>0.00566</v>
+      </c>
+      <c r="AV4">
+        <v>0.00096</v>
+      </c>
+      <c r="AW4">
+        <v>0.00142</v>
+      </c>
+      <c r="AX4">
+        <v>0.00063</v>
+      </c>
+      <c r="AY4">
+        <v>0.00148</v>
+      </c>
+      <c r="AZ4">
+        <v>0.00135</v>
+      </c>
+      <c r="BA4">
+        <v>0.00277</v>
+      </c>
+      <c r="BB4">
+        <v>0.00162</v>
+      </c>
+      <c r="BC4">
+        <v>0.00831</v>
+      </c>
+      <c r="BD4">
+        <v>0.00334</v>
+      </c>
+      <c r="BE4">
+        <v>0.00092</v>
+      </c>
+      <c r="BF4">
+        <v>0.00414</v>
+      </c>
+      <c r="BG4">
+        <v>0.00208</v>
+      </c>
+      <c r="BH4">
+        <v>0.00173</v>
+      </c>
+      <c r="BI4">
+        <v>0.00043</v>
+      </c>
+      <c r="BJ4">
+        <v>0.00174</v>
+      </c>
+      <c r="BK4">
+        <v>0.00281</v>
+      </c>
+      <c r="BL4">
+        <v>0.00041</v>
+      </c>
+      <c r="BM4">
         <v>0.00047</v>
       </c>
-      <c r="D4">
-        <v>0.00076</v>
-      </c>
-      <c r="E4">
-        <v>0.00041</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.0025</v>
-      </c>
-      <c r="H4">
-        <v>0.00063</v>
-      </c>
-      <c r="I4">
-        <v>0.00135</v>
-      </c>
-      <c r="J4">
+      <c r="BN4">
+        <v>0.0003</v>
+      </c>
+      <c r="BO4">
+        <v>0.00129</v>
+      </c>
+      <c r="BP4">
+        <v>0.00158</v>
+      </c>
+      <c r="BQ4">
+        <v>0.00068</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0.00032</v>
+      </c>
+      <c r="BT4">
+        <v>0.00031</v>
+      </c>
+      <c r="BU4">
+        <v>0.00102</v>
+      </c>
+      <c r="BV4">
+        <v>0.00026</v>
+      </c>
+      <c r="BW4">
+        <v>0.00025</v>
+      </c>
+      <c r="BX4">
+        <v>0.00064</v>
+      </c>
+      <c r="BY4">
+        <v>0.00119</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0.00014</v>
+      </c>
+      <c r="CB4">
+        <v>0.00196</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
         <v>0.00096</v>
       </c>
-      <c r="K4">
-        <v>0.00032</v>
-      </c>
-      <c r="L4">
-        <v>0.00124</v>
-      </c>
-      <c r="M4">
-        <v>0.00831</v>
-      </c>
-      <c r="N4">
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0.00144</v>
+      </c>
+      <c r="CJ4">
+        <v>0.00048</v>
+      </c>
+      <c r="CK4">
+        <v>0.00065</v>
+      </c>
+      <c r="CL4">
+        <v>0.00293</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0.00022</v>
+      </c>
+      <c r="CO4">
+        <v>0.00019</v>
+      </c>
+      <c r="CP4">
+        <v>0.00024</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0005</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0.0005</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
         <v>0.0003</v>
       </c>
-      <c r="O4">
-        <v>0.00277</v>
-      </c>
-      <c r="P4">
-        <v>0.00464</v>
-      </c>
-      <c r="Q4">
-        <v>0.00208</v>
-      </c>
-      <c r="R4">
-        <v>0.00026</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.00388</v>
-      </c>
-      <c r="U4">
+      <c r="DB4">
+        <v>0.00017</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0.00022</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0.00013</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0.00017</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
         <v>0.00049</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.00099</v>
-      </c>
-      <c r="X4">
-        <v>0.03039</v>
-      </c>
-      <c r="Y4">
-        <v>0.00092</v>
-      </c>
-      <c r="Z4">
-        <v>0.00301</v>
-      </c>
-      <c r="AA4">
-        <v>0.00475</v>
-      </c>
-      <c r="AB4">
-        <v>0.00149</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0.00368</v>
-      </c>
-      <c r="AE4">
-        <v>0.00511</v>
-      </c>
-      <c r="AF4">
-        <v>0.00407</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.00014</v>
-      </c>
-      <c r="AI4">
-        <v>0.03957</v>
-      </c>
-      <c r="AJ4">
-        <v>0.00216</v>
-      </c>
-      <c r="AK4">
-        <v>0.0063</v>
-      </c>
-      <c r="AL4">
-        <v>0.00453</v>
-      </c>
-      <c r="AM4">
-        <v>0.00017</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0.00068</v>
-      </c>
-      <c r="AQ4">
-        <v>0.00464</v>
-      </c>
-      <c r="AR4">
-        <v>0.00065</v>
-      </c>
-      <c r="AS4">
-        <v>0.00102</v>
-      </c>
-      <c r="AT4">
-        <v>0.03613</v>
-      </c>
-      <c r="AU4">
-        <v>0.00031</v>
-      </c>
-      <c r="AV4">
-        <v>0.00447</v>
-      </c>
-      <c r="AW4">
-        <v>0.00293</v>
-      </c>
-      <c r="AX4">
-        <v>0.00043</v>
-      </c>
-      <c r="AY4">
-        <v>0.00404</v>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B5">
+        <v>0.00861</v>
+      </c>
+      <c r="C5">
+        <v>0.01156</v>
+      </c>
+      <c r="D5">
+        <v>0.0106</v>
+      </c>
+      <c r="E5">
+        <v>0.0209</v>
+      </c>
+      <c r="F5">
+        <v>0.01742</v>
+      </c>
+      <c r="G5">
+        <v>0.01751</v>
+      </c>
+      <c r="H5">
+        <v>0.00014</v>
+      </c>
+      <c r="I5">
+        <v>0.00459</v>
+      </c>
+      <c r="J5">
+        <v>0.00704</v>
+      </c>
+      <c r="K5">
+        <v>0.00502</v>
+      </c>
+      <c r="L5">
+        <v>0.00532</v>
+      </c>
+      <c r="M5">
+        <v>0.00878</v>
+      </c>
+      <c r="N5">
+        <v>0.00633</v>
+      </c>
+      <c r="O5">
+        <v>0.00277</v>
+      </c>
+      <c r="P5">
+        <v>0.00134</v>
+      </c>
+      <c r="Q5">
+        <v>0.00013</v>
+      </c>
+      <c r="R5">
+        <v>0.00988</v>
+      </c>
+      <c r="S5">
+        <v>0.00351</v>
+      </c>
+      <c r="T5">
+        <v>0.00639</v>
+      </c>
+      <c r="U5">
+        <v>0.00524</v>
+      </c>
+      <c r="V5">
+        <v>0.00422</v>
+      </c>
+      <c r="W5">
+        <v>0.00099</v>
+      </c>
+      <c r="X5">
+        <v>0.00132</v>
+      </c>
+      <c r="Y5">
+        <v>0.00988</v>
+      </c>
+      <c r="Z5">
+        <v>0.00269</v>
+      </c>
+      <c r="AA5">
+        <v>0.00375</v>
+      </c>
+      <c r="AB5">
+        <v>0.00342</v>
+      </c>
+      <c r="AC5">
+        <v>0.00416</v>
+      </c>
+      <c r="AD5">
+        <v>0.00346</v>
+      </c>
+      <c r="AE5">
+        <v>0.00136</v>
+      </c>
+      <c r="AF5">
+        <v>0.00242</v>
+      </c>
+      <c r="AG5">
+        <v>0.00136</v>
+      </c>
+      <c r="AH5">
+        <v>0.00503</v>
+      </c>
+      <c r="AI5">
+        <v>0.00686</v>
+      </c>
+      <c r="AJ5">
+        <v>0.0108</v>
+      </c>
+      <c r="AK5">
+        <v>0.01922</v>
+      </c>
+      <c r="AL5">
+        <v>0.00084</v>
+      </c>
+      <c r="AM5">
+        <v>0.01287</v>
+      </c>
+      <c r="AN5">
+        <v>0.00038</v>
+      </c>
+      <c r="AO5">
         <v>0.00199</v>
       </c>
-      <c r="C5">
+      <c r="AP5">
+        <v>0.00079</v>
+      </c>
+      <c r="AQ5">
+        <v>0.00595</v>
+      </c>
+      <c r="AR5">
+        <v>0.00267</v>
+      </c>
+      <c r="AS5">
+        <v>0.00075</v>
+      </c>
+      <c r="AT5">
+        <v>0.0008</v>
+      </c>
+      <c r="AU5">
+        <v>0.00058</v>
+      </c>
+      <c r="AV5">
+        <v>0.00052</v>
+      </c>
+      <c r="AW5">
+        <v>0.01506</v>
+      </c>
+      <c r="AX5">
+        <v>0.00173</v>
+      </c>
+      <c r="AY5">
+        <v>0.00032</v>
+      </c>
+      <c r="AZ5">
+        <v>0.00197</v>
+      </c>
+      <c r="BA5">
+        <v>0.00132</v>
+      </c>
+      <c r="BB5">
+        <v>0.00376</v>
+      </c>
+      <c r="BC5">
+        <v>0.00128</v>
+      </c>
+      <c r="BD5">
+        <v>0.00031</v>
+      </c>
+      <c r="BE5">
+        <v>0.00176</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0.00209</v>
+      </c>
+      <c r="BH5">
+        <v>0.00048</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0.00649</v>
+      </c>
+      <c r="BL5">
+        <v>0.00027</v>
+      </c>
+      <c r="BM5">
         <v>0.00231</v>
       </c>
-      <c r="D5">
-        <v>0.00099</v>
-      </c>
-      <c r="E5">
-        <v>0.00079</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.00267</v>
-      </c>
-      <c r="H5">
-        <v>0.00173</v>
-      </c>
-      <c r="I5">
-        <v>0.00197</v>
-      </c>
-      <c r="J5">
-        <v>0.00052</v>
-      </c>
-      <c r="K5">
+      <c r="BN5">
+        <v>0.00191</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0.00029</v>
+      </c>
+      <c r="BQ5">
+        <v>0.00022</v>
+      </c>
+      <c r="BR5">
+        <v>0.00191</v>
+      </c>
+      <c r="BS5">
         <v>0.00083</v>
       </c>
-      <c r="L5">
-        <v>0.00136</v>
-      </c>
-      <c r="M5">
-        <v>0.00128</v>
-      </c>
-      <c r="N5">
-        <v>0.00191</v>
-      </c>
-      <c r="O5">
-        <v>0.00132</v>
-      </c>
-      <c r="P5">
-        <v>0.00342</v>
-      </c>
-      <c r="Q5">
-        <v>0.00209</v>
-      </c>
-      <c r="R5">
+      <c r="BT5">
+        <v>0.0004</v>
+      </c>
+      <c r="BU5">
+        <v>0.00033</v>
+      </c>
+      <c r="BV5">
         <v>0.00017</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.00532</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.00595</v>
-      </c>
-      <c r="X5">
-        <v>0.00134</v>
-      </c>
-      <c r="Y5">
-        <v>0.00176</v>
-      </c>
-      <c r="Z5">
-        <v>0.00503</v>
-      </c>
-      <c r="AA5">
-        <v>0.00084</v>
-      </c>
-      <c r="AB5">
+      <c r="BW5">
+        <v>0.00096</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0.00015</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0.00028</v>
+      </c>
+      <c r="CB5">
+        <v>0.00143</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0.00102</v>
+      </c>
+      <c r="CF5">
+        <v>0.00047</v>
+      </c>
+      <c r="CG5">
+        <v>0.00179</v>
+      </c>
+      <c r="CH5">
+        <v>0.00215</v>
+      </c>
+      <c r="CI5">
+        <v>0.0007</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.00053</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
         <v>0.00075</v>
       </c>
-      <c r="AC5">
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
         <v>0.00016</v>
       </c>
-      <c r="AD5">
-        <v>0.00524</v>
-      </c>
-      <c r="AE5">
-        <v>0.00524</v>
-      </c>
-      <c r="AF5">
-        <v>0.00416</v>
-      </c>
-      <c r="AG5">
-        <v>0.00215</v>
-      </c>
-      <c r="AH5">
-        <v>0.00028</v>
-      </c>
-      <c r="AI5">
-        <v>0.00861</v>
-      </c>
-      <c r="AJ5">
-        <v>0.0008</v>
-      </c>
-      <c r="AK5">
-        <v>0.00277</v>
-      </c>
-      <c r="AL5">
-        <v>0.00686</v>
-      </c>
-      <c r="AM5">
+      <c r="CR5">
+        <v>0.00054</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0.00043</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
         <v>0.00022</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0.00022</v>
-      </c>
-      <c r="AQ5">
-        <v>0.00328</v>
-      </c>
-      <c r="AR5">
-        <v>0.00053</v>
-      </c>
-      <c r="AS5">
-        <v>0.00033</v>
-      </c>
-      <c r="AT5">
-        <v>0.0209</v>
-      </c>
-      <c r="AU5">
-        <v>0.0004</v>
-      </c>
-      <c r="AV5">
-        <v>0.00633</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0.00466</v>
+      <c r="DC5">
+        <v>0.00015</v>
+      </c>
+      <c r="DD5">
+        <v>0.00014</v>
+      </c>
+      <c r="DE5">
+        <v>0.00016</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0.00016</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0.00017</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B6">
+        <v>0.09111</v>
+      </c>
+      <c r="C6">
+        <v>0.01076</v>
+      </c>
+      <c r="D6">
+        <v>0.01306</v>
+      </c>
+      <c r="E6">
+        <v>0.0421</v>
+      </c>
+      <c r="F6">
+        <v>0.02472</v>
+      </c>
+      <c r="G6">
+        <v>0.02663</v>
+      </c>
+      <c r="H6">
+        <v>0.043</v>
+      </c>
+      <c r="I6">
+        <v>0.01537</v>
+      </c>
+      <c r="J6">
+        <v>0.0427</v>
+      </c>
+      <c r="K6">
+        <v>0.00501</v>
+      </c>
+      <c r="L6">
+        <v>0.00754</v>
+      </c>
+      <c r="M6">
+        <v>0.02928</v>
+      </c>
+      <c r="N6">
+        <v>0.0039</v>
+      </c>
+      <c r="O6">
+        <v>0.00844</v>
+      </c>
+      <c r="P6">
+        <v>0.03814</v>
+      </c>
+      <c r="Q6">
+        <v>0.01398</v>
+      </c>
+      <c r="R6">
+        <v>0.04169</v>
+      </c>
+      <c r="S6">
+        <v>0.0054</v>
+      </c>
+      <c r="T6">
+        <v>0.00268</v>
+      </c>
+      <c r="U6">
+        <v>0.00737</v>
+      </c>
+      <c r="V6">
+        <v>0.0028</v>
+      </c>
+      <c r="W6">
+        <v>0.0052</v>
+      </c>
+      <c r="X6">
+        <v>0.00846</v>
+      </c>
+      <c r="Y6">
+        <v>0.01603</v>
+      </c>
+      <c r="Z6">
+        <v>0.00153</v>
+      </c>
+      <c r="AA6">
+        <v>0.00253</v>
+      </c>
+      <c r="AB6">
+        <v>0.00905</v>
+      </c>
+      <c r="AC6">
+        <v>0.00942</v>
+      </c>
+      <c r="AD6">
+        <v>0.00825</v>
+      </c>
+      <c r="AE6">
+        <v>0.00564</v>
+      </c>
+      <c r="AF6">
+        <v>0.00244</v>
+      </c>
+      <c r="AG6">
+        <v>0.00809</v>
+      </c>
+      <c r="AH6">
+        <v>0.00708</v>
+      </c>
+      <c r="AI6">
+        <v>0.00597</v>
+      </c>
+      <c r="AJ6">
+        <v>0.00364</v>
+      </c>
+      <c r="AK6">
+        <v>0.00043</v>
+      </c>
+      <c r="AL6">
+        <v>0.00394</v>
+      </c>
+      <c r="AM6">
+        <v>0.00823</v>
+      </c>
+      <c r="AN6">
+        <v>0.01136</v>
+      </c>
+      <c r="AO6">
         <v>0.00595</v>
       </c>
-      <c r="C6">
+      <c r="AP6">
+        <v>0.00693</v>
+      </c>
+      <c r="AQ6">
+        <v>0.00475</v>
+      </c>
+      <c r="AR6">
+        <v>0.00784</v>
+      </c>
+      <c r="AS6">
+        <v>0.01576</v>
+      </c>
+      <c r="AT6">
+        <v>0.01637</v>
+      </c>
+      <c r="AU6">
+        <v>0.00299</v>
+      </c>
+      <c r="AV6">
+        <v>0.01379</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0.00417</v>
+      </c>
+      <c r="AY6">
+        <v>0.01014</v>
+      </c>
+      <c r="AZ6">
+        <v>0.00554</v>
+      </c>
+      <c r="BA6">
+        <v>0.00574</v>
+      </c>
+      <c r="BB6">
+        <v>0.00148</v>
+      </c>
+      <c r="BC6">
+        <v>0.0112</v>
+      </c>
+      <c r="BD6">
+        <v>0.00189</v>
+      </c>
+      <c r="BE6">
+        <v>0.00073</v>
+      </c>
+      <c r="BF6">
+        <v>0.00057</v>
+      </c>
+      <c r="BG6">
+        <v>0.00587</v>
+      </c>
+      <c r="BH6">
+        <v>0.01059</v>
+      </c>
+      <c r="BI6">
+        <v>0.00158</v>
+      </c>
+      <c r="BJ6">
+        <v>0.00238</v>
+      </c>
+      <c r="BK6">
+        <v>0.00339</v>
+      </c>
+      <c r="BL6">
+        <v>0.00679</v>
+      </c>
+      <c r="BM6">
         <v>0.00562</v>
       </c>
-      <c r="D6">
-        <v>0.0052</v>
-      </c>
-      <c r="E6">
-        <v>0.00693</v>
-      </c>
-      <c r="F6">
+      <c r="BN6">
+        <v>0.00593</v>
+      </c>
+      <c r="BO6">
+        <v>0.00275</v>
+      </c>
+      <c r="BP6">
+        <v>0.00248</v>
+      </c>
+      <c r="BQ6">
+        <v>0.00062</v>
+      </c>
+      <c r="BR6">
+        <v>0.00201</v>
+      </c>
+      <c r="BS6">
+        <v>0.00581</v>
+      </c>
+      <c r="BT6">
+        <v>0.00198</v>
+      </c>
+      <c r="BU6">
+        <v>0.00109</v>
+      </c>
+      <c r="BV6">
+        <v>0.00117</v>
+      </c>
+      <c r="BW6">
+        <v>0.00068</v>
+      </c>
+      <c r="BX6">
+        <v>0.00136</v>
+      </c>
+      <c r="BY6">
+        <v>0.00087</v>
+      </c>
+      <c r="BZ6">
+        <v>0.00158</v>
+      </c>
+      <c r="CA6">
+        <v>0.00116</v>
+      </c>
+      <c r="CB6">
+        <v>0.00089</v>
+      </c>
+      <c r="CC6">
+        <v>0.00151</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0.00143</v>
+      </c>
+      <c r="CF6">
+        <v>0.00087</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0.00198</v>
+      </c>
+      <c r="CJ6">
+        <v>0.00072</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0.00022</v>
+      </c>
+      <c r="CM6">
+        <v>0.00151</v>
+      </c>
+      <c r="CN6">
+        <v>0.00061</v>
+      </c>
+      <c r="CO6">
+        <v>0.00035</v>
+      </c>
+      <c r="CP6">
+        <v>0.00129</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0.00076</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0.00028</v>
+      </c>
+      <c r="CU6">
+        <v>0.00023</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0.00046</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
         <v>0.00043</v>
       </c>
-      <c r="G6">
-        <v>0.00784</v>
-      </c>
-      <c r="H6">
-        <v>0.00417</v>
-      </c>
-      <c r="I6">
-        <v>0.00554</v>
-      </c>
-      <c r="J6">
-        <v>0.01379</v>
-      </c>
-      <c r="K6">
-        <v>0.00581</v>
-      </c>
-      <c r="L6">
-        <v>0.00564</v>
-      </c>
-      <c r="M6">
-        <v>0.0112</v>
-      </c>
-      <c r="N6">
-        <v>0.00593</v>
-      </c>
-      <c r="O6">
-        <v>0.00574</v>
-      </c>
-      <c r="P6">
-        <v>0.00905</v>
-      </c>
-      <c r="Q6">
-        <v>0.00587</v>
-      </c>
-      <c r="R6">
-        <v>0.00117</v>
-      </c>
-      <c r="S6">
-        <v>0.00151</v>
-      </c>
-      <c r="T6">
-        <v>0.00754</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0.00475</v>
-      </c>
-      <c r="X6">
-        <v>0.03814</v>
-      </c>
-      <c r="Y6">
-        <v>0.00073</v>
-      </c>
-      <c r="Z6">
-        <v>0.00708</v>
-      </c>
-      <c r="AA6">
-        <v>0.00394</v>
-      </c>
-      <c r="AB6">
-        <v>0.01576</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0.00737</v>
-      </c>
-      <c r="AE6">
-        <v>0.00917</v>
-      </c>
-      <c r="AF6">
-        <v>0.00942</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0.00116</v>
-      </c>
-      <c r="AI6">
-        <v>0.09111</v>
-      </c>
-      <c r="AJ6">
-        <v>0.01637</v>
-      </c>
-      <c r="AK6">
-        <v>0.00844</v>
-      </c>
-      <c r="AL6">
-        <v>0.00597</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0.00062</v>
-      </c>
-      <c r="AQ6">
-        <v>0.00192</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0.00109</v>
-      </c>
-      <c r="AT6">
-        <v>0.0421</v>
-      </c>
-      <c r="AU6">
-        <v>0.00198</v>
-      </c>
-      <c r="AV6">
-        <v>0.0039</v>
-      </c>
-      <c r="AW6">
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0.0002</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
         <v>0.00022</v>
       </c>
-      <c r="AX6">
-        <v>0.00158</v>
-      </c>
-      <c r="AY6">
-        <v>0.00677</v>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:123">
       <c r="A7" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B7">
+        <v>0.05243</v>
+      </c>
+      <c r="C7">
+        <v>0.01062</v>
+      </c>
+      <c r="D7">
+        <v>0.00599</v>
+      </c>
+      <c r="E7">
+        <v>0.02015</v>
+      </c>
+      <c r="F7">
+        <v>0.03274</v>
+      </c>
+      <c r="G7">
+        <v>0.03074</v>
+      </c>
+      <c r="H7">
+        <v>0.01288</v>
+      </c>
+      <c r="I7">
+        <v>0.02561</v>
+      </c>
+      <c r="J7">
+        <v>0.03029</v>
+      </c>
+      <c r="K7">
+        <v>0.00429</v>
+      </c>
+      <c r="L7">
+        <v>0.00372</v>
+      </c>
+      <c r="M7">
+        <v>0.01811</v>
+      </c>
+      <c r="N7">
+        <v>0.00148</v>
+      </c>
+      <c r="O7">
+        <v>0.00944</v>
+      </c>
+      <c r="P7">
+        <v>0.03237</v>
+      </c>
+      <c r="Q7">
+        <v>0.00925</v>
+      </c>
+      <c r="R7">
+        <v>0.00734</v>
+      </c>
+      <c r="S7">
+        <v>0.00203</v>
+      </c>
+      <c r="T7">
+        <v>0.00137</v>
+      </c>
+      <c r="U7">
+        <v>0.00561</v>
+      </c>
+      <c r="V7">
+        <v>0.00127</v>
+      </c>
+      <c r="W7">
+        <v>0.0014</v>
+      </c>
+      <c r="X7">
+        <v>0.00973</v>
+      </c>
+      <c r="Y7">
+        <v>0.01033</v>
+      </c>
+      <c r="Z7">
+        <v>0.00213</v>
+      </c>
+      <c r="AA7">
+        <v>0.00143</v>
+      </c>
+      <c r="AB7">
+        <v>0.00165</v>
+      </c>
+      <c r="AC7">
+        <v>0.00175</v>
+      </c>
+      <c r="AD7">
+        <v>0.00222</v>
+      </c>
+      <c r="AE7">
+        <v>0.00172</v>
+      </c>
+      <c r="AF7">
+        <v>0.00085</v>
+      </c>
+      <c r="AG7">
+        <v>0.00708</v>
+      </c>
+      <c r="AH7">
+        <v>0.00218</v>
+      </c>
+      <c r="AI7">
+        <v>0.00216</v>
+      </c>
+      <c r="AJ7">
+        <v>0.01532</v>
+      </c>
+      <c r="AK7">
+        <v>0.0002</v>
+      </c>
+      <c r="AL7">
+        <v>0.0013</v>
+      </c>
+      <c r="AM7">
+        <v>0.03929</v>
+      </c>
+      <c r="AN7">
+        <v>0.01963</v>
+      </c>
+      <c r="AO7">
         <v>0.00286</v>
       </c>
-      <c r="C7">
+      <c r="AP7">
+        <v>0.00082</v>
+      </c>
+      <c r="AQ7">
+        <v>0.00448</v>
+      </c>
+      <c r="AR7">
+        <v>0.00215</v>
+      </c>
+      <c r="AS7">
+        <v>0.00157</v>
+      </c>
+      <c r="AT7">
+        <v>0.00771</v>
+      </c>
+      <c r="AU7">
+        <v>0.00435</v>
+      </c>
+      <c r="AV7">
+        <v>0.00166</v>
+      </c>
+      <c r="AW7">
+        <v>0.00041</v>
+      </c>
+      <c r="AX7">
+        <v>0.00164</v>
+      </c>
+      <c r="AY7">
+        <v>0.00764</v>
+      </c>
+      <c r="AZ7">
+        <v>0.00174</v>
+      </c>
+      <c r="BA7">
+        <v>0.00318</v>
+      </c>
+      <c r="BB7">
+        <v>0.00081</v>
+      </c>
+      <c r="BC7">
+        <v>0.00545</v>
+      </c>
+      <c r="BD7">
+        <v>0.00698</v>
+      </c>
+      <c r="BE7">
+        <v>0.00027</v>
+      </c>
+      <c r="BF7">
+        <v>0.00676</v>
+      </c>
+      <c r="BG7">
+        <v>0.00244</v>
+      </c>
+      <c r="BH7">
+        <v>0.00446</v>
+      </c>
+      <c r="BI7">
+        <v>0.00558</v>
+      </c>
+      <c r="BJ7">
+        <v>0.00205</v>
+      </c>
+      <c r="BK7">
+        <v>0.00133</v>
+      </c>
+      <c r="BL7">
+        <v>0.00107</v>
+      </c>
+      <c r="BM7">
         <v>0.00204</v>
       </c>
-      <c r="D7">
-        <v>0.0014</v>
-      </c>
-      <c r="E7">
-        <v>0.00082</v>
-      </c>
-      <c r="F7">
+      <c r="BN7">
+        <v>0.00178</v>
+      </c>
+      <c r="BO7">
+        <v>0.00296</v>
+      </c>
+      <c r="BP7">
+        <v>0.00195</v>
+      </c>
+      <c r="BQ7">
+        <v>0.00015</v>
+      </c>
+      <c r="BR7">
+        <v>0.00316</v>
+      </c>
+      <c r="BS7">
+        <v>0.00219</v>
+      </c>
+      <c r="BT7">
+        <v>0.0016</v>
+      </c>
+      <c r="BU7">
+        <v>0.00029</v>
+      </c>
+      <c r="BV7">
+        <v>0.00022</v>
+      </c>
+      <c r="BW7">
+        <v>0.00085</v>
+      </c>
+      <c r="BX7">
+        <v>0.00367</v>
+      </c>
+      <c r="BY7">
+        <v>0.00164</v>
+      </c>
+      <c r="BZ7">
+        <v>0.00261</v>
+      </c>
+      <c r="CA7">
+        <v>0.00049</v>
+      </c>
+      <c r="CB7">
+        <v>0.00105</v>
+      </c>
+      <c r="CC7">
+        <v>0.00036</v>
+      </c>
+      <c r="CD7">
+        <v>0.00236</v>
+      </c>
+      <c r="CE7">
+        <v>0.00162</v>
+      </c>
+      <c r="CF7">
+        <v>0.00185</v>
+      </c>
+      <c r="CG7">
+        <v>0.00048</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0.00062</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0.00178</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0.00016</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0.001</v>
+      </c>
+      <c r="CT7">
+        <v>0.00027</v>
+      </c>
+      <c r="CU7">
+        <v>0.00022</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0.00021</v>
+      </c>
+      <c r="CX7">
+        <v>0.00119</v>
+      </c>
+      <c r="CY7">
         <v>0.0004</v>
       </c>
-      <c r="G7">
-        <v>0.00215</v>
-      </c>
-      <c r="H7">
-        <v>0.00164</v>
-      </c>
-      <c r="I7">
-        <v>0.00174</v>
-      </c>
-      <c r="J7">
-        <v>0.00166</v>
-      </c>
-      <c r="K7">
-        <v>0.00219</v>
-      </c>
-      <c r="L7">
-        <v>0.00172</v>
-      </c>
-      <c r="M7">
-        <v>0.00545</v>
-      </c>
-      <c r="N7">
-        <v>0.00178</v>
-      </c>
-      <c r="O7">
-        <v>0.00318</v>
-      </c>
-      <c r="P7">
-        <v>0.00165</v>
-      </c>
-      <c r="Q7">
-        <v>0.00244</v>
-      </c>
-      <c r="R7">
+      <c r="CZ7">
+        <v>0.00089</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0.00021</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
         <v>0.00022</v>
       </c>
-      <c r="S7">
-        <v>0.00036</v>
-      </c>
-      <c r="T7">
-        <v>0.00372</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0.00236</v>
-      </c>
-      <c r="W7">
-        <v>0.00448</v>
-      </c>
-      <c r="X7">
-        <v>0.03237</v>
-      </c>
-      <c r="Y7">
-        <v>0.00027</v>
-      </c>
-      <c r="Z7">
-        <v>0.00218</v>
-      </c>
-      <c r="AA7">
-        <v>0.0013</v>
-      </c>
-      <c r="AB7">
-        <v>0.00157</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0.00561</v>
-      </c>
-      <c r="AE7">
-        <v>0.00383</v>
-      </c>
-      <c r="AF7">
-        <v>0.00175</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0.00049</v>
-      </c>
-      <c r="AI7">
-        <v>0.05243</v>
-      </c>
-      <c r="AJ7">
-        <v>0.00771</v>
-      </c>
-      <c r="AK7">
-        <v>0.00944</v>
-      </c>
-      <c r="AL7">
-        <v>0.00216</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0.0002</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
         <v>0.00015</v>
       </c>
-      <c r="AO7">
-        <v>0.001</v>
-      </c>
-      <c r="AP7">
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0.00026</v>
+      </c>
+      <c r="DS7">
         <v>0.00015</v>
       </c>
-      <c r="AQ7">
-        <v>0.00073</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0.00029</v>
-      </c>
-      <c r="AT7">
-        <v>0.02015</v>
-      </c>
-      <c r="AU7">
-        <v>0.0016</v>
-      </c>
-      <c r="AV7">
-        <v>0.00148</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0.00558</v>
-      </c>
-      <c r="AY7">
-        <v>0.00348</v>
-      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:123">
       <c r="A8" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B8">
+        <v>0.0582</v>
+      </c>
+      <c r="C8">
+        <v>0.01175</v>
+      </c>
+      <c r="D8">
+        <v>0.01211</v>
+      </c>
+      <c r="E8">
+        <v>0.05668</v>
+      </c>
+      <c r="F8">
+        <v>0.01606</v>
+      </c>
+      <c r="G8">
+        <v>0.01651</v>
+      </c>
+      <c r="H8">
+        <v>0.032</v>
+      </c>
+      <c r="I8">
+        <v>0.01744</v>
+      </c>
+      <c r="J8">
+        <v>0.02948</v>
+      </c>
+      <c r="K8">
+        <v>0.00574</v>
+      </c>
+      <c r="L8">
+        <v>0.00772</v>
+      </c>
+      <c r="M8">
+        <v>0.02754</v>
+      </c>
+      <c r="N8">
+        <v>0.00365</v>
+      </c>
+      <c r="O8">
+        <v>0.00635</v>
+      </c>
+      <c r="P8">
+        <v>0.01789</v>
+      </c>
+      <c r="Q8">
+        <v>0.0097</v>
+      </c>
+      <c r="R8">
+        <v>0.01973</v>
+      </c>
+      <c r="S8">
+        <v>0.0025</v>
+      </c>
+      <c r="T8">
+        <v>0.0024</v>
+      </c>
+      <c r="U8">
+        <v>0.00774</v>
+      </c>
+      <c r="V8">
+        <v>0.00263</v>
+      </c>
+      <c r="W8">
+        <v>0.00431</v>
+      </c>
+      <c r="X8">
+        <v>0.00485</v>
+      </c>
+      <c r="Y8">
+        <v>0.01334</v>
+      </c>
+      <c r="Z8">
+        <v>0.00111</v>
+      </c>
+      <c r="AA8">
+        <v>0.00198</v>
+      </c>
+      <c r="AB8">
+        <v>0.01414</v>
+      </c>
+      <c r="AC8">
+        <v>0.0081</v>
+      </c>
+      <c r="AD8">
+        <v>0.00721</v>
+      </c>
+      <c r="AE8">
+        <v>0.0045</v>
+      </c>
+      <c r="AF8">
+        <v>0.00133</v>
+      </c>
+      <c r="AG8">
+        <v>0.00549</v>
+      </c>
+      <c r="AH8">
+        <v>0.00693</v>
+      </c>
+      <c r="AI8">
+        <v>0.0039</v>
+      </c>
+      <c r="AJ8">
+        <v>0.00188</v>
+      </c>
+      <c r="AK8">
+        <v>0.00063</v>
+      </c>
+      <c r="AL8">
+        <v>0.00424</v>
+      </c>
+      <c r="AM8">
+        <v>0.01342</v>
+      </c>
+      <c r="AN8">
+        <v>0.00477</v>
+      </c>
+      <c r="AO8">
         <v>0.0057</v>
       </c>
-      <c r="C8">
+      <c r="AP8">
+        <v>0.01041</v>
+      </c>
+      <c r="AQ8">
+        <v>0.00487</v>
+      </c>
+      <c r="AR8">
+        <v>0.00751</v>
+      </c>
+      <c r="AS8">
+        <v>0.00519</v>
+      </c>
+      <c r="AT8">
+        <v>0.01436</v>
+      </c>
+      <c r="AU8">
+        <v>0.00293</v>
+      </c>
+      <c r="AV8">
+        <v>0.00574</v>
+      </c>
+      <c r="AW8">
+        <v>0.00085</v>
+      </c>
+      <c r="AX8">
+        <v>0.00476</v>
+      </c>
+      <c r="AY8">
+        <v>0.00661</v>
+      </c>
+      <c r="AZ8">
+        <v>0.00693</v>
+      </c>
+      <c r="BA8">
+        <v>0.00446</v>
+      </c>
+      <c r="BB8">
+        <v>0.00156</v>
+      </c>
+      <c r="BC8">
+        <v>0.01662</v>
+      </c>
+      <c r="BD8">
+        <v>0.00099</v>
+      </c>
+      <c r="BE8">
+        <v>0.00083</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0.00473</v>
+      </c>
+      <c r="BH8">
+        <v>0.00617</v>
+      </c>
+      <c r="BI8">
+        <v>0.00193</v>
+      </c>
+      <c r="BJ8">
+        <v>0.00116</v>
+      </c>
+      <c r="BK8">
+        <v>0.00499</v>
+      </c>
+      <c r="BL8">
+        <v>0.00111</v>
+      </c>
+      <c r="BM8">
         <v>0.00635</v>
       </c>
-      <c r="D8">
-        <v>0.00431</v>
-      </c>
-      <c r="E8">
-        <v>0.01041</v>
-      </c>
-      <c r="F8">
+      <c r="BN8">
+        <v>0.00501</v>
+      </c>
+      <c r="BO8">
+        <v>0.00049</v>
+      </c>
+      <c r="BP8">
+        <v>0.00222</v>
+      </c>
+      <c r="BQ8">
+        <v>0.00046</v>
+      </c>
+      <c r="BR8">
+        <v>0.00066</v>
+      </c>
+      <c r="BS8">
+        <v>0.00455</v>
+      </c>
+      <c r="BT8">
+        <v>0.00193</v>
+      </c>
+      <c r="BU8">
+        <v>0.00137</v>
+      </c>
+      <c r="BV8">
+        <v>0.00092</v>
+      </c>
+      <c r="BW8">
+        <v>0.00089</v>
+      </c>
+      <c r="BX8">
+        <v>0.00305</v>
+      </c>
+      <c r="BY8">
+        <v>0.00085</v>
+      </c>
+      <c r="BZ8">
+        <v>0.00116</v>
+      </c>
+      <c r="CA8">
+        <v>0.00114</v>
+      </c>
+      <c r="CB8">
+        <v>0.00022</v>
+      </c>
+      <c r="CC8">
+        <v>0.00111</v>
+      </c>
+      <c r="CD8">
+        <v>0.00015</v>
+      </c>
+      <c r="CE8">
+        <v>0.00224</v>
+      </c>
+      <c r="CF8">
+        <v>0.00064</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0.00097</v>
+      </c>
+      <c r="CJ8">
+        <v>0.00057</v>
+      </c>
+      <c r="CK8">
+        <v>0.00029</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0.00074</v>
+      </c>
+      <c r="CN8">
+        <v>0.001</v>
+      </c>
+      <c r="CO8">
+        <v>0.00017</v>
+      </c>
+      <c r="CP8">
+        <v>0.00063</v>
+      </c>
+      <c r="CQ8">
+        <v>0.00011</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0.00015</v>
+      </c>
+      <c r="CT8">
+        <v>0.00042</v>
+      </c>
+      <c r="CU8">
+        <v>0.00046</v>
+      </c>
+      <c r="CV8">
+        <v>0.0006</v>
+      </c>
+      <c r="CW8">
+        <v>0.00045</v>
+      </c>
+      <c r="CX8">
+        <v>0.00031</v>
+      </c>
+      <c r="CY8">
         <v>0.00084</v>
       </c>
-      <c r="G8">
-        <v>0.00751</v>
-      </c>
-      <c r="H8">
-        <v>0.00476</v>
-      </c>
-      <c r="I8">
-        <v>0.00693</v>
-      </c>
-      <c r="J8">
-        <v>0.00574</v>
-      </c>
-      <c r="K8">
-        <v>0.00455</v>
-      </c>
-      <c r="L8">
-        <v>0.0045</v>
-      </c>
-      <c r="M8">
-        <v>0.01662</v>
-      </c>
-      <c r="N8">
-        <v>0.00501</v>
-      </c>
-      <c r="O8">
-        <v>0.00446</v>
-      </c>
-      <c r="P8">
-        <v>0.01414</v>
-      </c>
-      <c r="Q8">
-        <v>0.00473</v>
-      </c>
-      <c r="R8">
-        <v>0.00092</v>
-      </c>
-      <c r="S8">
-        <v>0.00111</v>
-      </c>
-      <c r="T8">
-        <v>0.00772</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0.00015</v>
-      </c>
-      <c r="W8">
-        <v>0.00487</v>
-      </c>
-      <c r="X8">
-        <v>0.01789</v>
-      </c>
-      <c r="Y8">
-        <v>0.00083</v>
-      </c>
-      <c r="Z8">
-        <v>0.00693</v>
-      </c>
-      <c r="AA8">
-        <v>0.00424</v>
-      </c>
-      <c r="AB8">
-        <v>0.00519</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0.00774</v>
-      </c>
-      <c r="AE8">
-        <v>0.0106</v>
-      </c>
-      <c r="AF8">
-        <v>0.0081</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0.00114</v>
-      </c>
-      <c r="AI8">
-        <v>0.0582</v>
-      </c>
-      <c r="AJ8">
-        <v>0.01436</v>
-      </c>
-      <c r="AK8">
-        <v>0.00635</v>
-      </c>
-      <c r="AL8">
-        <v>0.0039</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0.00015</v>
-      </c>
-      <c r="AP8">
-        <v>0.00046</v>
-      </c>
-      <c r="AQ8">
-        <v>0.00113</v>
-      </c>
-      <c r="AR8">
-        <v>0.00029</v>
-      </c>
-      <c r="AS8">
-        <v>0.00137</v>
-      </c>
-      <c r="AT8">
-        <v>0.05668</v>
-      </c>
-      <c r="AU8">
-        <v>0.00193</v>
-      </c>
-      <c r="AV8">
-        <v>0.00365</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0.00193</v>
-      </c>
-      <c r="AY8">
-        <v>0.01104</v>
+      <c r="CZ8">
+        <v>0.00031</v>
+      </c>
+      <c r="DA8">
+        <v>0.00027</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:123">
       <c r="A9" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B9">
+        <v>0.00528</v>
+      </c>
+      <c r="C9">
+        <v>0.01034</v>
+      </c>
+      <c r="D9">
+        <v>0.00696</v>
+      </c>
+      <c r="E9">
+        <v>0.01383</v>
+      </c>
+      <c r="F9">
+        <v>0.00692</v>
+      </c>
+      <c r="G9">
+        <v>0.00445</v>
+      </c>
+      <c r="H9">
+        <v>0.00057</v>
+      </c>
+      <c r="I9">
+        <v>0.00362</v>
+      </c>
+      <c r="J9">
+        <v>0.00647</v>
+      </c>
+      <c r="K9">
+        <v>0.00354</v>
+      </c>
+      <c r="L9">
+        <v>0.00268</v>
+      </c>
+      <c r="M9">
+        <v>0.00328</v>
+      </c>
+      <c r="N9">
+        <v>0.004</v>
+      </c>
+      <c r="O9">
+        <v>0.00514</v>
+      </c>
+      <c r="P9">
+        <v>0.00331</v>
+      </c>
+      <c r="Q9">
+        <v>0.00115</v>
+      </c>
+      <c r="R9">
+        <v>0.00409</v>
+      </c>
+      <c r="S9">
+        <v>0.00163</v>
+      </c>
+      <c r="T9">
+        <v>0.00357</v>
+      </c>
+      <c r="U9">
+        <v>0.00362</v>
+      </c>
+      <c r="V9">
+        <v>0.00235</v>
+      </c>
+      <c r="W9">
+        <v>0.00061</v>
+      </c>
+      <c r="X9">
+        <v>0.00039</v>
+      </c>
+      <c r="Y9">
+        <v>0.00511</v>
+      </c>
+      <c r="Z9">
+        <v>0.00313</v>
+      </c>
+      <c r="AA9">
+        <v>0.00241</v>
+      </c>
+      <c r="AB9">
+        <v>0.00516</v>
+      </c>
+      <c r="AC9">
+        <v>0.00177</v>
+      </c>
+      <c r="AD9">
+        <v>0.00113</v>
+      </c>
+      <c r="AE9">
+        <v>0.00075</v>
+      </c>
+      <c r="AF9">
+        <v>0.00195</v>
+      </c>
+      <c r="AG9">
+        <v>0.00144</v>
+      </c>
+      <c r="AH9">
+        <v>0.00097</v>
+      </c>
+      <c r="AI9">
+        <v>0.00307</v>
+      </c>
+      <c r="AJ9">
+        <v>0.00123</v>
+      </c>
+      <c r="AK9">
+        <v>0.00641</v>
+      </c>
+      <c r="AL9">
+        <v>0.00019</v>
+      </c>
+      <c r="AM9">
+        <v>0.01363</v>
+      </c>
+      <c r="AN9">
+        <v>0.00181</v>
+      </c>
+      <c r="AO9">
         <v>0.00023</v>
       </c>
-      <c r="C9">
+      <c r="AP9">
+        <v>0.00012</v>
+      </c>
+      <c r="AQ9">
+        <v>0.0013</v>
+      </c>
+      <c r="AR9">
+        <v>0.00125</v>
+      </c>
+      <c r="AS9">
+        <v>0.00029</v>
+      </c>
+      <c r="AT9">
+        <v>0.00027</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0.00014</v>
+      </c>
+      <c r="AW9">
+        <v>0.00413</v>
+      </c>
+      <c r="AX9">
+        <v>0.00066</v>
+      </c>
+      <c r="AY9">
+        <v>0.00022</v>
+      </c>
+      <c r="AZ9">
+        <v>0.00074</v>
+      </c>
+      <c r="BA9">
+        <v>0.00145</v>
+      </c>
+      <c r="BB9">
+        <v>0.00164</v>
+      </c>
+      <c r="BC9">
+        <v>0.00173</v>
+      </c>
+      <c r="BD9">
+        <v>0.00014</v>
+      </c>
+      <c r="BE9">
+        <v>0.00102</v>
+      </c>
+      <c r="BF9">
+        <v>0.00018</v>
+      </c>
+      <c r="BG9">
         <v>0.00083</v>
       </c>
-      <c r="D9">
-        <v>0.00061</v>
-      </c>
-      <c r="E9">
+      <c r="BH9">
+        <v>0.00065</v>
+      </c>
+      <c r="BI9">
+        <v>0.00038</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0.00323</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0.00083</v>
+      </c>
+      <c r="BN9">
+        <v>0.00051</v>
+      </c>
+      <c r="BO9">
+        <v>0.00019</v>
+      </c>
+      <c r="BP9">
+        <v>0.00039</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0.00064</v>
+      </c>
+      <c r="BS9">
+        <v>0.00028</v>
+      </c>
+      <c r="BT9">
+        <v>0.00027</v>
+      </c>
+      <c r="BU9">
+        <v>0.0003</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0.00022</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
         <v>0.00012</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.00125</v>
-      </c>
-      <c r="H9">
-        <v>0.00066</v>
-      </c>
-      <c r="I9">
-        <v>0.00074</v>
-      </c>
-      <c r="J9">
+      <c r="CB9">
+        <v>0.00021</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0.00055</v>
+      </c>
+      <c r="CF9">
+        <v>0.00021</v>
+      </c>
+      <c r="CG9">
+        <v>0.00265</v>
+      </c>
+      <c r="CH9">
+        <v>0.00041</v>
+      </c>
+      <c r="CI9">
+        <v>0.00094</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
         <v>0.00014</v>
       </c>
-      <c r="K9">
-        <v>0.00028</v>
-      </c>
-      <c r="L9">
-        <v>0.00075</v>
-      </c>
-      <c r="M9">
-        <v>0.00173</v>
-      </c>
-      <c r="N9">
-        <v>0.00051</v>
-      </c>
-      <c r="O9">
-        <v>0.00145</v>
-      </c>
-      <c r="P9">
-        <v>0.00516</v>
-      </c>
-      <c r="Q9">
-        <v>0.00083</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0.00268</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.0013</v>
-      </c>
-      <c r="X9">
-        <v>0.00331</v>
-      </c>
-      <c r="Y9">
-        <v>0.00102</v>
-      </c>
-      <c r="Z9">
-        <v>0.00097</v>
-      </c>
-      <c r="AA9">
-        <v>0.00019</v>
-      </c>
-      <c r="AB9">
-        <v>0.00029</v>
-      </c>
-      <c r="AC9">
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0.00017</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0.00041</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
         <v>0.00042</v>
       </c>
-      <c r="AD9">
-        <v>0.00362</v>
-      </c>
-      <c r="AE9">
-        <v>0.00101</v>
-      </c>
-      <c r="AF9">
-        <v>0.00177</v>
-      </c>
-      <c r="AG9">
+      <c r="DF9">
         <v>0.00041</v>
       </c>
-      <c r="AH9">
-        <v>0.00012</v>
-      </c>
-      <c r="AI9">
-        <v>0.00528</v>
-      </c>
-      <c r="AJ9">
-        <v>0.00027</v>
-      </c>
-      <c r="AK9">
-        <v>0.00514</v>
-      </c>
-      <c r="AL9">
-        <v>0.00307</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0.00331</v>
-      </c>
-      <c r="AR9">
-        <v>0.00014</v>
-      </c>
-      <c r="AS9">
-        <v>0.0003</v>
-      </c>
-      <c r="AT9">
-        <v>0.01383</v>
-      </c>
-      <c r="AU9">
-        <v>0.00027</v>
-      </c>
-      <c r="AV9">
-        <v>0.004</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0.00038</v>
-      </c>
-      <c r="AY9">
-        <v>0.00137</v>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0.0004</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:123">
       <c r="A10" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B10">
+        <v>0.03368</v>
+      </c>
+      <c r="C10">
+        <v>0.01503</v>
+      </c>
+      <c r="D10">
+        <v>0.01223</v>
+      </c>
+      <c r="E10">
+        <v>0.02401</v>
+      </c>
+      <c r="F10">
+        <v>0.01604</v>
+      </c>
+      <c r="G10">
+        <v>0.01557</v>
+      </c>
+      <c r="H10">
+        <v>0.00302</v>
+      </c>
+      <c r="I10">
+        <v>0.0342</v>
+      </c>
+      <c r="J10">
+        <v>0.01433</v>
+      </c>
+      <c r="K10">
+        <v>0.00643</v>
+      </c>
+      <c r="L10">
+        <v>0.00424</v>
+      </c>
+      <c r="M10">
+        <v>0.00861</v>
+      </c>
+      <c r="N10">
+        <v>0.00456</v>
+      </c>
+      <c r="O10">
+        <v>0.00434</v>
+      </c>
+      <c r="P10">
+        <v>0.02179</v>
+      </c>
+      <c r="Q10">
+        <v>0.00188</v>
+      </c>
+      <c r="R10">
+        <v>0.01382</v>
+      </c>
+      <c r="S10">
+        <v>0.00439</v>
+      </c>
+      <c r="T10">
+        <v>0.00562</v>
+      </c>
+      <c r="U10">
+        <v>0.00529</v>
+      </c>
+      <c r="V10">
+        <v>0.00654</v>
+      </c>
+      <c r="W10">
+        <v>0.0003</v>
+      </c>
+      <c r="X10">
+        <v>0.00441</v>
+      </c>
+      <c r="Y10">
+        <v>0.01332</v>
+      </c>
+      <c r="Z10">
+        <v>0.00408</v>
+      </c>
+      <c r="AA10">
+        <v>0.00371</v>
+      </c>
+      <c r="AB10">
+        <v>0.00163</v>
+      </c>
+      <c r="AC10">
+        <v>0.0045</v>
+      </c>
+      <c r="AD10">
+        <v>0.00405</v>
+      </c>
+      <c r="AE10">
+        <v>0.00159</v>
+      </c>
+      <c r="AF10">
+        <v>0.00196</v>
+      </c>
+      <c r="AG10">
+        <v>0.00648</v>
+      </c>
+      <c r="AH10">
+        <v>0.00264</v>
+      </c>
+      <c r="AI10">
+        <v>0.00451</v>
+      </c>
+      <c r="AJ10">
+        <v>0.00326</v>
+      </c>
+      <c r="AK10">
+        <v>0.00989</v>
+      </c>
+      <c r="AL10">
+        <v>0.005</v>
+      </c>
+      <c r="AM10">
+        <v>0.00112</v>
+      </c>
+      <c r="AN10">
+        <v>0.00083</v>
+      </c>
+      <c r="AO10">
         <v>0.00173</v>
       </c>
-      <c r="C10">
+      <c r="AP10">
+        <v>0.00013</v>
+      </c>
+      <c r="AQ10">
+        <v>0.00115</v>
+      </c>
+      <c r="AR10">
+        <v>0.00166</v>
+      </c>
+      <c r="AS10">
+        <v>0.00354</v>
+      </c>
+      <c r="AT10">
+        <v>0.00143</v>
+      </c>
+      <c r="AU10">
+        <v>0.00332</v>
+      </c>
+      <c r="AV10">
+        <v>0.00164</v>
+      </c>
+      <c r="AW10">
+        <v>0.00836</v>
+      </c>
+      <c r="AX10">
+        <v>0.00035</v>
+      </c>
+      <c r="AY10">
+        <v>0.00183</v>
+      </c>
+      <c r="AZ10">
+        <v>0.00047</v>
+      </c>
+      <c r="BA10">
+        <v>0.00189</v>
+      </c>
+      <c r="BB10">
+        <v>0.00287</v>
+      </c>
+      <c r="BC10">
+        <v>0.00294</v>
+      </c>
+      <c r="BD10">
+        <v>0.00089</v>
+      </c>
+      <c r="BE10">
+        <v>0.00143</v>
+      </c>
+      <c r="BF10">
+        <v>0.0046</v>
+      </c>
+      <c r="BG10">
+        <v>0.00158</v>
+      </c>
+      <c r="BH10">
+        <v>0.00137</v>
+      </c>
+      <c r="BI10">
+        <v>0.0008</v>
+      </c>
+      <c r="BJ10">
+        <v>0.0002</v>
+      </c>
+      <c r="BK10">
+        <v>0.00174</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
         <v>0.00066</v>
       </c>
-      <c r="D10">
-        <v>0.0003</v>
-      </c>
-      <c r="E10">
-        <v>0.00013</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.00166</v>
-      </c>
-      <c r="H10">
-        <v>0.00035</v>
-      </c>
-      <c r="I10">
-        <v>0.00047</v>
-      </c>
-      <c r="J10">
-        <v>0.00164</v>
-      </c>
-      <c r="K10">
+      <c r="BN10">
+        <v>0.0011</v>
+      </c>
+      <c r="BO10">
+        <v>0.0004</v>
+      </c>
+      <c r="BP10">
+        <v>0.00063</v>
+      </c>
+      <c r="BQ10">
+        <v>0.00032</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
         <v>0.00118</v>
       </c>
-      <c r="L10">
-        <v>0.00159</v>
-      </c>
-      <c r="M10">
-        <v>0.00294</v>
-      </c>
-      <c r="N10">
-        <v>0.0011</v>
-      </c>
-      <c r="O10">
-        <v>0.00189</v>
-      </c>
-      <c r="P10">
-        <v>0.00163</v>
-      </c>
-      <c r="Q10">
-        <v>0.00158</v>
-      </c>
-      <c r="R10">
+      <c r="BT10">
+        <v>0.00029</v>
+      </c>
+      <c r="BU10">
+        <v>0.00079</v>
+      </c>
+      <c r="BV10">
         <v>0.00024</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0.00424</v>
-      </c>
-      <c r="U10">
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0.00079</v>
+      </c>
+      <c r="BY10">
+        <v>0.00044</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0.00205</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0.00022</v>
+      </c>
+      <c r="CG10">
+        <v>0.00051</v>
+      </c>
+      <c r="CH10">
+        <v>0.00022</v>
+      </c>
+      <c r="CI10">
+        <v>0.00167</v>
+      </c>
+      <c r="CJ10">
+        <v>0.00059</v>
+      </c>
+      <c r="CK10">
+        <v>0.00045</v>
+      </c>
+      <c r="CL10">
+        <v>0.00249</v>
+      </c>
+      <c r="CM10">
+        <v>0.00038</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
         <v>0.00046</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.00115</v>
-      </c>
-      <c r="X10">
-        <v>0.02179</v>
-      </c>
-      <c r="Y10">
-        <v>0.00143</v>
-      </c>
-      <c r="Z10">
-        <v>0.00264</v>
-      </c>
-      <c r="AA10">
-        <v>0.005</v>
-      </c>
-      <c r="AB10">
-        <v>0.00354</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0.00529</v>
-      </c>
-      <c r="AE10">
-        <v>0.00642</v>
-      </c>
-      <c r="AF10">
-        <v>0.0045</v>
-      </c>
-      <c r="AG10">
-        <v>0.00022</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0.03368</v>
-      </c>
-      <c r="AJ10">
-        <v>0.00143</v>
-      </c>
-      <c r="AK10">
-        <v>0.00434</v>
-      </c>
-      <c r="AL10">
-        <v>0.00451</v>
-      </c>
-      <c r="AM10">
+      <c r="CR10">
+        <v>0.00077</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0.0007</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0.00028</v>
+      </c>
+      <c r="DB10">
         <v>0.00016</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0.00032</v>
-      </c>
-      <c r="AQ10">
-        <v>0.00548</v>
-      </c>
-      <c r="AR10">
-        <v>0.00045</v>
-      </c>
-      <c r="AS10">
-        <v>0.00079</v>
-      </c>
-      <c r="AT10">
-        <v>0.02401</v>
-      </c>
-      <c r="AU10">
-        <v>0.00029</v>
-      </c>
-      <c r="AV10">
-        <v>0.00456</v>
-      </c>
-      <c r="AW10">
-        <v>0.00249</v>
-      </c>
-      <c r="AX10">
-        <v>0.0008</v>
-      </c>
-      <c r="AY10">
-        <v>0.00438</v>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0.00021</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0.00012</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0.00016</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0.00046</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:123">
       <c r="A11" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B11">
+        <v>0.02692</v>
+      </c>
+      <c r="C11">
+        <v>0.01452</v>
+      </c>
+      <c r="D11">
+        <v>0.01315</v>
+      </c>
+      <c r="E11">
+        <v>0.02117</v>
+      </c>
+      <c r="F11">
+        <v>0.04052</v>
+      </c>
+      <c r="G11">
+        <v>0.04986</v>
+      </c>
+      <c r="H11">
+        <v>0.00799</v>
+      </c>
+      <c r="I11">
+        <v>0.0077</v>
+      </c>
+      <c r="J11">
+        <v>0.00754</v>
+      </c>
+      <c r="K11">
+        <v>0.00788</v>
+      </c>
+      <c r="L11">
+        <v>0.01202</v>
+      </c>
+      <c r="M11">
+        <v>0.01713</v>
+      </c>
+      <c r="N11">
+        <v>0.01408</v>
+      </c>
+      <c r="O11">
+        <v>0.00801</v>
+      </c>
+      <c r="P11">
+        <v>0.00636</v>
+      </c>
+      <c r="Q11">
+        <v>0.00027</v>
+      </c>
+      <c r="R11">
+        <v>0.0022</v>
+      </c>
+      <c r="S11">
+        <v>0.00442</v>
+      </c>
+      <c r="T11">
+        <v>0.00771</v>
+      </c>
+      <c r="U11">
+        <v>0.01279</v>
+      </c>
+      <c r="V11">
+        <v>0.00274</v>
+      </c>
+      <c r="W11">
+        <v>0.00898</v>
+      </c>
+      <c r="X11">
+        <v>0.00238</v>
+      </c>
+      <c r="Y11">
+        <v>0.03236</v>
+      </c>
+      <c r="Z11">
+        <v>0.00277</v>
+      </c>
+      <c r="AA11">
+        <v>0.00453</v>
+      </c>
+      <c r="AB11">
+        <v>0.01513</v>
+      </c>
+      <c r="AC11">
+        <v>0.01522</v>
+      </c>
+      <c r="AD11">
+        <v>0.00977</v>
+      </c>
+      <c r="AE11">
+        <v>0.00775</v>
+      </c>
+      <c r="AF11">
+        <v>0.0031</v>
+      </c>
+      <c r="AG11">
+        <v>0.00118</v>
+      </c>
+      <c r="AH11">
+        <v>0.01082</v>
+      </c>
+      <c r="AI11">
+        <v>0.00573</v>
+      </c>
+      <c r="AJ11">
+        <v>0.00062</v>
+      </c>
+      <c r="AK11">
+        <v>0.00062</v>
+      </c>
+      <c r="AL11">
+        <v>0.00227</v>
+      </c>
+      <c r="AM11">
+        <v>0.00158</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>0.01049</v>
       </c>
-      <c r="C11">
+      <c r="AP11">
+        <v>0.01176</v>
+      </c>
+      <c r="AQ11">
+        <v>0.00261</v>
+      </c>
+      <c r="AR11">
+        <v>0.01081</v>
+      </c>
+      <c r="AS11">
+        <v>0.00698</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0.0368</v>
+      </c>
+      <c r="AV11">
+        <v>0.00803</v>
+      </c>
+      <c r="AW11">
+        <v>0.00062</v>
+      </c>
+      <c r="AX11">
+        <v>0.006</v>
+      </c>
+      <c r="AY11">
+        <v>0.00649</v>
+      </c>
+      <c r="AZ11">
+        <v>0.00709</v>
+      </c>
+      <c r="BA11">
+        <v>0.00632</v>
+      </c>
+      <c r="BB11">
+        <v>0.00319</v>
+      </c>
+      <c r="BC11">
+        <v>0.02914</v>
+      </c>
+      <c r="BD11">
+        <v>0.0205</v>
+      </c>
+      <c r="BE11">
+        <v>0.00097</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0.00398</v>
+      </c>
+      <c r="BH11">
+        <v>0.00649</v>
+      </c>
+      <c r="BI11">
+        <v>0.00114</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0.00486</v>
+      </c>
+      <c r="BL11">
+        <v>0.00217</v>
+      </c>
+      <c r="BM11">
         <v>0.0081</v>
       </c>
-      <c r="D11">
-        <v>0.00898</v>
-      </c>
-      <c r="E11">
-        <v>0.01176</v>
-      </c>
-      <c r="F11">
+      <c r="BN11">
+        <v>0.01474</v>
+      </c>
+      <c r="BO11">
+        <v>0.00044</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0.00224</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0.00837</v>
+      </c>
+      <c r="BT11">
+        <v>0.00163</v>
+      </c>
+      <c r="BU11">
+        <v>0.0009</v>
+      </c>
+      <c r="BV11">
+        <v>0.0027</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0.00168</v>
+      </c>
+      <c r="BY11">
+        <v>0.0025</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0.00186</v>
+      </c>
+      <c r="CB11">
+        <v>0.00129</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0.00412</v>
+      </c>
+      <c r="CF11">
+        <v>0.00063</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0.0019</v>
+      </c>
+      <c r="CJ11">
+        <v>0.00292</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0.00059</v>
+      </c>
+      <c r="CO11">
+        <v>0.0005</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0.00033</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0.00067</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0.00066</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
         <v>0.00124</v>
       </c>
-      <c r="G11">
-        <v>0.01081</v>
-      </c>
-      <c r="H11">
-        <v>0.006</v>
-      </c>
-      <c r="I11">
-        <v>0.00709</v>
-      </c>
-      <c r="J11">
-        <v>0.00803</v>
-      </c>
-      <c r="K11">
-        <v>0.00837</v>
-      </c>
-      <c r="L11">
-        <v>0.00775</v>
-      </c>
-      <c r="M11">
-        <v>0.02914</v>
-      </c>
-      <c r="N11">
-        <v>0.01474</v>
-      </c>
-      <c r="O11">
-        <v>0.00632</v>
-      </c>
-      <c r="P11">
-        <v>0.01513</v>
-      </c>
-      <c r="Q11">
-        <v>0.00398</v>
-      </c>
-      <c r="R11">
-        <v>0.0027</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0.01202</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0.00261</v>
-      </c>
-      <c r="X11">
-        <v>0.00636</v>
-      </c>
-      <c r="Y11">
-        <v>0.00097</v>
-      </c>
-      <c r="Z11">
-        <v>0.01082</v>
-      </c>
-      <c r="AA11">
-        <v>0.00227</v>
-      </c>
-      <c r="AB11">
-        <v>0.00698</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0.01279</v>
-      </c>
-      <c r="AE11">
-        <v>0.01603</v>
-      </c>
-      <c r="AF11">
-        <v>0.01522</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0.00186</v>
-      </c>
-      <c r="AI11">
-        <v>0.02692</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0.00801</v>
-      </c>
-      <c r="AL11">
-        <v>0.00573</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0.00224</v>
-      </c>
-      <c r="AQ11">
-        <v>0.00332</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0.0009</v>
-      </c>
-      <c r="AT11">
-        <v>0.02117</v>
-      </c>
-      <c r="AU11">
-        <v>0.00163</v>
-      </c>
-      <c r="AV11">
-        <v>0.01408</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0.00114</v>
-      </c>
-      <c r="AY11">
-        <v>0.01181</v>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:123">
       <c r="A12" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B12">
+        <v>0.18067</v>
+      </c>
+      <c r="C12">
+        <v>0.01916</v>
+      </c>
+      <c r="D12">
+        <v>0.00674</v>
+      </c>
+      <c r="E12">
+        <v>0.08392</v>
+      </c>
+      <c r="F12">
+        <v>0.04895</v>
+      </c>
+      <c r="G12">
+        <v>0.05624</v>
+      </c>
+      <c r="H12">
+        <v>0.09819</v>
+      </c>
+      <c r="I12">
+        <v>0.04662</v>
+      </c>
+      <c r="J12">
+        <v>0.06649</v>
+      </c>
+      <c r="K12">
+        <v>0.01031</v>
+      </c>
+      <c r="L12">
+        <v>0.00472</v>
+      </c>
+      <c r="M12">
+        <v>0.05383</v>
+      </c>
+      <c r="N12">
+        <v>0.00619</v>
+      </c>
+      <c r="O12">
+        <v>0.02738</v>
+      </c>
+      <c r="P12">
+        <v>0.08343</v>
+      </c>
+      <c r="Q12">
+        <v>0.03519</v>
+      </c>
+      <c r="R12">
+        <v>0.01088</v>
+      </c>
+      <c r="S12">
+        <v>0.01189</v>
+      </c>
+      <c r="T12">
+        <v>0.00391</v>
+      </c>
+      <c r="U12">
+        <v>0.00282</v>
+      </c>
+      <c r="V12">
+        <v>0.0012</v>
+      </c>
+      <c r="W12">
+        <v>0.00157</v>
+      </c>
+      <c r="X12">
+        <v>0.02896</v>
+      </c>
+      <c r="Y12">
+        <v>0.0112</v>
+      </c>
+      <c r="Z12">
+        <v>0.0023</v>
+      </c>
+      <c r="AA12">
+        <v>0.00152</v>
+      </c>
+      <c r="AB12">
+        <v>0.00726</v>
+      </c>
+      <c r="AC12">
+        <v>0.0021</v>
+      </c>
+      <c r="AD12">
+        <v>0.00117</v>
+      </c>
+      <c r="AE12">
+        <v>0.00177</v>
+      </c>
+      <c r="AF12">
+        <v>0.00077</v>
+      </c>
+      <c r="AG12">
+        <v>0.01499</v>
+      </c>
+      <c r="AH12">
+        <v>0.00163</v>
+      </c>
+      <c r="AI12">
+        <v>0.00745</v>
+      </c>
+      <c r="AJ12">
+        <v>0.00121</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0.02383</v>
+      </c>
+      <c r="AM12">
+        <v>0.018</v>
+      </c>
+      <c r="AN12">
+        <v>0.02449</v>
+      </c>
+      <c r="AO12">
         <v>0.00275</v>
       </c>
-      <c r="C12">
+      <c r="AP12">
+        <v>0.00602</v>
+      </c>
+      <c r="AQ12">
+        <v>0.02354</v>
+      </c>
+      <c r="AR12">
+        <v>0.00462</v>
+      </c>
+      <c r="AS12">
+        <v>0.00531</v>
+      </c>
+      <c r="AT12">
+        <v>0.01788</v>
+      </c>
+      <c r="AU12">
+        <v>0.00061</v>
+      </c>
+      <c r="AV12">
+        <v>0.00232</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0.00249</v>
+      </c>
+      <c r="AY12">
+        <v>0.00714</v>
+      </c>
+      <c r="AZ12">
+        <v>0.00366</v>
+      </c>
+      <c r="BA12">
+        <v>0.00363</v>
+      </c>
+      <c r="BB12">
+        <v>0.00306</v>
+      </c>
+      <c r="BC12">
+        <v>0.00041</v>
+      </c>
+      <c r="BD12">
+        <v>0.00378</v>
+      </c>
+      <c r="BE12">
+        <v>0.00057</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0.00215</v>
+      </c>
+      <c r="BH12">
+        <v>0.00484</v>
+      </c>
+      <c r="BI12">
+        <v>0.03083</v>
+      </c>
+      <c r="BJ12">
+        <v>0.01726</v>
+      </c>
+      <c r="BK12">
+        <v>0.00707</v>
+      </c>
+      <c r="BL12">
+        <v>0.03373</v>
+      </c>
+      <c r="BM12">
         <v>0.00245</v>
       </c>
-      <c r="D12">
-        <v>0.00157</v>
-      </c>
-      <c r="E12">
-        <v>0.00602</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.00462</v>
-      </c>
-      <c r="H12">
-        <v>0.00249</v>
-      </c>
-      <c r="I12">
-        <v>0.00366</v>
-      </c>
-      <c r="J12">
-        <v>0.00232</v>
-      </c>
-      <c r="K12">
+      <c r="BN12">
+        <v>0.00213</v>
+      </c>
+      <c r="BO12">
+        <v>0.00999</v>
+      </c>
+      <c r="BP12">
+        <v>0.00747</v>
+      </c>
+      <c r="BQ12">
+        <v>0.00774</v>
+      </c>
+      <c r="BR12">
+        <v>0.00809</v>
+      </c>
+      <c r="BS12">
         <v>0.00131</v>
       </c>
-      <c r="L12">
-        <v>0.00177</v>
-      </c>
-      <c r="M12">
-        <v>0.00041</v>
-      </c>
-      <c r="N12">
-        <v>0.00213</v>
-      </c>
-      <c r="O12">
-        <v>0.00363</v>
-      </c>
-      <c r="P12">
-        <v>0.00726</v>
-      </c>
-      <c r="Q12">
-        <v>0.00215</v>
-      </c>
-      <c r="R12">
+      <c r="BT12">
+        <v>0.01181</v>
+      </c>
+      <c r="BU12">
+        <v>0.00369</v>
+      </c>
+      <c r="BV12">
         <v>0.00742</v>
       </c>
-      <c r="S12">
+      <c r="BW12">
+        <v>0.00486</v>
+      </c>
+      <c r="BX12">
+        <v>0.0011</v>
+      </c>
+      <c r="BY12">
+        <v>0.00393</v>
+      </c>
+      <c r="BZ12">
+        <v>0.00536</v>
+      </c>
+      <c r="CA12">
+        <v>0.00044</v>
+      </c>
+      <c r="CB12">
+        <v>0.00025</v>
+      </c>
+      <c r="CC12">
         <v>0.01025</v>
       </c>
-      <c r="T12">
-        <v>0.00472</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="CD12">
         <v>0.00106</v>
       </c>
-      <c r="W12">
-        <v>0.02354</v>
-      </c>
-      <c r="X12">
-        <v>0.08343</v>
-      </c>
-      <c r="Y12">
-        <v>0.00057</v>
-      </c>
-      <c r="Z12">
-        <v>0.00163</v>
-      </c>
-      <c r="AA12">
-        <v>0.02383</v>
-      </c>
-      <c r="AB12">
-        <v>0.00531</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0.00282</v>
-      </c>
-      <c r="AE12">
-        <v>0.00289</v>
-      </c>
-      <c r="AF12">
-        <v>0.0021</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0.00044</v>
-      </c>
-      <c r="AI12">
-        <v>0.18067</v>
-      </c>
-      <c r="AJ12">
-        <v>0.01788</v>
-      </c>
-      <c r="AK12">
-        <v>0.02738</v>
-      </c>
-      <c r="AL12">
-        <v>0.00745</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
+      <c r="CE12">
+        <v>0.00032</v>
+      </c>
+      <c r="CF12">
+        <v>0.00074</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0.00074</v>
+      </c>
+      <c r="CJ12">
+        <v>0.00033</v>
+      </c>
+      <c r="CK12">
+        <v>0.001</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0.00128</v>
+      </c>
+      <c r="CN12">
+        <v>0.00023</v>
+      </c>
+      <c r="CO12">
+        <v>0.0002</v>
+      </c>
+      <c r="CP12">
+        <v>0.0017</v>
+      </c>
+      <c r="CQ12">
+        <v>0.00013</v>
+      </c>
+      <c r="CR12">
+        <v>0.00688</v>
+      </c>
+      <c r="CS12">
         <v>0.00017</v>
       </c>
-      <c r="AP12">
-        <v>0.00774</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0.001</v>
-      </c>
-      <c r="AS12">
-        <v>0.00369</v>
-      </c>
-      <c r="AT12">
-        <v>0.08392</v>
-      </c>
-      <c r="AU12">
-        <v>0.01181</v>
-      </c>
-      <c r="AV12">
-        <v>0.00619</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0.03083</v>
-      </c>
-      <c r="AY12">
-        <v>0.00325</v>
+      <c r="CT12">
+        <v>0.00048</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0.00415</v>
+      </c>
+      <c r="CW12">
+        <v>0.00026</v>
+      </c>
+      <c r="CX12">
+        <v>0.00036</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0.00035</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0.0007</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0.00018</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>0.00023</v>
+      </c>
+      <c r="DQ12">
+        <v>0.00051</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:123">
       <c r="A13" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B13">
+        <v>0.00568</v>
+      </c>
+      <c r="C13">
+        <v>0.01137</v>
+      </c>
+      <c r="D13">
+        <v>0.00687</v>
+      </c>
+      <c r="E13">
+        <v>0.01052</v>
+      </c>
+      <c r="F13">
+        <v>0.00922</v>
+      </c>
+      <c r="G13">
+        <v>0.01275</v>
+      </c>
+      <c r="H13">
+        <v>0.00062</v>
+      </c>
+      <c r="I13">
+        <v>0.00386</v>
+      </c>
+      <c r="J13">
+        <v>0.01036</v>
+      </c>
+      <c r="K13">
+        <v>0.003</v>
+      </c>
+      <c r="L13">
+        <v>0.00346</v>
+      </c>
+      <c r="M13">
+        <v>0.0054</v>
+      </c>
+      <c r="N13">
+        <v>0.00426</v>
+      </c>
+      <c r="O13">
+        <v>0.00358</v>
+      </c>
+      <c r="P13">
+        <v>0.00198</v>
+      </c>
+      <c r="Q13">
+        <v>0.00146</v>
+      </c>
+      <c r="R13">
+        <v>0.00445</v>
+      </c>
+      <c r="S13">
+        <v>0.00148</v>
+      </c>
+      <c r="T13">
+        <v>0.00356</v>
+      </c>
+      <c r="U13">
+        <v>0.00418</v>
+      </c>
+      <c r="V13">
+        <v>0.00167</v>
+      </c>
+      <c r="W13">
+        <v>0.0007</v>
+      </c>
+      <c r="X13">
+        <v>0.00146</v>
+      </c>
+      <c r="Y13">
+        <v>0.0061</v>
+      </c>
+      <c r="Z13">
+        <v>0.00311</v>
+      </c>
+      <c r="AA13">
+        <v>0.00239</v>
+      </c>
+      <c r="AB13">
+        <v>0.00356</v>
+      </c>
+      <c r="AC13">
+        <v>0.0018</v>
+      </c>
+      <c r="AD13">
+        <v>0.00116</v>
+      </c>
+      <c r="AE13">
+        <v>0.00102</v>
+      </c>
+      <c r="AF13">
+        <v>0.00161</v>
+      </c>
+      <c r="AG13">
+        <v>0.00129</v>
+      </c>
+      <c r="AH13">
+        <v>0.00193</v>
+      </c>
+      <c r="AI13">
+        <v>0.00434</v>
+      </c>
+      <c r="AJ13">
+        <v>0.00303</v>
+      </c>
+      <c r="AK13">
+        <v>0.00902</v>
+      </c>
+      <c r="AL13">
+        <v>0.00015</v>
+      </c>
+      <c r="AM13">
+        <v>0.01079</v>
+      </c>
+      <c r="AN13">
+        <v>0.00106</v>
+      </c>
+      <c r="AO13">
         <v>0.00143</v>
       </c>
-      <c r="C13">
+      <c r="AP13">
+        <v>0.0001</v>
+      </c>
+      <c r="AQ13">
+        <v>0.00196</v>
+      </c>
+      <c r="AR13">
+        <v>0.00205</v>
+      </c>
+      <c r="AS13">
+        <v>0.00048</v>
+      </c>
+      <c r="AT13">
+        <v>0.00022</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0.00012</v>
+      </c>
+      <c r="AW13">
+        <v>0.00919</v>
+      </c>
+      <c r="AX13">
+        <v>0.00109</v>
+      </c>
+      <c r="AY13">
+        <v>0.00053</v>
+      </c>
+      <c r="AZ13">
+        <v>0.00133</v>
+      </c>
+      <c r="BA13">
+        <v>0.00173</v>
+      </c>
+      <c r="BB13">
+        <v>0.00116</v>
+      </c>
+      <c r="BC13">
         <v>0.00085</v>
       </c>
-      <c r="D13">
+      <c r="BD13">
+        <v>0.00011</v>
+      </c>
+      <c r="BE13">
+        <v>0.00115</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0.00109</v>
+      </c>
+      <c r="BH13">
+        <v>0.00018</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0.00335</v>
+      </c>
+      <c r="BL13">
+        <v>0.00059</v>
+      </c>
+      <c r="BM13">
+        <v>0.00085</v>
+      </c>
+      <c r="BN13">
+        <v>0.00106</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0.00032</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0.00053</v>
+      </c>
+      <c r="BS13">
+        <v>0.00069</v>
+      </c>
+      <c r="BT13">
+        <v>0.00022</v>
+      </c>
+      <c r="BU13">
+        <v>0.00012</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0.00018</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0.0001</v>
+      </c>
+      <c r="CB13">
         <v>0.0007</v>
       </c>
-      <c r="E13">
-        <v>0.0001</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.00205</v>
-      </c>
-      <c r="H13">
-        <v>0.00109</v>
-      </c>
-      <c r="I13">
-        <v>0.00133</v>
-      </c>
-      <c r="J13">
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0.00068</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0.00198</v>
+      </c>
+      <c r="CH13">
+        <v>0.00085</v>
+      </c>
+      <c r="CI13">
+        <v>0.00078</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
         <v>0.00012</v>
       </c>
-      <c r="K13">
-        <v>0.00069</v>
-      </c>
-      <c r="L13">
-        <v>0.00102</v>
-      </c>
-      <c r="M13">
-        <v>0.00085</v>
-      </c>
-      <c r="N13">
-        <v>0.00106</v>
-      </c>
-      <c r="O13">
-        <v>0.00173</v>
-      </c>
-      <c r="P13">
-        <v>0.00356</v>
-      </c>
-      <c r="Q13">
-        <v>0.00109</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0.00346</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.00196</v>
-      </c>
-      <c r="X13">
-        <v>0.00198</v>
-      </c>
-      <c r="Y13">
-        <v>0.00115</v>
-      </c>
-      <c r="Z13">
-        <v>0.00193</v>
-      </c>
-      <c r="AA13">
-        <v>0.00015</v>
-      </c>
-      <c r="AB13">
-        <v>0.00048</v>
-      </c>
-      <c r="AC13">
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0.0003</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0.00014</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>9e-05</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0.00034</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
         <v>0.00035</v>
       </c>
-      <c r="AD13">
-        <v>0.00418</v>
-      </c>
-      <c r="AE13">
-        <v>0.00272</v>
-      </c>
-      <c r="AF13">
-        <v>0.0018</v>
-      </c>
-      <c r="AG13">
-        <v>0.00085</v>
-      </c>
-      <c r="AH13">
-        <v>0.0001</v>
-      </c>
-      <c r="AI13">
-        <v>0.00568</v>
-      </c>
-      <c r="AJ13">
-        <v>0.00022</v>
-      </c>
-      <c r="AK13">
-        <v>0.00358</v>
-      </c>
-      <c r="AL13">
-        <v>0.00434</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0.00272</v>
-      </c>
-      <c r="AR13">
-        <v>0.00012</v>
-      </c>
-      <c r="AS13">
-        <v>0.00012</v>
-      </c>
-      <c r="AT13">
-        <v>0.01052</v>
-      </c>
-      <c r="AU13">
-        <v>0.00022</v>
-      </c>
-      <c r="AV13">
-        <v>0.00426</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0.00194</v>
+      <c r="DF13">
+        <v>0.00034</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0.00017</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:123">
       <c r="A14" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B14">
+        <v>0.01157</v>
+      </c>
+      <c r="C14">
+        <v>0.00979</v>
+      </c>
+      <c r="D14">
+        <v>0.0106</v>
+      </c>
+      <c r="E14">
+        <v>0.0189</v>
+      </c>
+      <c r="F14">
+        <v>0.01697</v>
+      </c>
+      <c r="G14">
+        <v>0.0172</v>
+      </c>
+      <c r="H14">
+        <v>0.00062</v>
+      </c>
+      <c r="I14">
+        <v>0.00677</v>
+      </c>
+      <c r="J14">
+        <v>0.00803</v>
+      </c>
+      <c r="K14">
+        <v>0.00436</v>
+      </c>
+      <c r="L14">
+        <v>0.00437</v>
+      </c>
+      <c r="M14">
+        <v>0.00743</v>
+      </c>
+      <c r="N14">
+        <v>0.00726</v>
+      </c>
+      <c r="O14">
+        <v>0.00155</v>
+      </c>
+      <c r="P14">
+        <v>0.00033</v>
+      </c>
+      <c r="Q14">
+        <v>0.00019</v>
+      </c>
+      <c r="R14">
+        <v>0.0104</v>
+      </c>
+      <c r="S14">
+        <v>0.00488</v>
+      </c>
+      <c r="T14">
+        <v>0.00684</v>
+      </c>
+      <c r="U14">
+        <v>0.0034</v>
+      </c>
+      <c r="V14">
+        <v>0.00528</v>
+      </c>
+      <c r="W14">
+        <v>0.00093</v>
+      </c>
+      <c r="X14">
+        <v>0.00389</v>
+      </c>
+      <c r="Y14">
+        <v>0.00673</v>
+      </c>
+      <c r="Z14">
+        <v>0.00201</v>
+      </c>
+      <c r="AA14">
+        <v>0.00306</v>
+      </c>
+      <c r="AB14">
+        <v>0.00367</v>
+      </c>
+      <c r="AC14">
+        <v>0.0015</v>
+      </c>
+      <c r="AD14">
+        <v>0.00201</v>
+      </c>
+      <c r="AE14">
+        <v>0.001</v>
+      </c>
+      <c r="AF14">
+        <v>0.00392</v>
+      </c>
+      <c r="AG14">
+        <v>0.00291</v>
+      </c>
+      <c r="AH14">
+        <v>0.00076</v>
+      </c>
+      <c r="AI14">
+        <v>0.0069</v>
+      </c>
+      <c r="AJ14">
+        <v>0.01053</v>
+      </c>
+      <c r="AK14">
+        <v>0.0222</v>
+      </c>
+      <c r="AL14">
+        <v>0.00062</v>
+      </c>
+      <c r="AM14">
+        <v>0.01264</v>
+      </c>
+      <c r="AN14">
+        <v>0.00057</v>
+      </c>
+      <c r="AO14">
         <v>0.00064</v>
       </c>
-      <c r="C14">
+      <c r="AP14">
+        <v>0.00065</v>
+      </c>
+      <c r="AQ14">
+        <v>0.00426</v>
+      </c>
+      <c r="AR14">
+        <v>0.00137</v>
+      </c>
+      <c r="AS14">
+        <v>0.00095</v>
+      </c>
+      <c r="AT14">
+        <v>0.00089</v>
+      </c>
+      <c r="AU14">
+        <v>0.00085</v>
+      </c>
+      <c r="AV14">
+        <v>0.00169</v>
+      </c>
+      <c r="AW14">
+        <v>0.01699</v>
+      </c>
+      <c r="AX14">
+        <v>0.00121</v>
+      </c>
+      <c r="AY14">
+        <v>0.00047</v>
+      </c>
+      <c r="AZ14">
+        <v>0.00081</v>
+      </c>
+      <c r="BA14">
+        <v>0.00071</v>
+      </c>
+      <c r="BB14">
+        <v>0.00399</v>
+      </c>
+      <c r="BC14">
+        <v>0.00379</v>
+      </c>
+      <c r="BD14">
+        <v>0.0003</v>
+      </c>
+      <c r="BE14">
+        <v>0.00189</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0.00054</v>
+      </c>
+      <c r="BH14">
+        <v>0.00024</v>
+      </c>
+      <c r="BI14">
+        <v>0.00166</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0.00687</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
         <v>0.00113</v>
       </c>
-      <c r="D14">
-        <v>0.00093</v>
-      </c>
-      <c r="E14">
-        <v>0.00065</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.00137</v>
-      </c>
-      <c r="H14">
-        <v>0.00121</v>
-      </c>
-      <c r="I14">
-        <v>0.00081</v>
-      </c>
-      <c r="J14">
-        <v>0.00169</v>
-      </c>
-      <c r="K14">
+      <c r="BN14">
+        <v>0.00056</v>
+      </c>
+      <c r="BO14">
+        <v>0.00021</v>
+      </c>
+      <c r="BP14">
+        <v>0.00022</v>
+      </c>
+      <c r="BQ14">
+        <v>0.00016</v>
+      </c>
+      <c r="BR14">
+        <v>0.00187</v>
+      </c>
+      <c r="BS14">
         <v>0.0003</v>
       </c>
-      <c r="L14">
-        <v>0.001</v>
-      </c>
-      <c r="M14">
-        <v>0.00379</v>
-      </c>
-      <c r="N14">
-        <v>0.00056</v>
-      </c>
-      <c r="O14">
-        <v>0.00071</v>
-      </c>
-      <c r="P14">
-        <v>0.00367</v>
-      </c>
-      <c r="Q14">
-        <v>0.00054</v>
-      </c>
-      <c r="R14">
+      <c r="BT14">
+        <v>0.00089</v>
+      </c>
+      <c r="BU14">
+        <v>0.00033</v>
+      </c>
+      <c r="BV14">
         <v>0.00025</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0.00437</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.00426</v>
-      </c>
-      <c r="X14">
+      <c r="BW14">
+        <v>0.00047</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0.00014</v>
+      </c>
+      <c r="CB14">
+        <v>0.00094</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0.0009</v>
+      </c>
+      <c r="CF14">
+        <v>0.00092</v>
+      </c>
+      <c r="CG14">
+        <v>0.00238</v>
+      </c>
+      <c r="CH14">
+        <v>0.00362</v>
+      </c>
+      <c r="CI14">
+        <v>0.00103</v>
+      </c>
+      <c r="CJ14">
+        <v>0.0003</v>
+      </c>
+      <c r="CK14">
+        <v>0.00046</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0.00073</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0.00012</v>
+      </c>
+      <c r="CR14">
+        <v>0.0008</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0.00128</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
         <v>0.00033</v>
       </c>
-      <c r="Y14">
-        <v>0.00189</v>
-      </c>
-      <c r="Z14">
-        <v>0.00076</v>
-      </c>
-      <c r="AA14">
-        <v>0.00062</v>
-      </c>
-      <c r="AB14">
-        <v>0.00095</v>
-      </c>
-      <c r="AC14">
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>0.00016</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DD14">
+        <v>0.00021</v>
+      </c>
+      <c r="DE14">
         <v>0.00023</v>
       </c>
-      <c r="AD14">
-        <v>0.0034</v>
-      </c>
-      <c r="AE14">
-        <v>0.00173</v>
-      </c>
-      <c r="AF14">
-        <v>0.0015</v>
-      </c>
-      <c r="AG14">
-        <v>0.00362</v>
-      </c>
-      <c r="AH14">
-        <v>0.00014</v>
-      </c>
-      <c r="AI14">
-        <v>0.01157</v>
-      </c>
-      <c r="AJ14">
-        <v>0.00089</v>
-      </c>
-      <c r="AK14">
-        <v>0.00155</v>
-      </c>
-      <c r="AL14">
-        <v>0.0069</v>
-      </c>
-      <c r="AM14">
-        <v>0.00016</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0.00016</v>
-      </c>
-      <c r="AQ14">
-        <v>0.00242</v>
-      </c>
-      <c r="AR14">
+      <c r="DF14">
+        <v>0.00022</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
         <v>0.00046</v>
       </c>
-      <c r="AS14">
-        <v>0.00033</v>
-      </c>
-      <c r="AT14">
-        <v>0.0189</v>
-      </c>
-      <c r="AU14">
-        <v>0.00089</v>
-      </c>
-      <c r="AV14">
-        <v>0.00726</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0.00166</v>
-      </c>
-      <c r="AY14">
-        <v>0.00086</v>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0.00024</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DQ14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:123">
       <c r="A15" s="1" t="s">
         <v>785</v>
       </c>
       <c r="B15">
+        <v>0.03495</v>
+      </c>
+      <c r="C15">
+        <v>0.01479</v>
+      </c>
+      <c r="D15">
+        <v>0.02089</v>
+      </c>
+      <c r="E15">
+        <v>0.01075</v>
+      </c>
+      <c r="F15">
+        <v>0.04932</v>
+      </c>
+      <c r="G15">
+        <v>0.04257</v>
+      </c>
+      <c r="H15">
+        <v>0.00809</v>
+      </c>
+      <c r="I15">
+        <v>0.01268</v>
+      </c>
+      <c r="J15">
+        <v>0.01108</v>
+      </c>
+      <c r="K15">
+        <v>0.00684</v>
+      </c>
+      <c r="L15">
+        <v>0.01541</v>
+      </c>
+      <c r="M15">
+        <v>0.01755</v>
+      </c>
+      <c r="N15">
+        <v>0.01001</v>
+      </c>
+      <c r="O15">
+        <v>0.00482</v>
+      </c>
+      <c r="P15">
+        <v>0.0156</v>
+      </c>
+      <c r="Q15">
+        <v>0.00069</v>
+      </c>
+      <c r="R15">
+        <v>0.00283</v>
+      </c>
+      <c r="S15">
+        <v>0.00478</v>
+      </c>
+      <c r="T15">
+        <v>0.00994</v>
+      </c>
+      <c r="U15">
+        <v>0.01729</v>
+      </c>
+      <c r="V15">
+        <v>0.00159</v>
+      </c>
+      <c r="W15">
+        <v>0.01011</v>
+      </c>
+      <c r="X15">
+        <v>0.00741</v>
+      </c>
+      <c r="Y15">
+        <v>0.02314</v>
+      </c>
+      <c r="Z15">
+        <v>0.0028</v>
+      </c>
+      <c r="AA15">
+        <v>0.00292</v>
+      </c>
+      <c r="AB15">
+        <v>0.00849</v>
+      </c>
+      <c r="AC15">
+        <v>0.01784</v>
+      </c>
+      <c r="AD15">
+        <v>0.01496</v>
+      </c>
+      <c r="AE15">
+        <v>0.01299</v>
+      </c>
+      <c r="AF15">
+        <v>0.00175</v>
+      </c>
+      <c r="AG15">
+        <v>0.00586</v>
+      </c>
+      <c r="AH15">
+        <v>0.01431</v>
+      </c>
+      <c r="AI15">
+        <v>0.00246</v>
+      </c>
+      <c r="AJ15">
+        <v>0.00238</v>
+      </c>
+      <c r="AK15">
+        <v>0.00054</v>
+      </c>
+      <c r="AL15">
+        <v>0.00438</v>
+      </c>
+      <c r="AM15">
+        <v>0.00068</v>
+      </c>
+      <c r="AN15">
+        <v>0.001</v>
+      </c>
+      <c r="AO15">
         <v>0.01067</v>
       </c>
+      <c r="AP15">
+        <v>0.00796</v>
+      </c>
+      <c r="AQ15">
+        <v>0.00728</v>
+      </c>
+      <c r="AR15">
+        <v>0.01596</v>
+      </c>
+      <c r="AS15">
+        <v>0.00525</v>
+      </c>
+      <c r="AT15">
+        <v>0.00559</v>
+      </c>
+      <c r="AU15">
+        <v>0.03666</v>
+      </c>
+      <c r="AV15">
+        <v>0.00817</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0.01203</v>
+      </c>
+      <c r="AY15">
+        <v>0.01255</v>
+      </c>
+      <c r="AZ15">
+        <v>0.01162</v>
+      </c>
+      <c r="BA15">
+        <v>0.01232</v>
+      </c>
+      <c r="BB15">
+        <v>0.00426</v>
+      </c>
+      <c r="BC15">
+        <v>0.02772</v>
+      </c>
+      <c r="BD15">
+        <v>0.00413</v>
+      </c>
+      <c r="BE15">
+        <v>0.00063</v>
+      </c>
+      <c r="BF15">
+        <v>0.00023</v>
+      </c>
+      <c r="BG15">
+        <v>0.00898</v>
+      </c>
+      <c r="BH15">
+        <v>0.00307</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0.00098</v>
+      </c>
+      <c r="BK15">
+        <v>0.0035</v>
+      </c>
+      <c r="BL15">
+        <v>0.00047</v>
+      </c>
+      <c r="BM15">
+        <v>0.01177</v>
+      </c>
+      <c r="BN15">
+        <v>0.01633</v>
+      </c>
+      <c r="BO15">
+        <v>0.00097</v>
+      </c>
+      <c r="BP15">
+        <v>0.00102</v>
+      </c>
+      <c r="BQ15">
+        <v>0.00135</v>
+      </c>
+      <c r="BR15">
+        <v>0.00249</v>
+      </c>
+      <c r="BS15">
+        <v>0.01258</v>
+      </c>
+      <c r="BT15">
+        <v>0.00105</v>
+      </c>
+      <c r="BU15">
+        <v>0.00135</v>
+      </c>
+      <c r="BV15">
+        <v>0.00087</v>
+      </c>
+      <c r="BW15">
+        <v>0.00252</v>
+      </c>
+      <c r="BX15">
+        <v>0.00121</v>
+      </c>
+      <c r="BY15">
+        <v>0.00242</v>
+      </c>
+      <c r="BZ15">
+        <v>0.00049</v>
+      </c>
+      <c r="CA15">
+        <v>0.00176</v>
+      </c>
+      <c r="CB15">
+        <v>0.00028</v>
+      </c>
+      <c r="CC15">
+        <v>0.00093</v>
+      </c>
+      <c r="CD15">
+        <v>0.00019</v>
+      </c>
+      <c r="CE15">
+        <v>0.00142</v>
+      </c>
+      <c r="CF15">
+        <v>0.00108</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0.00081</v>
+      </c>
+      <c r="CJ15">
+        <v>0.00143</v>
+      </c>
+      <c r="CK15">
+        <v>0.00037</v>
+      </c>
+      <c r="CL15">
+        <v>0.00055</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0.00151</v>
+      </c>
+      <c r="CO15">
+        <v>0.00022</v>
+      </c>
+      <c r="CP15">
+        <v>0.00027</v>
+      </c>
+      <c r="CQ15">
+        <v>0.00028</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0.00289</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0.00028</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0.00106</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0.00138</v>
+      </c>
+      <c r="DB15">
+        <v>0.00019</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0.00025</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0.00029</v>
+      </c>
+      <c r="DJ15">
+        <v>0.00029</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.00383660130718954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.00265686274509804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0.00254705882352941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0.00266274509803922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>0.0036281045751634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.00494117647058823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>0.0046875816993464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>0.0025702614379085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>0.00332156862745098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0.00451437908496732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>0.00908823529411765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>0.00266666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>0.00362549019607843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
       <c r="C15">
-        <v>0.01177</v>
-      </c>
-      <c r="D15">
-        <v>0.01011</v>
-      </c>
-      <c r="E15">
-        <v>0.00796</v>
-      </c>
-      <c r="F15">
-        <v>0.00106</v>
-      </c>
-      <c r="G15">
-        <v>0.01596</v>
-      </c>
-      <c r="H15">
-        <v>0.01203</v>
-      </c>
-      <c r="I15">
-        <v>0.01162</v>
-      </c>
-      <c r="J15">
-        <v>0.00817</v>
-      </c>
-      <c r="K15">
-        <v>0.01258</v>
-      </c>
-      <c r="L15">
-        <v>0.01299</v>
-      </c>
-      <c r="M15">
-        <v>0.02772</v>
-      </c>
-      <c r="N15">
-        <v>0.01633</v>
-      </c>
-      <c r="O15">
-        <v>0.01232</v>
-      </c>
-      <c r="P15">
-        <v>0.00849</v>
-      </c>
-      <c r="Q15">
-        <v>0.00898</v>
-      </c>
-      <c r="R15">
-        <v>0.00087</v>
-      </c>
-      <c r="S15">
-        <v>0.00093</v>
-      </c>
-      <c r="T15">
-        <v>0.01541</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0.00019</v>
-      </c>
-      <c r="W15">
-        <v>0.00728</v>
-      </c>
-      <c r="X15">
-        <v>0.0156</v>
-      </c>
-      <c r="Y15">
-        <v>0.00063</v>
-      </c>
-      <c r="Z15">
-        <v>0.01431</v>
-      </c>
-      <c r="AA15">
-        <v>0.00438</v>
-      </c>
-      <c r="AB15">
-        <v>0.00525</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0.01729</v>
-      </c>
-      <c r="AE15">
-        <v>0.01973</v>
-      </c>
-      <c r="AF15">
-        <v>0.01784</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0.00176</v>
-      </c>
-      <c r="AI15">
-        <v>0.03495</v>
-      </c>
-      <c r="AJ15">
-        <v>0.00559</v>
-      </c>
-      <c r="AK15">
-        <v>0.00482</v>
-      </c>
-      <c r="AL15">
-        <v>0.00246</v>
-      </c>
-      <c r="AM15">
-        <v>0.00019</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0.00135</v>
-      </c>
-      <c r="AQ15">
-        <v>0.00381</v>
-      </c>
-      <c r="AR15">
-        <v>0.00037</v>
-      </c>
-      <c r="AS15">
-        <v>0.00135</v>
-      </c>
-      <c r="AT15">
-        <v>0.01075</v>
-      </c>
-      <c r="AU15">
-        <v>0.00105</v>
-      </c>
-      <c r="AV15">
-        <v>0.01001</v>
-      </c>
-      <c r="AW15">
-        <v>0.00055</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0.01725</v>
+        <v>0.00553767082590612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0.00438562091503268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>0.00349084967320261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>0.00471830065359477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>0.00301633986928105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>0.00333986928104575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>0.00293725490196078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>0.00344509803921569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>0.028281045751634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>0.00321862745098039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>0.00308888888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>0.00322549019607843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>0.00493464052287582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>0.00895686274509804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29">
+        <v>0.0031437908496732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30">
+        <v>0.00268692810457516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>0.0105245098039216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>0.00245686274509804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>0.00307124183006536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>0.00492287581699346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35">
+        <v>0.00348039215686274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36">
+        <v>0.00533921568627451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37">
+        <v>0.00431437908496732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38">
+        <v>0.00413921568627451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39">
+        <v>0.00343137254901961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40">
+        <v>0.0024156862745098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41">
+        <v>0.0214267973856209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>0.0173084967320262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43">
+        <v>0.00452614379084967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <v>0.0215477124183007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45">
+        <v>0.00580261437908497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46">
+        <v>0.0051437908496732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47">
+        <v>0.00265686274509804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48">
+        <v>0.00847385620915032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49">
+        <v>0.0037516339869281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <v>0.0150522875816994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51">
+        <v>0.00277254901960784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52">
+        <v>0.0136830065359477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53">
+        <v>0.00795620915032679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54">
+        <v>0.00531633986928104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55">
+        <v>0.0123193998811646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56">
+        <v>0.00266274509803922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57">
+        <v>0.00445490196078431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58">
+        <v>0.00399084967320261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59">
+        <v>0.0104019607843137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60">
+        <v>0.00322549019607843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61">
+        <v>0.00495490196078431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63">
+        <v>0.00500980392156863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64">
+        <v>0.0042483660130719</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65">
+        <v>0.0276112299465241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66">
+        <v>0.0154601307189543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67">
+        <v>0.00307124183006536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68">
+        <v>0.00308235294117647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69">
+        <v>0.0048554367201426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70">
+        <v>0.00404575163398693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71">
+        <v>0.0102535947712418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72">
+        <v>0.0051562091503268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73">
+        <v>0.00497777777777778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74">
+        <v>0.00563517528223411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75">
+        <v>0.00334313725490196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76">
+        <v>0.00369607843137255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77">
+        <v>0.00347385620915033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78">
+        <v>0.00315686274509804</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79">
+        <v>0.00432287581699346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80">
+        <v>0.00280457516339869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81">
+        <v>0.00284117647058824</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82">
+        <v>0.00482549019607843</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83">
+        <v>0.00451176470588235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84">
+        <v>0.00379869281045752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85">
+        <v>0.00345882352941176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86">
+        <v>0.00376993464052288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87">
+        <v>0.00316339869281046</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88">
+        <v>0.00431307189542484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89">
+        <v>0.00410065359477124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90">
+        <v>0.00366732026143791</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>329</v>
+      </c>
+      <c r="C92">
+        <v>0.00295163398692811</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93">
+        <v>0.00551699346405228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94">
+        <v>0.00266993464052288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95">
+        <v>0.00246470588235294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96">
+        <v>0.00314509803921569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>367</v>
+      </c>
+      <c r="C97">
+        <v>0.00352156862745098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98">
+        <v>0.00355490196078431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>381</v>
+      </c>
+      <c r="C99">
+        <v>0.00243790849673203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100">
+        <v>0.0043921568627451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>390</v>
+      </c>
+      <c r="C101">
+        <v>0.0035718954248366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102">
+        <v>0.0026078431372549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>422</v>
+      </c>
+      <c r="C103">
+        <v>0.0171015448603684</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104">
+        <v>0.00269019607843137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>434</v>
+      </c>
+      <c r="C105">
+        <v>0.00449411764705882</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>469</v>
+      </c>
+      <c r="C106">
+        <v>0.00464705882352941</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>471</v>
+      </c>
+      <c r="C107">
+        <v>0.00430653594771242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>478</v>
+      </c>
+      <c r="C108">
+        <v>0.00447450980392157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>479</v>
+      </c>
+      <c r="C109">
+        <v>0.0043235294117647</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>484</v>
+      </c>
+      <c r="C110">
+        <v>0.00368300653594771</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>490</v>
+      </c>
+      <c r="C111">
+        <v>0.00548692810457516</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>492</v>
+      </c>
+      <c r="C112">
+        <v>0.00274509803921569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>511</v>
+      </c>
+      <c r="C113">
+        <v>0.00653660130718954</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>518</v>
+      </c>
+      <c r="C114">
+        <v>0.00286274509803922</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115">
+        <v>0.00286732026143791</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>552</v>
+      </c>
+      <c r="C116">
+        <v>0.00471045751633987</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>572</v>
+      </c>
+      <c r="C117">
+        <v>0.00429019607843137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>575</v>
+      </c>
+      <c r="C118">
+        <v>0.00391176470588235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>582</v>
+      </c>
+      <c r="C119">
+        <v>0.00429150326797386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>583</v>
+      </c>
+      <c r="C120">
+        <v>0.00287320261437908</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>586</v>
+      </c>
+      <c r="C121">
+        <v>0.00349673202614379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>597</v>
+      </c>
+      <c r="C122">
+        <v>0.0025359477124183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>619</v>
+      </c>
+      <c r="C123">
+        <v>0.00482483660130719</v>
       </c>
     </row>
   </sheetData>

--- a/test/temp.xlsx
+++ b/test/temp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="788">
   <si>
     <t>tetQ</t>
   </si>
@@ -2376,7 +2376,7 @@
     <t>VR8</t>
   </si>
   <si>
-    <t>features</t>
+    <t>Gene</t>
   </si>
   <si>
     <t>importance</t>
@@ -37562,381 +37562,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DS15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:123">
+    <row r="1" spans="1:55">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>136</v>
+        <v>511</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>138</v>
+        <v>545</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>143</v>
+        <v>597</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="DS1" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="2" spans="1:123">
+    <row r="2" spans="1:55">
       <c r="A2" s="1" t="s">
         <v>772</v>
       </c>
@@ -37944,370 +37740,166 @@
         <v>0.15169</v>
       </c>
       <c r="C2">
-        <v>0.01391</v>
+        <v>0.06846</v>
       </c>
       <c r="D2">
-        <v>0.00649</v>
+        <v>0.06079</v>
       </c>
       <c r="E2">
-        <v>0.11111</v>
+        <v>0.00989</v>
       </c>
       <c r="F2">
-        <v>0.06846</v>
+        <v>0.00604</v>
       </c>
       <c r="G2">
-        <v>0.05795</v>
+        <v>0.00669</v>
       </c>
       <c r="H2">
-        <v>0.10169</v>
+        <v>0.02518</v>
       </c>
       <c r="I2">
-        <v>0.06079</v>
+        <v>0.00424</v>
       </c>
       <c r="J2">
-        <v>0.07268</v>
+        <v>0.00213</v>
       </c>
       <c r="K2">
-        <v>0.00989</v>
+        <v>0.01563</v>
       </c>
       <c r="L2">
-        <v>0.00604</v>
+        <v>0.00298</v>
       </c>
       <c r="M2">
-        <v>0.05437</v>
+        <v>0.00317</v>
       </c>
       <c r="N2">
-        <v>0.00669</v>
+        <v>0.00363</v>
       </c>
       <c r="O2">
-        <v>0.02518</v>
+        <v>0.00028</v>
       </c>
       <c r="P2">
-        <v>0.08519</v>
+        <v>0.03162</v>
       </c>
       <c r="Q2">
-        <v>0.03349</v>
+        <v>0.03224</v>
       </c>
       <c r="R2">
-        <v>0.01196</v>
+        <v>0.0027</v>
       </c>
       <c r="S2">
-        <v>0.01365</v>
+        <v>0.00888</v>
       </c>
       <c r="T2">
-        <v>0.00284</v>
+        <v>0.00213</v>
       </c>
       <c r="U2">
-        <v>0.00424</v>
+        <v>0.00712</v>
       </c>
       <c r="V2">
-        <v>0.00066</v>
+        <v>0.00517</v>
       </c>
       <c r="W2">
-        <v>0.00213</v>
+        <v>0.00196</v>
       </c>
       <c r="X2">
-        <v>0.03504</v>
+        <v>0.005</v>
       </c>
       <c r="Y2">
-        <v>0.01257</v>
+        <v>0.00442</v>
       </c>
       <c r="Z2">
-        <v>0.00221</v>
+        <v>0.00287</v>
       </c>
       <c r="AA2">
-        <v>0.00117</v>
+        <v>0.00236</v>
       </c>
       <c r="AB2">
-        <v>0.01563</v>
+        <v>0.00037</v>
       </c>
       <c r="AC2">
-        <v>0.00298</v>
+        <v>0.00049</v>
       </c>
       <c r="AD2">
-        <v>0.00385</v>
+        <v>0.0018</v>
       </c>
       <c r="AE2">
-        <v>0.00317</v>
+        <v>0.0053</v>
       </c>
       <c r="AF2">
-        <v>0.00111</v>
+        <v>0.0093</v>
       </c>
       <c r="AG2">
-        <v>0.01556</v>
+        <v>0.00254</v>
       </c>
       <c r="AH2">
-        <v>0.0034</v>
+        <v>0.00141</v>
       </c>
       <c r="AI2">
-        <v>0.006</v>
+        <v>0.00291</v>
       </c>
       <c r="AJ2">
-        <v>0.00363</v>
+        <v>0.01218</v>
       </c>
       <c r="AK2">
-        <v>0.00028</v>
+        <v>0.00963</v>
       </c>
       <c r="AL2">
-        <v>0.03162</v>
+        <v>0.00341</v>
       </c>
       <c r="AM2">
-        <v>0.03224</v>
+        <v>0.01131</v>
       </c>
       <c r="AN2">
-        <v>0.04063</v>
+        <v>0.00041</v>
       </c>
       <c r="AO2">
-        <v>0.0027</v>
+        <v>0.00118</v>
       </c>
       <c r="AP2">
-        <v>0.00888</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.02008</v>
+        <v>0.00061</v>
       </c>
       <c r="AR2">
-        <v>0.00213</v>
+        <v>0.00075</v>
       </c>
       <c r="AS2">
-        <v>0.00712</v>
+        <v>0.00041</v>
       </c>
       <c r="AT2">
-        <v>0.02026</v>
+        <v>0.00019</v>
       </c>
       <c r="AU2">
-        <v>0.00284</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.00517</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.00196</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.00442</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.00287</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.00369</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.00236</v>
-      </c>
-      <c r="BD2">
-        <v>0.00341</v>
-      </c>
-      <c r="BE2">
-        <v>0.00037</v>
-      </c>
-      <c r="BF2">
-        <v>0.00049</v>
-      </c>
-      <c r="BG2">
-        <v>0.0018</v>
-      </c>
-      <c r="BH2">
-        <v>0.0053</v>
-      </c>
-      <c r="BI2">
-        <v>0.04436</v>
-      </c>
-      <c r="BJ2">
-        <v>0.01915</v>
-      </c>
-      <c r="BK2">
-        <v>0.0093</v>
-      </c>
-      <c r="BL2">
-        <v>0.03745</v>
-      </c>
-      <c r="BM2">
-        <v>0.00254</v>
-      </c>
-      <c r="BN2">
-        <v>0.00141</v>
-      </c>
-      <c r="BO2">
-        <v>0.00794</v>
-      </c>
-      <c r="BP2">
-        <v>0.00755</v>
-      </c>
-      <c r="BQ2">
-        <v>0.01218</v>
-      </c>
-      <c r="BR2">
-        <v>0.00963</v>
-      </c>
-      <c r="BS2">
-        <v>0.00341</v>
-      </c>
-      <c r="BT2">
-        <v>0.01547</v>
-      </c>
-      <c r="BU2">
-        <v>0.00467</v>
-      </c>
-      <c r="BV2">
-        <v>0.01131</v>
-      </c>
-      <c r="BW2">
-        <v>0.0065</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0.00368</v>
-      </c>
-      <c r="BZ2">
-        <v>0.00671</v>
-      </c>
-      <c r="CA2">
-        <v>0.00118</v>
-      </c>
-      <c r="CB2">
-        <v>0.00117</v>
-      </c>
-      <c r="CC2">
-        <v>0.00887</v>
-      </c>
-      <c r="CD2">
-        <v>0.00061</v>
-      </c>
-      <c r="CE2">
-        <v>0.00075</v>
-      </c>
-      <c r="CF2">
-        <v>0.00029</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0.00019</v>
-      </c>
-      <c r="CK2">
-        <v>0.00116</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0.00148</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0.00112</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0.00694</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0.00055</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0.00319</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0.00083</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0.00028</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0.00054</v>
-      </c>
-      <c r="DH2">
-        <v>0</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DL2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DP2">
-        <v>0.00027</v>
-      </c>
-      <c r="DQ2">
-        <v>0.00059</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:123">
+    <row r="3" spans="1:55">
       <c r="A3" s="1" t="s">
         <v>773</v>
       </c>
@@ -38315,370 +37907,166 @@
         <v>0.0619</v>
       </c>
       <c r="C3">
-        <v>0.01183</v>
+        <v>0.02658</v>
       </c>
       <c r="D3">
-        <v>0.01749</v>
+        <v>0.04228</v>
       </c>
       <c r="E3">
-        <v>0.01433</v>
+        <v>0.00647</v>
       </c>
       <c r="F3">
-        <v>0.02658</v>
+        <v>0.00495</v>
       </c>
       <c r="G3">
-        <v>0.02891</v>
+        <v>0.00268</v>
       </c>
       <c r="H3">
-        <v>0.01117</v>
+        <v>0.00685</v>
       </c>
       <c r="I3">
-        <v>0.04228</v>
+        <v>0.00723</v>
       </c>
       <c r="J3">
-        <v>0.04813</v>
+        <v>0.00138</v>
       </c>
       <c r="K3">
-        <v>0.00647</v>
+        <v>0.00127</v>
       </c>
       <c r="L3">
-        <v>0.00495</v>
+        <v>0.01315</v>
       </c>
       <c r="M3">
-        <v>0.03416</v>
+        <v>0.00248</v>
       </c>
       <c r="N3">
-        <v>0.00268</v>
+        <v>0.01665</v>
       </c>
       <c r="O3">
-        <v>0.00685</v>
+        <v>0.00069</v>
       </c>
       <c r="P3">
-        <v>0.04881</v>
+        <v>0.00266</v>
       </c>
       <c r="Q3">
-        <v>0.00257</v>
+        <v>0.02832</v>
       </c>
       <c r="R3">
-        <v>0.00582</v>
+        <v>0.00338</v>
       </c>
       <c r="S3">
-        <v>0.00149</v>
+        <v>0.00059</v>
       </c>
       <c r="T3">
-        <v>0.0016</v>
+        <v>0.00389</v>
       </c>
       <c r="U3">
-        <v>0.00723</v>
+        <v>0.00337</v>
       </c>
       <c r="V3">
-        <v>0.00164</v>
+        <v>0.00245</v>
       </c>
       <c r="W3">
-        <v>0.00138</v>
+        <v>0.0011</v>
       </c>
       <c r="X3">
-        <v>0.02197</v>
+        <v>0.0093</v>
       </c>
       <c r="Y3">
-        <v>0.01125</v>
+        <v>0.00086</v>
       </c>
       <c r="Z3">
-        <v>0.00233</v>
+        <v>0.00215</v>
       </c>
       <c r="AA3">
-        <v>0.0012</v>
+        <v>0.00287</v>
       </c>
       <c r="AB3">
-        <v>0.00127</v>
+        <v>0.00049</v>
       </c>
       <c r="AC3">
-        <v>0.01315</v>
+        <v>0.02068</v>
       </c>
       <c r="AD3">
-        <v>0.01112</v>
+        <v>0.00316</v>
       </c>
       <c r="AE3">
-        <v>0.00248</v>
+        <v>0.00662</v>
       </c>
       <c r="AF3">
-        <v>0.0009</v>
+        <v>0.00156</v>
       </c>
       <c r="AG3">
-        <v>0.01034</v>
+        <v>0.00086</v>
       </c>
       <c r="AH3">
-        <v>0.00631</v>
+        <v>0.00214</v>
       </c>
       <c r="AI3">
-        <v>0.00146</v>
+        <v>0.00106</v>
       </c>
       <c r="AJ3">
-        <v>0.01665</v>
+        <v>0.00037</v>
       </c>
       <c r="AK3">
-        <v>0.00069</v>
+        <v>0.00124</v>
       </c>
       <c r="AL3">
-        <v>0.00266</v>
+        <v>0.00092</v>
       </c>
       <c r="AM3">
-        <v>0.02832</v>
+        <v>0.00019</v>
       </c>
       <c r="AN3">
-        <v>0.0015</v>
+        <v>0.00173</v>
       </c>
       <c r="AO3">
-        <v>0.00338</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00059</v>
+        <v>0.00501</v>
       </c>
       <c r="AQ3">
-        <v>0.00395</v>
+        <v>0.00261</v>
       </c>
       <c r="AR3">
-        <v>0.00389</v>
+        <v>0.00091</v>
       </c>
       <c r="AS3">
-        <v>0.00337</v>
+        <v>0.00074</v>
       </c>
       <c r="AT3">
-        <v>0.00695</v>
+        <v>0.00012</v>
       </c>
       <c r="AU3">
-        <v>0.01489</v>
+        <v>0.00018</v>
       </c>
       <c r="AV3">
-        <v>0.00245</v>
+        <v>0.00028</v>
       </c>
       <c r="AW3">
-        <v>0.00034</v>
+        <v>0.00068</v>
       </c>
       <c r="AX3">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0093</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.00086</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.00059</v>
+        <v>0.00022</v>
       </c>
       <c r="BC3">
-        <v>0.00287</v>
-      </c>
-      <c r="BD3">
-        <v>0.00346</v>
-      </c>
-      <c r="BE3">
-        <v>0.00049</v>
-      </c>
-      <c r="BF3">
-        <v>0.02068</v>
-      </c>
-      <c r="BG3">
-        <v>0.00316</v>
-      </c>
-      <c r="BH3">
-        <v>0.00662</v>
-      </c>
-      <c r="BI3">
-        <v>0.00722</v>
-      </c>
-      <c r="BJ3">
-        <v>0.00189</v>
-      </c>
-      <c r="BK3">
-        <v>0.00156</v>
-      </c>
-      <c r="BL3">
-        <v>0.0015</v>
-      </c>
-      <c r="BM3">
-        <v>0.00086</v>
-      </c>
-      <c r="BN3">
-        <v>0.00214</v>
-      </c>
-      <c r="BO3">
-        <v>0.00577</v>
-      </c>
-      <c r="BP3">
-        <v>0.00394</v>
-      </c>
-      <c r="BQ3">
-        <v>0.00037</v>
-      </c>
-      <c r="BR3">
-        <v>0.00124</v>
-      </c>
-      <c r="BS3">
-        <v>0.00092</v>
-      </c>
-      <c r="BT3">
-        <v>0.00134</v>
-      </c>
-      <c r="BU3">
-        <v>0.00062</v>
-      </c>
-      <c r="BV3">
-        <v>0.00019</v>
-      </c>
-      <c r="BW3">
-        <v>0.0009</v>
-      </c>
-      <c r="BX3">
-        <v>0.00139</v>
-      </c>
-      <c r="BY3">
-        <v>0.00069</v>
-      </c>
-      <c r="BZ3">
-        <v>0.00659</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0.00036</v>
-      </c>
-      <c r="CC3">
-        <v>0.0006</v>
-      </c>
-      <c r="CD3">
-        <v>0.00261</v>
-      </c>
-      <c r="CE3">
-        <v>0.00091</v>
-      </c>
-      <c r="CF3">
-        <v>0.00156</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0.00034</v>
-      </c>
-      <c r="CI3">
-        <v>0.00026</v>
-      </c>
-      <c r="CJ3">
         <v>0.00012</v>
       </c>
-      <c r="CK3">
-        <v>0.00012</v>
-      </c>
-      <c r="CL3">
-        <v>0.00018</v>
-      </c>
-      <c r="CM3">
-        <v>0.0018</v>
-      </c>
-      <c r="CN3">
-        <v>0.00113</v>
-      </c>
-      <c r="CO3">
-        <v>0.00028</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0.00027</v>
-      </c>
-      <c r="CR3">
-        <v>0.0006</v>
-      </c>
-      <c r="CS3">
-        <v>0.00109</v>
-      </c>
-      <c r="CT3">
-        <v>0.00045</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0.00101</v>
-      </c>
-      <c r="CY3">
-        <v>0.00068</v>
-      </c>
-      <c r="CZ3">
-        <v>0.00075</v>
-      </c>
-      <c r="DA3">
-        <v>0.00022</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0.00017</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>0.00017</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0.00025</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3">
-        <v>0</v>
-      </c>
-      <c r="DR3">
-        <v>0.00022</v>
-      </c>
-      <c r="DS3">
-        <v>0.00012</v>
-      </c>
     </row>
-    <row r="4" spans="1:123">
+    <row r="4" spans="1:55">
       <c r="A4" s="1" t="s">
         <v>774</v>
       </c>
@@ -38686,370 +38074,166 @@
         <v>0.03957</v>
       </c>
       <c r="C4">
-        <v>0.01391</v>
+        <v>0.01542</v>
       </c>
       <c r="D4">
-        <v>0.01166</v>
+        <v>0.06078</v>
       </c>
       <c r="E4">
-        <v>0.03613</v>
+        <v>0.00587</v>
       </c>
       <c r="F4">
-        <v>0.01542</v>
+        <v>0.00388</v>
       </c>
       <c r="G4">
-        <v>0.01678</v>
+        <v>0.00447</v>
       </c>
       <c r="H4">
-        <v>0.00782</v>
+        <v>0.0063</v>
       </c>
       <c r="I4">
-        <v>0.06078</v>
+        <v>0.00368</v>
       </c>
       <c r="J4">
-        <v>0.02375</v>
+        <v>0.00076</v>
       </c>
       <c r="K4">
-        <v>0.00587</v>
+        <v>0.00464</v>
       </c>
       <c r="L4">
-        <v>0.00388</v>
+        <v>0.00407</v>
       </c>
       <c r="M4">
-        <v>0.01805</v>
+        <v>0.00124</v>
       </c>
       <c r="N4">
-        <v>0.00447</v>
+        <v>0.00375</v>
       </c>
       <c r="O4">
-        <v>0.0063</v>
+        <v>0.00284</v>
       </c>
       <c r="P4">
-        <v>0.03039</v>
+        <v>0.00475</v>
       </c>
       <c r="Q4">
-        <v>0.00487</v>
+        <v>0.00361</v>
       </c>
       <c r="R4">
-        <v>0.01607</v>
+        <v>0.0008</v>
       </c>
       <c r="S4">
-        <v>0.00268</v>
+        <v>0.00041</v>
       </c>
       <c r="T4">
-        <v>0.00275</v>
+        <v>0.0025</v>
       </c>
       <c r="U4">
-        <v>0.00368</v>
+        <v>0.00149</v>
       </c>
       <c r="V4">
-        <v>0.00552</v>
+        <v>0.00096</v>
       </c>
       <c r="W4">
-        <v>0.00076</v>
+        <v>0.00063</v>
       </c>
       <c r="X4">
-        <v>0.00882</v>
+        <v>0.00148</v>
       </c>
       <c r="Y4">
-        <v>0.01612</v>
+        <v>0.00135</v>
       </c>
       <c r="Z4">
-        <v>0.00322</v>
+        <v>0.00277</v>
       </c>
       <c r="AA4">
-        <v>0.00345</v>
+        <v>0.00831</v>
       </c>
       <c r="AB4">
-        <v>0.00464</v>
+        <v>0.00092</v>
       </c>
       <c r="AC4">
-        <v>0.00407</v>
+        <v>0.00414</v>
       </c>
       <c r="AD4">
-        <v>0.00533</v>
+        <v>0.00208</v>
       </c>
       <c r="AE4">
-        <v>0.00124</v>
+        <v>0.00173</v>
       </c>
       <c r="AF4">
-        <v>0.00217</v>
+        <v>0.00281</v>
       </c>
       <c r="AG4">
-        <v>0.00698</v>
+        <v>0.00047</v>
       </c>
       <c r="AH4">
-        <v>0.00301</v>
+        <v>0.0003</v>
       </c>
       <c r="AI4">
-        <v>0.00453</v>
+        <v>0.00293</v>
       </c>
       <c r="AJ4">
-        <v>0.00375</v>
+        <v>0.00068</v>
       </c>
       <c r="AK4">
-        <v>0.00284</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.00475</v>
+        <v>0.00032</v>
       </c>
       <c r="AM4">
-        <v>0.00361</v>
+        <v>0.00026</v>
       </c>
       <c r="AN4">
-        <v>0.00089</v>
+        <v>0.0017</v>
       </c>
       <c r="AO4">
-        <v>0.0008</v>
+        <v>0.00014</v>
       </c>
       <c r="AP4">
-        <v>0.00041</v>
+        <v>0.00138</v>
       </c>
       <c r="AQ4">
-        <v>0.00099</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00149</v>
+        <v>0.00051</v>
       </c>
       <c r="AT4">
-        <v>0.00216</v>
+        <v>0.00048</v>
       </c>
       <c r="AU4">
-        <v>0.00566</v>
+        <v>0.00293</v>
       </c>
       <c r="AV4">
-        <v>0.00096</v>
+        <v>0.00019</v>
       </c>
       <c r="AW4">
-        <v>0.00142</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00063</v>
+        <v>0.00017</v>
       </c>
       <c r="AY4">
-        <v>0.00148</v>
+        <v>0.00013</v>
       </c>
       <c r="AZ4">
-        <v>0.00135</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00277</v>
+        <v>0.00049</v>
       </c>
       <c r="BB4">
-        <v>0.00162</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.00831</v>
-      </c>
-      <c r="BD4">
-        <v>0.00334</v>
-      </c>
-      <c r="BE4">
-        <v>0.00092</v>
-      </c>
-      <c r="BF4">
-        <v>0.00414</v>
-      </c>
-      <c r="BG4">
-        <v>0.00208</v>
-      </c>
-      <c r="BH4">
-        <v>0.00173</v>
-      </c>
-      <c r="BI4">
-        <v>0.00043</v>
-      </c>
-      <c r="BJ4">
-        <v>0.00174</v>
-      </c>
-      <c r="BK4">
-        <v>0.00281</v>
-      </c>
-      <c r="BL4">
-        <v>0.00041</v>
-      </c>
-      <c r="BM4">
-        <v>0.00047</v>
-      </c>
-      <c r="BN4">
-        <v>0.0003</v>
-      </c>
-      <c r="BO4">
-        <v>0.00129</v>
-      </c>
-      <c r="BP4">
-        <v>0.00158</v>
-      </c>
-      <c r="BQ4">
-        <v>0.00068</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0.00032</v>
-      </c>
-      <c r="BT4">
-        <v>0.00031</v>
-      </c>
-      <c r="BU4">
-        <v>0.00102</v>
-      </c>
-      <c r="BV4">
-        <v>0.00026</v>
-      </c>
-      <c r="BW4">
-        <v>0.00025</v>
-      </c>
-      <c r="BX4">
-        <v>0.00064</v>
-      </c>
-      <c r="BY4">
-        <v>0.00119</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0.00014</v>
-      </c>
-      <c r="CB4">
-        <v>0.00196</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0.00096</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0.00144</v>
-      </c>
-      <c r="CJ4">
-        <v>0.00048</v>
-      </c>
-      <c r="CK4">
-        <v>0.00065</v>
-      </c>
-      <c r="CL4">
-        <v>0.00293</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0.00022</v>
-      </c>
-      <c r="CO4">
-        <v>0.00019</v>
-      </c>
-      <c r="CP4">
-        <v>0.00024</v>
-      </c>
-      <c r="CQ4">
-        <v>0.0005</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0.0005</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0.0003</v>
-      </c>
-      <c r="DB4">
-        <v>0.00017</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DD4">
-        <v>0.00022</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DF4">
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DH4">
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <v>0.00013</v>
-      </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DL4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0.00017</v>
-      </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0.00049</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
-      <c r="DR4">
-        <v>0</v>
-      </c>
-      <c r="DS4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:123">
+    <row r="5" spans="1:55">
       <c r="A5" s="1" t="s">
         <v>775</v>
       </c>
@@ -39057,370 +38241,166 @@
         <v>0.00861</v>
       </c>
       <c r="C5">
-        <v>0.01156</v>
+        <v>0.01742</v>
       </c>
       <c r="D5">
-        <v>0.0106</v>
+        <v>0.00459</v>
       </c>
       <c r="E5">
-        <v>0.0209</v>
+        <v>0.00502</v>
       </c>
       <c r="F5">
-        <v>0.01742</v>
+        <v>0.00532</v>
       </c>
       <c r="G5">
-        <v>0.01751</v>
+        <v>0.00633</v>
       </c>
       <c r="H5">
-        <v>0.00014</v>
+        <v>0.00277</v>
       </c>
       <c r="I5">
-        <v>0.00459</v>
+        <v>0.00524</v>
       </c>
       <c r="J5">
-        <v>0.00704</v>
+        <v>0.00099</v>
       </c>
       <c r="K5">
-        <v>0.00502</v>
+        <v>0.00342</v>
       </c>
       <c r="L5">
-        <v>0.00532</v>
+        <v>0.00416</v>
       </c>
       <c r="M5">
-        <v>0.00878</v>
+        <v>0.00136</v>
       </c>
       <c r="N5">
-        <v>0.00633</v>
+        <v>0.0108</v>
       </c>
       <c r="O5">
-        <v>0.00277</v>
+        <v>0.01922</v>
       </c>
       <c r="P5">
-        <v>0.00134</v>
+        <v>0.00084</v>
       </c>
       <c r="Q5">
-        <v>0.00013</v>
+        <v>0.01287</v>
       </c>
       <c r="R5">
-        <v>0.00988</v>
+        <v>0.00199</v>
       </c>
       <c r="S5">
-        <v>0.00351</v>
+        <v>0.00079</v>
       </c>
       <c r="T5">
-        <v>0.00639</v>
+        <v>0.00267</v>
       </c>
       <c r="U5">
-        <v>0.00524</v>
+        <v>0.00075</v>
       </c>
       <c r="V5">
-        <v>0.00422</v>
+        <v>0.00052</v>
       </c>
       <c r="W5">
-        <v>0.00099</v>
+        <v>0.00173</v>
       </c>
       <c r="X5">
+        <v>0.00032</v>
+      </c>
+      <c r="Y5">
+        <v>0.00197</v>
+      </c>
+      <c r="Z5">
         <v>0.00132</v>
       </c>
-      <c r="Y5">
-        <v>0.00988</v>
-      </c>
-      <c r="Z5">
-        <v>0.00269</v>
-      </c>
       <c r="AA5">
-        <v>0.00375</v>
+        <v>0.00128</v>
       </c>
       <c r="AB5">
-        <v>0.00342</v>
+        <v>0.00176</v>
       </c>
       <c r="AC5">
-        <v>0.00416</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00346</v>
+        <v>0.00209</v>
       </c>
       <c r="AE5">
-        <v>0.00136</v>
+        <v>0.00048</v>
       </c>
       <c r="AF5">
-        <v>0.00242</v>
+        <v>0.00649</v>
       </c>
       <c r="AG5">
-        <v>0.00136</v>
+        <v>0.00231</v>
       </c>
       <c r="AH5">
-        <v>0.00503</v>
+        <v>0.00191</v>
       </c>
       <c r="AI5">
-        <v>0.00686</v>
+        <v>0.00507</v>
       </c>
       <c r="AJ5">
-        <v>0.0108</v>
+        <v>0.00022</v>
       </c>
       <c r="AK5">
-        <v>0.01922</v>
+        <v>0.00191</v>
       </c>
       <c r="AL5">
-        <v>0.00084</v>
+        <v>0.00083</v>
       </c>
       <c r="AM5">
-        <v>0.01287</v>
+        <v>0.00017</v>
       </c>
       <c r="AN5">
-        <v>0.00038</v>
+        <v>0.00011</v>
       </c>
       <c r="AO5">
-        <v>0.00199</v>
+        <v>0.00028</v>
       </c>
       <c r="AP5">
-        <v>0.00079</v>
+        <v>0.0006</v>
       </c>
       <c r="AQ5">
-        <v>0.00595</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00267</v>
+        <v>0.00102</v>
       </c>
       <c r="AS5">
+        <v>0.00011</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>0.00075</v>
       </c>
-      <c r="AT5">
-        <v>0.0008</v>
-      </c>
-      <c r="AU5">
-        <v>0.00058</v>
-      </c>
-      <c r="AV5">
-        <v>0.00052</v>
-      </c>
       <c r="AW5">
-        <v>0.01506</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00173</v>
+        <v>0.00022</v>
       </c>
       <c r="AY5">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.00197</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.00132</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00376</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.00128</v>
-      </c>
-      <c r="BD5">
-        <v>0.00031</v>
-      </c>
-      <c r="BE5">
-        <v>0.00176</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0.00209</v>
-      </c>
-      <c r="BH5">
-        <v>0.00048</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0.00649</v>
-      </c>
-      <c r="BL5">
-        <v>0.00027</v>
-      </c>
-      <c r="BM5">
-        <v>0.00231</v>
-      </c>
-      <c r="BN5">
-        <v>0.00191</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0.00029</v>
-      </c>
-      <c r="BQ5">
-        <v>0.00022</v>
-      </c>
-      <c r="BR5">
-        <v>0.00191</v>
-      </c>
-      <c r="BS5">
-        <v>0.00083</v>
-      </c>
-      <c r="BT5">
-        <v>0.0004</v>
-      </c>
-      <c r="BU5">
-        <v>0.00033</v>
-      </c>
-      <c r="BV5">
-        <v>0.00017</v>
-      </c>
-      <c r="BW5">
-        <v>0.00096</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0.00015</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0.00028</v>
-      </c>
-      <c r="CB5">
-        <v>0.00143</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0.00102</v>
-      </c>
-      <c r="CF5">
-        <v>0.00047</v>
-      </c>
-      <c r="CG5">
-        <v>0.00179</v>
-      </c>
-      <c r="CH5">
-        <v>0.00215</v>
-      </c>
-      <c r="CI5">
-        <v>0.0007</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0.00053</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0.00075</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0.00016</v>
-      </c>
-      <c r="CR5">
-        <v>0.00054</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0.00043</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5">
-        <v>0.00022</v>
-      </c>
-      <c r="DC5">
-        <v>0.00015</v>
-      </c>
-      <c r="DD5">
-        <v>0.00014</v>
-      </c>
-      <c r="DE5">
-        <v>0.00016</v>
-      </c>
-      <c r="DF5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DH5">
-        <v>0.00016</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DJ5">
-        <v>0.00017</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DL5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DN5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DP5">
-        <v>0</v>
-      </c>
-      <c r="DQ5">
-        <v>0</v>
-      </c>
-      <c r="DR5">
-        <v>0</v>
-      </c>
-      <c r="DS5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:123">
+    <row r="6" spans="1:55">
       <c r="A6" s="1" t="s">
         <v>776</v>
       </c>
@@ -39428,370 +38408,166 @@
         <v>0.09111</v>
       </c>
       <c r="C6">
-        <v>0.01076</v>
+        <v>0.02472</v>
       </c>
       <c r="D6">
-        <v>0.01306</v>
+        <v>0.01537</v>
       </c>
       <c r="E6">
-        <v>0.0421</v>
+        <v>0.00501</v>
       </c>
       <c r="F6">
-        <v>0.02472</v>
+        <v>0.00754</v>
       </c>
       <c r="G6">
-        <v>0.02663</v>
+        <v>0.0039</v>
       </c>
       <c r="H6">
-        <v>0.043</v>
+        <v>0.00844</v>
       </c>
       <c r="I6">
-        <v>0.01537</v>
+        <v>0.00737</v>
       </c>
       <c r="J6">
-        <v>0.0427</v>
+        <v>0.0052</v>
       </c>
       <c r="K6">
-        <v>0.00501</v>
+        <v>0.00905</v>
       </c>
       <c r="L6">
-        <v>0.00754</v>
+        <v>0.00942</v>
       </c>
       <c r="M6">
-        <v>0.02928</v>
+        <v>0.00564</v>
       </c>
       <c r="N6">
-        <v>0.0039</v>
+        <v>0.00364</v>
       </c>
       <c r="O6">
-        <v>0.00844</v>
+        <v>0.00043</v>
       </c>
       <c r="P6">
-        <v>0.03814</v>
+        <v>0.00394</v>
       </c>
       <c r="Q6">
-        <v>0.01398</v>
+        <v>0.00823</v>
       </c>
       <c r="R6">
-        <v>0.04169</v>
+        <v>0.00595</v>
       </c>
       <c r="S6">
-        <v>0.0054</v>
+        <v>0.00693</v>
       </c>
       <c r="T6">
-        <v>0.00268</v>
+        <v>0.00784</v>
       </c>
       <c r="U6">
-        <v>0.00737</v>
+        <v>0.01576</v>
       </c>
       <c r="V6">
-        <v>0.0028</v>
+        <v>0.01379</v>
       </c>
       <c r="W6">
-        <v>0.0052</v>
+        <v>0.00417</v>
       </c>
       <c r="X6">
-        <v>0.00846</v>
+        <v>0.01014</v>
       </c>
       <c r="Y6">
-        <v>0.01603</v>
+        <v>0.00554</v>
       </c>
       <c r="Z6">
-        <v>0.00153</v>
+        <v>0.00574</v>
       </c>
       <c r="AA6">
-        <v>0.00253</v>
+        <v>0.0112</v>
       </c>
       <c r="AB6">
-        <v>0.00905</v>
+        <v>0.00073</v>
       </c>
       <c r="AC6">
-        <v>0.00942</v>
+        <v>0.00057</v>
       </c>
       <c r="AD6">
-        <v>0.00825</v>
+        <v>0.00587</v>
       </c>
       <c r="AE6">
-        <v>0.00564</v>
+        <v>0.01059</v>
       </c>
       <c r="AF6">
-        <v>0.00244</v>
+        <v>0.00339</v>
       </c>
       <c r="AG6">
-        <v>0.00809</v>
+        <v>0.00562</v>
       </c>
       <c r="AH6">
-        <v>0.00708</v>
+        <v>0.00593</v>
       </c>
       <c r="AI6">
-        <v>0.00597</v>
+        <v>0.00067</v>
       </c>
       <c r="AJ6">
-        <v>0.00364</v>
+        <v>0.00062</v>
       </c>
       <c r="AK6">
+        <v>0.00201</v>
+      </c>
+      <c r="AL6">
+        <v>0.00581</v>
+      </c>
+      <c r="AM6">
+        <v>0.00117</v>
+      </c>
+      <c r="AN6">
+        <v>0.00078</v>
+      </c>
+      <c r="AO6">
+        <v>0.00116</v>
+      </c>
+      <c r="AP6">
+        <v>0.00126</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0.00143</v>
+      </c>
+      <c r="AS6">
+        <v>0.00062</v>
+      </c>
+      <c r="AT6">
+        <v>0.00072</v>
+      </c>
+      <c r="AU6">
+        <v>0.00022</v>
+      </c>
+      <c r="AV6">
+        <v>0.00035</v>
+      </c>
+      <c r="AW6">
         <v>0.00043</v>
       </c>
-      <c r="AL6">
-        <v>0.00394</v>
-      </c>
-      <c r="AM6">
-        <v>0.00823</v>
-      </c>
-      <c r="AN6">
-        <v>0.01136</v>
-      </c>
-      <c r="AO6">
-        <v>0.00595</v>
-      </c>
-      <c r="AP6">
-        <v>0.00693</v>
-      </c>
-      <c r="AQ6">
-        <v>0.00475</v>
-      </c>
-      <c r="AR6">
-        <v>0.00784</v>
-      </c>
-      <c r="AS6">
-        <v>0.01576</v>
-      </c>
-      <c r="AT6">
-        <v>0.01637</v>
-      </c>
-      <c r="AU6">
-        <v>0.00299</v>
-      </c>
-      <c r="AV6">
-        <v>0.01379</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
       <c r="AX6">
-        <v>0.00417</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01014</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.00554</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.00574</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.00148</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0112</v>
-      </c>
-      <c r="BD6">
-        <v>0.00189</v>
-      </c>
-      <c r="BE6">
-        <v>0.00073</v>
-      </c>
-      <c r="BF6">
-        <v>0.00057</v>
-      </c>
-      <c r="BG6">
-        <v>0.00587</v>
-      </c>
-      <c r="BH6">
-        <v>0.01059</v>
-      </c>
-      <c r="BI6">
-        <v>0.00158</v>
-      </c>
-      <c r="BJ6">
-        <v>0.00238</v>
-      </c>
-      <c r="BK6">
-        <v>0.00339</v>
-      </c>
-      <c r="BL6">
-        <v>0.00679</v>
-      </c>
-      <c r="BM6">
-        <v>0.00562</v>
-      </c>
-      <c r="BN6">
-        <v>0.00593</v>
-      </c>
-      <c r="BO6">
-        <v>0.00275</v>
-      </c>
-      <c r="BP6">
-        <v>0.00248</v>
-      </c>
-      <c r="BQ6">
-        <v>0.00062</v>
-      </c>
-      <c r="BR6">
-        <v>0.00201</v>
-      </c>
-      <c r="BS6">
-        <v>0.00581</v>
-      </c>
-      <c r="BT6">
-        <v>0.00198</v>
-      </c>
-      <c r="BU6">
-        <v>0.00109</v>
-      </c>
-      <c r="BV6">
-        <v>0.00117</v>
-      </c>
-      <c r="BW6">
-        <v>0.00068</v>
-      </c>
-      <c r="BX6">
-        <v>0.00136</v>
-      </c>
-      <c r="BY6">
-        <v>0.00087</v>
-      </c>
-      <c r="BZ6">
-        <v>0.00158</v>
-      </c>
-      <c r="CA6">
-        <v>0.00116</v>
-      </c>
-      <c r="CB6">
-        <v>0.00089</v>
-      </c>
-      <c r="CC6">
-        <v>0.00151</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0.00143</v>
-      </c>
-      <c r="CF6">
-        <v>0.00087</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0.00198</v>
-      </c>
-      <c r="CJ6">
-        <v>0.00072</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0.00022</v>
-      </c>
-      <c r="CM6">
-        <v>0.00151</v>
-      </c>
-      <c r="CN6">
-        <v>0.00061</v>
-      </c>
-      <c r="CO6">
-        <v>0.00035</v>
-      </c>
-      <c r="CP6">
-        <v>0.00129</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0.00076</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0.00028</v>
-      </c>
-      <c r="CU6">
-        <v>0.00023</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0.00046</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0.00043</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DD6">
-        <v>0.0002</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
-      <c r="DF6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
-      <c r="DH6">
-        <v>0</v>
-      </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
-      <c r="DJ6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DL6">
-        <v>0.00022</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6">
-        <v>0</v>
-      </c>
-      <c r="DR6">
-        <v>0</v>
-      </c>
-      <c r="DS6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:123">
+    <row r="7" spans="1:55">
       <c r="A7" s="1" t="s">
         <v>777</v>
       </c>
@@ -39799,370 +38575,166 @@
         <v>0.05243</v>
       </c>
       <c r="C7">
-        <v>0.01062</v>
+        <v>0.03274</v>
       </c>
       <c r="D7">
-        <v>0.00599</v>
+        <v>0.02561</v>
       </c>
       <c r="E7">
-        <v>0.02015</v>
+        <v>0.00429</v>
       </c>
       <c r="F7">
-        <v>0.03274</v>
+        <v>0.00372</v>
       </c>
       <c r="G7">
-        <v>0.03074</v>
+        <v>0.00148</v>
       </c>
       <c r="H7">
-        <v>0.01288</v>
+        <v>0.00944</v>
       </c>
       <c r="I7">
-        <v>0.02561</v>
+        <v>0.00561</v>
       </c>
       <c r="J7">
-        <v>0.03029</v>
+        <v>0.0014</v>
       </c>
       <c r="K7">
-        <v>0.00429</v>
+        <v>0.00165</v>
       </c>
       <c r="L7">
-        <v>0.00372</v>
+        <v>0.00175</v>
       </c>
       <c r="M7">
-        <v>0.01811</v>
+        <v>0.00172</v>
       </c>
       <c r="N7">
-        <v>0.00148</v>
+        <v>0.01532</v>
       </c>
       <c r="O7">
-        <v>0.00944</v>
+        <v>0.0002</v>
       </c>
       <c r="P7">
-        <v>0.03237</v>
+        <v>0.0013</v>
       </c>
       <c r="Q7">
-        <v>0.00925</v>
+        <v>0.03929</v>
       </c>
       <c r="R7">
-        <v>0.00734</v>
+        <v>0.00286</v>
       </c>
       <c r="S7">
-        <v>0.00203</v>
+        <v>0.00082</v>
       </c>
       <c r="T7">
-        <v>0.00137</v>
+        <v>0.00215</v>
       </c>
       <c r="U7">
-        <v>0.00561</v>
+        <v>0.00157</v>
       </c>
       <c r="V7">
-        <v>0.00127</v>
+        <v>0.00166</v>
       </c>
       <c r="W7">
-        <v>0.0014</v>
+        <v>0.00164</v>
       </c>
       <c r="X7">
-        <v>0.00973</v>
+        <v>0.00764</v>
       </c>
       <c r="Y7">
-        <v>0.01033</v>
+        <v>0.00174</v>
       </c>
       <c r="Z7">
-        <v>0.00213</v>
+        <v>0.00318</v>
       </c>
       <c r="AA7">
-        <v>0.00143</v>
+        <v>0.00545</v>
       </c>
       <c r="AB7">
-        <v>0.00165</v>
+        <v>0.00027</v>
       </c>
       <c r="AC7">
-        <v>0.00175</v>
+        <v>0.00676</v>
       </c>
       <c r="AD7">
-        <v>0.00222</v>
+        <v>0.00244</v>
       </c>
       <c r="AE7">
-        <v>0.00172</v>
+        <v>0.00446</v>
       </c>
       <c r="AF7">
-        <v>0.00085</v>
+        <v>0.00133</v>
       </c>
       <c r="AG7">
-        <v>0.00708</v>
+        <v>0.00204</v>
       </c>
       <c r="AH7">
-        <v>0.00218</v>
+        <v>0.00178</v>
       </c>
       <c r="AI7">
-        <v>0.00216</v>
+        <v>0.00231</v>
       </c>
       <c r="AJ7">
-        <v>0.01532</v>
+        <v>0.00015</v>
       </c>
       <c r="AK7">
-        <v>0.0002</v>
+        <v>0.00316</v>
       </c>
       <c r="AL7">
-        <v>0.0013</v>
+        <v>0.00219</v>
       </c>
       <c r="AM7">
-        <v>0.03929</v>
+        <v>0.00022</v>
       </c>
       <c r="AN7">
-        <v>0.01963</v>
+        <v>0.00015</v>
       </c>
       <c r="AO7">
-        <v>0.00286</v>
+        <v>0.00049</v>
       </c>
       <c r="AP7">
-        <v>0.00082</v>
+        <v>0.00119</v>
       </c>
       <c r="AQ7">
-        <v>0.00448</v>
+        <v>0.00236</v>
       </c>
       <c r="AR7">
-        <v>0.00215</v>
+        <v>0.00162</v>
       </c>
       <c r="AS7">
-        <v>0.00157</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>0.00771</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.00166</v>
+        <v>0.00016</v>
       </c>
       <c r="AW7">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="AX7">
-        <v>0.00164</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>0.00764</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.00174</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>0.00318</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.00081</v>
+        <v>0.00026</v>
       </c>
       <c r="BC7">
-        <v>0.00545</v>
-      </c>
-      <c r="BD7">
-        <v>0.00698</v>
-      </c>
-      <c r="BE7">
-        <v>0.00027</v>
-      </c>
-      <c r="BF7">
-        <v>0.00676</v>
-      </c>
-      <c r="BG7">
-        <v>0.00244</v>
-      </c>
-      <c r="BH7">
-        <v>0.00446</v>
-      </c>
-      <c r="BI7">
-        <v>0.00558</v>
-      </c>
-      <c r="BJ7">
-        <v>0.00205</v>
-      </c>
-      <c r="BK7">
-        <v>0.00133</v>
-      </c>
-      <c r="BL7">
-        <v>0.00107</v>
-      </c>
-      <c r="BM7">
-        <v>0.00204</v>
-      </c>
-      <c r="BN7">
-        <v>0.00178</v>
-      </c>
-      <c r="BO7">
-        <v>0.00296</v>
-      </c>
-      <c r="BP7">
-        <v>0.00195</v>
-      </c>
-      <c r="BQ7">
         <v>0.00015</v>
       </c>
-      <c r="BR7">
-        <v>0.00316</v>
-      </c>
-      <c r="BS7">
-        <v>0.00219</v>
-      </c>
-      <c r="BT7">
-        <v>0.0016</v>
-      </c>
-      <c r="BU7">
-        <v>0.00029</v>
-      </c>
-      <c r="BV7">
-        <v>0.00022</v>
-      </c>
-      <c r="BW7">
-        <v>0.00085</v>
-      </c>
-      <c r="BX7">
-        <v>0.00367</v>
-      </c>
-      <c r="BY7">
-        <v>0.00164</v>
-      </c>
-      <c r="BZ7">
-        <v>0.00261</v>
-      </c>
-      <c r="CA7">
-        <v>0.00049</v>
-      </c>
-      <c r="CB7">
-        <v>0.00105</v>
-      </c>
-      <c r="CC7">
-        <v>0.00036</v>
-      </c>
-      <c r="CD7">
-        <v>0.00236</v>
-      </c>
-      <c r="CE7">
-        <v>0.00162</v>
-      </c>
-      <c r="CF7">
-        <v>0.00185</v>
-      </c>
-      <c r="CG7">
-        <v>0.00048</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0.00062</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0.00178</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0.00016</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>0.001</v>
-      </c>
-      <c r="CT7">
-        <v>0.00027</v>
-      </c>
-      <c r="CU7">
-        <v>0.00022</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
-        <v>0.00021</v>
-      </c>
-      <c r="CX7">
-        <v>0.00119</v>
-      </c>
-      <c r="CY7">
-        <v>0.0004</v>
-      </c>
-      <c r="CZ7">
-        <v>0.00089</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DB7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
-      <c r="DD7">
-        <v>0</v>
-      </c>
-      <c r="DE7">
-        <v>0</v>
-      </c>
-      <c r="DF7">
-        <v>0</v>
-      </c>
-      <c r="DG7">
-        <v>0</v>
-      </c>
-      <c r="DH7">
-        <v>0.00021</v>
-      </c>
-      <c r="DI7">
-        <v>0</v>
-      </c>
-      <c r="DJ7">
-        <v>0.00022</v>
-      </c>
-      <c r="DK7">
-        <v>0</v>
-      </c>
-      <c r="DL7">
-        <v>0.0002</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
-      <c r="DN7">
-        <v>0.00015</v>
-      </c>
-      <c r="DO7">
-        <v>0</v>
-      </c>
-      <c r="DP7">
-        <v>0</v>
-      </c>
-      <c r="DQ7">
-        <v>0</v>
-      </c>
-      <c r="DR7">
-        <v>0.00026</v>
-      </c>
-      <c r="DS7">
-        <v>0.00015</v>
-      </c>
     </row>
-    <row r="8" spans="1:123">
+    <row r="8" spans="1:55">
       <c r="A8" s="1" t="s">
         <v>778</v>
       </c>
@@ -40170,370 +38742,166 @@
         <v>0.0582</v>
       </c>
       <c r="C8">
-        <v>0.01175</v>
+        <v>0.01606</v>
       </c>
       <c r="D8">
-        <v>0.01211</v>
+        <v>0.01744</v>
       </c>
       <c r="E8">
-        <v>0.05668</v>
+        <v>0.00574</v>
       </c>
       <c r="F8">
-        <v>0.01606</v>
+        <v>0.00772</v>
       </c>
       <c r="G8">
-        <v>0.01651</v>
+        <v>0.00365</v>
       </c>
       <c r="H8">
-        <v>0.032</v>
+        <v>0.00635</v>
       </c>
       <c r="I8">
-        <v>0.01744</v>
+        <v>0.00774</v>
       </c>
       <c r="J8">
-        <v>0.02948</v>
+        <v>0.00431</v>
       </c>
       <c r="K8">
+        <v>0.01414</v>
+      </c>
+      <c r="L8">
+        <v>0.0081</v>
+      </c>
+      <c r="M8">
+        <v>0.0045</v>
+      </c>
+      <c r="N8">
+        <v>0.00188</v>
+      </c>
+      <c r="O8">
+        <v>0.00063</v>
+      </c>
+      <c r="P8">
+        <v>0.00424</v>
+      </c>
+      <c r="Q8">
+        <v>0.01342</v>
+      </c>
+      <c r="R8">
+        <v>0.0057</v>
+      </c>
+      <c r="S8">
+        <v>0.01041</v>
+      </c>
+      <c r="T8">
+        <v>0.00751</v>
+      </c>
+      <c r="U8">
+        <v>0.00519</v>
+      </c>
+      <c r="V8">
         <v>0.00574</v>
       </c>
-      <c r="L8">
-        <v>0.00772</v>
-      </c>
-      <c r="M8">
-        <v>0.02754</v>
-      </c>
-      <c r="N8">
-        <v>0.00365</v>
-      </c>
-      <c r="O8">
+      <c r="W8">
+        <v>0.00476</v>
+      </c>
+      <c r="X8">
+        <v>0.00661</v>
+      </c>
+      <c r="Y8">
+        <v>0.00693</v>
+      </c>
+      <c r="Z8">
+        <v>0.00446</v>
+      </c>
+      <c r="AA8">
+        <v>0.01662</v>
+      </c>
+      <c r="AB8">
+        <v>0.00083</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0.00473</v>
+      </c>
+      <c r="AE8">
+        <v>0.00617</v>
+      </c>
+      <c r="AF8">
+        <v>0.00499</v>
+      </c>
+      <c r="AG8">
         <v>0.00635</v>
       </c>
-      <c r="P8">
-        <v>0.01789</v>
-      </c>
-      <c r="Q8">
-        <v>0.0097</v>
-      </c>
-      <c r="R8">
-        <v>0.01973</v>
-      </c>
-      <c r="S8">
-        <v>0.0025</v>
-      </c>
-      <c r="T8">
-        <v>0.0024</v>
-      </c>
-      <c r="U8">
-        <v>0.00774</v>
-      </c>
-      <c r="V8">
-        <v>0.00263</v>
-      </c>
-      <c r="W8">
-        <v>0.00431</v>
-      </c>
-      <c r="X8">
-        <v>0.00485</v>
-      </c>
-      <c r="Y8">
-        <v>0.01334</v>
-      </c>
-      <c r="Z8">
-        <v>0.00111</v>
-      </c>
-      <c r="AA8">
-        <v>0.00198</v>
-      </c>
-      <c r="AB8">
-        <v>0.01414</v>
-      </c>
-      <c r="AC8">
-        <v>0.0081</v>
-      </c>
-      <c r="AD8">
-        <v>0.00721</v>
-      </c>
-      <c r="AE8">
-        <v>0.0045</v>
-      </c>
-      <c r="AF8">
-        <v>0.00133</v>
-      </c>
-      <c r="AG8">
-        <v>0.00549</v>
-      </c>
       <c r="AH8">
-        <v>0.00693</v>
+        <v>0.00501</v>
       </c>
       <c r="AI8">
-        <v>0.0039</v>
+        <v>0.00109</v>
       </c>
       <c r="AJ8">
-        <v>0.00188</v>
+        <v>0.00046</v>
       </c>
       <c r="AK8">
-        <v>0.00063</v>
+        <v>0.00066</v>
       </c>
       <c r="AL8">
-        <v>0.00424</v>
+        <v>0.00455</v>
       </c>
       <c r="AM8">
-        <v>0.01342</v>
+        <v>0.00092</v>
       </c>
       <c r="AN8">
-        <v>0.00477</v>
+        <v>0.00137</v>
       </c>
       <c r="AO8">
-        <v>0.0057</v>
+        <v>0.00114</v>
       </c>
       <c r="AP8">
-        <v>0.01041</v>
+        <v>0.00247</v>
       </c>
       <c r="AQ8">
-        <v>0.00487</v>
+        <v>0.00015</v>
       </c>
       <c r="AR8">
-        <v>0.00751</v>
+        <v>0.00224</v>
       </c>
       <c r="AS8">
-        <v>0.00519</v>
+        <v>0.00107</v>
       </c>
       <c r="AT8">
-        <v>0.01436</v>
+        <v>0.00057</v>
       </c>
       <c r="AU8">
-        <v>0.00293</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>0.00574</v>
+        <v>0.00017</v>
       </c>
       <c r="AW8">
-        <v>0.00085</v>
+        <v>0.00084</v>
       </c>
       <c r="AX8">
-        <v>0.00476</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.00661</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0.00693</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>0.00446</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>0.00156</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>0.01662</v>
-      </c>
-      <c r="BD8">
-        <v>0.00099</v>
-      </c>
-      <c r="BE8">
-        <v>0.00083</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0.00473</v>
-      </c>
-      <c r="BH8">
-        <v>0.00617</v>
-      </c>
-      <c r="BI8">
-        <v>0.00193</v>
-      </c>
-      <c r="BJ8">
-        <v>0.00116</v>
-      </c>
-      <c r="BK8">
-        <v>0.00499</v>
-      </c>
-      <c r="BL8">
-        <v>0.00111</v>
-      </c>
-      <c r="BM8">
-        <v>0.00635</v>
-      </c>
-      <c r="BN8">
-        <v>0.00501</v>
-      </c>
-      <c r="BO8">
-        <v>0.00049</v>
-      </c>
-      <c r="BP8">
-        <v>0.00222</v>
-      </c>
-      <c r="BQ8">
-        <v>0.00046</v>
-      </c>
-      <c r="BR8">
-        <v>0.00066</v>
-      </c>
-      <c r="BS8">
-        <v>0.00455</v>
-      </c>
-      <c r="BT8">
-        <v>0.00193</v>
-      </c>
-      <c r="BU8">
-        <v>0.00137</v>
-      </c>
-      <c r="BV8">
-        <v>0.00092</v>
-      </c>
-      <c r="BW8">
-        <v>0.00089</v>
-      </c>
-      <c r="BX8">
-        <v>0.00305</v>
-      </c>
-      <c r="BY8">
-        <v>0.00085</v>
-      </c>
-      <c r="BZ8">
-        <v>0.00116</v>
-      </c>
-      <c r="CA8">
-        <v>0.00114</v>
-      </c>
-      <c r="CB8">
-        <v>0.00022</v>
-      </c>
-      <c r="CC8">
-        <v>0.00111</v>
-      </c>
-      <c r="CD8">
-        <v>0.00015</v>
-      </c>
-      <c r="CE8">
-        <v>0.00224</v>
-      </c>
-      <c r="CF8">
-        <v>0.00064</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>0.00097</v>
-      </c>
-      <c r="CJ8">
-        <v>0.00057</v>
-      </c>
-      <c r="CK8">
-        <v>0.00029</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0.00074</v>
-      </c>
-      <c r="CN8">
-        <v>0.001</v>
-      </c>
-      <c r="CO8">
-        <v>0.00017</v>
-      </c>
-      <c r="CP8">
-        <v>0.00063</v>
-      </c>
-      <c r="CQ8">
-        <v>0.00011</v>
-      </c>
-      <c r="CR8">
-        <v>0</v>
-      </c>
-      <c r="CS8">
-        <v>0.00015</v>
-      </c>
-      <c r="CT8">
-        <v>0.00042</v>
-      </c>
-      <c r="CU8">
-        <v>0.00046</v>
-      </c>
-      <c r="CV8">
-        <v>0.0006</v>
-      </c>
-      <c r="CW8">
-        <v>0.00045</v>
-      </c>
-      <c r="CX8">
-        <v>0.00031</v>
-      </c>
-      <c r="CY8">
-        <v>0.00084</v>
-      </c>
-      <c r="CZ8">
-        <v>0.00031</v>
-      </c>
-      <c r="DA8">
-        <v>0.00027</v>
-      </c>
-      <c r="DB8">
-        <v>0</v>
-      </c>
-      <c r="DC8">
-        <v>0</v>
-      </c>
-      <c r="DD8">
-        <v>0</v>
-      </c>
-      <c r="DE8">
-        <v>0</v>
-      </c>
-      <c r="DF8">
-        <v>0</v>
-      </c>
-      <c r="DG8">
-        <v>0</v>
-      </c>
-      <c r="DH8">
-        <v>0</v>
-      </c>
-      <c r="DI8">
-        <v>0</v>
-      </c>
-      <c r="DJ8">
-        <v>0</v>
-      </c>
-      <c r="DK8">
-        <v>0</v>
-      </c>
-      <c r="DL8">
-        <v>0</v>
-      </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
-      <c r="DO8">
-        <v>0</v>
-      </c>
-      <c r="DP8">
-        <v>0</v>
-      </c>
-      <c r="DQ8">
-        <v>0</v>
-      </c>
-      <c r="DR8">
-        <v>0</v>
-      </c>
-      <c r="DS8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:123">
+    <row r="9" spans="1:55">
       <c r="A9" s="1" t="s">
         <v>779</v>
       </c>
@@ -40541,370 +38909,166 @@
         <v>0.00528</v>
       </c>
       <c r="C9">
-        <v>0.01034</v>
+        <v>0.00692</v>
       </c>
       <c r="D9">
-        <v>0.00696</v>
+        <v>0.00362</v>
       </c>
       <c r="E9">
-        <v>0.01383</v>
+        <v>0.00354</v>
       </c>
       <c r="F9">
-        <v>0.00692</v>
+        <v>0.00268</v>
       </c>
       <c r="G9">
-        <v>0.00445</v>
+        <v>0.004</v>
       </c>
       <c r="H9">
-        <v>0.00057</v>
+        <v>0.00514</v>
       </c>
       <c r="I9">
         <v>0.00362</v>
       </c>
       <c r="J9">
-        <v>0.00647</v>
+        <v>0.00061</v>
       </c>
       <c r="K9">
-        <v>0.00354</v>
+        <v>0.00516</v>
       </c>
       <c r="L9">
-        <v>0.00268</v>
+        <v>0.00177</v>
       </c>
       <c r="M9">
-        <v>0.00328</v>
+        <v>0.00075</v>
       </c>
       <c r="N9">
-        <v>0.004</v>
+        <v>0.00123</v>
       </c>
       <c r="O9">
-        <v>0.00514</v>
+        <v>0.00641</v>
       </c>
       <c r="P9">
-        <v>0.00331</v>
+        <v>0.00019</v>
       </c>
       <c r="Q9">
-        <v>0.00115</v>
+        <v>0.01363</v>
       </c>
       <c r="R9">
-        <v>0.00409</v>
+        <v>0.00023</v>
       </c>
       <c r="S9">
-        <v>0.00163</v>
+        <v>0.00012</v>
       </c>
       <c r="T9">
-        <v>0.00357</v>
+        <v>0.00125</v>
       </c>
       <c r="U9">
-        <v>0.00362</v>
+        <v>0.00029</v>
       </c>
       <c r="V9">
-        <v>0.00235</v>
+        <v>0.00014</v>
       </c>
       <c r="W9">
-        <v>0.00061</v>
+        <v>0.00066</v>
       </c>
       <c r="X9">
-        <v>0.00039</v>
+        <v>0.00022</v>
       </c>
       <c r="Y9">
-        <v>0.00511</v>
+        <v>0.00074</v>
       </c>
       <c r="Z9">
-        <v>0.00313</v>
+        <v>0.00145</v>
       </c>
       <c r="AA9">
-        <v>0.00241</v>
+        <v>0.00173</v>
       </c>
       <c r="AB9">
-        <v>0.00516</v>
+        <v>0.00102</v>
       </c>
       <c r="AC9">
-        <v>0.00177</v>
+        <v>0.00018</v>
       </c>
       <c r="AD9">
-        <v>0.00113</v>
+        <v>0.00083</v>
       </c>
       <c r="AE9">
-        <v>0.00075</v>
+        <v>0.00065</v>
       </c>
       <c r="AF9">
-        <v>0.00195</v>
+        <v>0.00323</v>
       </c>
       <c r="AG9">
-        <v>0.00144</v>
+        <v>0.00083</v>
       </c>
       <c r="AH9">
-        <v>0.00097</v>
+        <v>0.00051</v>
       </c>
       <c r="AI9">
-        <v>0.00307</v>
+        <v>0.00085</v>
       </c>
       <c r="AJ9">
-        <v>0.00123</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.00641</v>
+        <v>0.00064</v>
       </c>
       <c r="AL9">
-        <v>0.00019</v>
+        <v>0.00028</v>
       </c>
       <c r="AM9">
-        <v>0.01363</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.00181</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.00023</v>
+        <v>0.00012</v>
       </c>
       <c r="AP9">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.00125</v>
+        <v>0.00055</v>
       </c>
       <c r="AS9">
-        <v>0.00029</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.00014</v>
+        <v>0.00017</v>
       </c>
       <c r="AW9">
-        <v>0.00413</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.00066</v>
+        <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0.00074</v>
+        <v>0.0004</v>
       </c>
       <c r="BA9">
-        <v>0.00145</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>0.00164</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>0.00173</v>
-      </c>
-      <c r="BD9">
-        <v>0.00014</v>
-      </c>
-      <c r="BE9">
-        <v>0.00102</v>
-      </c>
-      <c r="BF9">
-        <v>0.00018</v>
-      </c>
-      <c r="BG9">
-        <v>0.00083</v>
-      </c>
-      <c r="BH9">
-        <v>0.00065</v>
-      </c>
-      <c r="BI9">
-        <v>0.00038</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0.00323</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0.00083</v>
-      </c>
-      <c r="BN9">
-        <v>0.00051</v>
-      </c>
-      <c r="BO9">
-        <v>0.00019</v>
-      </c>
-      <c r="BP9">
-        <v>0.00039</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0.00064</v>
-      </c>
-      <c r="BS9">
-        <v>0.00028</v>
-      </c>
-      <c r="BT9">
-        <v>0.00027</v>
-      </c>
-      <c r="BU9">
-        <v>0.0003</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
-        <v>0.00022</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>0</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0.00012</v>
-      </c>
-      <c r="CB9">
-        <v>0.00021</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0.00055</v>
-      </c>
-      <c r="CF9">
-        <v>0.00021</v>
-      </c>
-      <c r="CG9">
-        <v>0.00265</v>
-      </c>
-      <c r="CH9">
-        <v>0.00041</v>
-      </c>
-      <c r="CI9">
-        <v>0.00094</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0.00014</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0.00017</v>
-      </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
-        <v>0</v>
-      </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
-      <c r="CY9">
-        <v>0</v>
-      </c>
-      <c r="CZ9">
-        <v>0</v>
-      </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
-      <c r="DB9">
-        <v>0</v>
-      </c>
-      <c r="DC9">
-        <v>0.00041</v>
-      </c>
-      <c r="DD9">
-        <v>0</v>
-      </c>
-      <c r="DE9">
-        <v>0.00042</v>
-      </c>
-      <c r="DF9">
-        <v>0.00041</v>
-      </c>
-      <c r="DG9">
-        <v>0</v>
-      </c>
-      <c r="DH9">
-        <v>0</v>
-      </c>
-      <c r="DI9">
-        <v>0</v>
-      </c>
-      <c r="DJ9">
-        <v>0</v>
-      </c>
-      <c r="DK9">
-        <v>0.0004</v>
-      </c>
-      <c r="DL9">
-        <v>0</v>
-      </c>
-      <c r="DM9">
-        <v>0</v>
-      </c>
-      <c r="DN9">
-        <v>0</v>
-      </c>
-      <c r="DO9">
-        <v>0</v>
-      </c>
-      <c r="DP9">
-        <v>0</v>
-      </c>
-      <c r="DQ9">
-        <v>0</v>
-      </c>
-      <c r="DR9">
-        <v>0</v>
-      </c>
-      <c r="DS9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:123">
+    <row r="10" spans="1:55">
       <c r="A10" s="1" t="s">
         <v>780</v>
       </c>
@@ -40912,370 +39076,166 @@
         <v>0.03368</v>
       </c>
       <c r="C10">
-        <v>0.01503</v>
+        <v>0.01604</v>
       </c>
       <c r="D10">
-        <v>0.01223</v>
+        <v>0.0342</v>
       </c>
       <c r="E10">
-        <v>0.02401</v>
+        <v>0.00643</v>
       </c>
       <c r="F10">
-        <v>0.01604</v>
+        <v>0.00424</v>
       </c>
       <c r="G10">
-        <v>0.01557</v>
+        <v>0.00456</v>
       </c>
       <c r="H10">
-        <v>0.00302</v>
+        <v>0.00434</v>
       </c>
       <c r="I10">
-        <v>0.0342</v>
+        <v>0.00529</v>
       </c>
       <c r="J10">
-        <v>0.01433</v>
+        <v>0.0003</v>
       </c>
       <c r="K10">
-        <v>0.00643</v>
+        <v>0.00163</v>
       </c>
       <c r="L10">
-        <v>0.00424</v>
+        <v>0.0045</v>
       </c>
       <c r="M10">
-        <v>0.00861</v>
+        <v>0.00159</v>
       </c>
       <c r="N10">
-        <v>0.00456</v>
+        <v>0.00326</v>
       </c>
       <c r="O10">
-        <v>0.00434</v>
+        <v>0.00989</v>
       </c>
       <c r="P10">
-        <v>0.02179</v>
+        <v>0.005</v>
       </c>
       <c r="Q10">
-        <v>0.00188</v>
+        <v>0.00112</v>
       </c>
       <c r="R10">
-        <v>0.01382</v>
+        <v>0.00173</v>
       </c>
       <c r="S10">
-        <v>0.00439</v>
+        <v>0.00013</v>
       </c>
       <c r="T10">
-        <v>0.00562</v>
+        <v>0.00166</v>
       </c>
       <c r="U10">
-        <v>0.00529</v>
+        <v>0.00354</v>
       </c>
       <c r="V10">
-        <v>0.00654</v>
+        <v>0.00164</v>
       </c>
       <c r="W10">
-        <v>0.0003</v>
+        <v>0.00035</v>
       </c>
       <c r="X10">
-        <v>0.00441</v>
+        <v>0.00183</v>
       </c>
       <c r="Y10">
-        <v>0.01332</v>
+        <v>0.00047</v>
       </c>
       <c r="Z10">
-        <v>0.00408</v>
+        <v>0.00189</v>
       </c>
       <c r="AA10">
-        <v>0.00371</v>
+        <v>0.00294</v>
       </c>
       <c r="AB10">
-        <v>0.00163</v>
+        <v>0.00143</v>
       </c>
       <c r="AC10">
-        <v>0.0045</v>
+        <v>0.0046</v>
       </c>
       <c r="AD10">
-        <v>0.00405</v>
+        <v>0.00158</v>
       </c>
       <c r="AE10">
-        <v>0.00159</v>
+        <v>0.00137</v>
       </c>
       <c r="AF10">
-        <v>0.00196</v>
+        <v>0.00174</v>
       </c>
       <c r="AG10">
-        <v>0.00648</v>
+        <v>0.00066</v>
       </c>
       <c r="AH10">
-        <v>0.00264</v>
+        <v>0.0011</v>
       </c>
       <c r="AI10">
-        <v>0.00451</v>
+        <v>0.00204</v>
       </c>
       <c r="AJ10">
-        <v>0.00326</v>
+        <v>0.00032</v>
       </c>
       <c r="AK10">
-        <v>0.00989</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.005</v>
+        <v>0.00118</v>
       </c>
       <c r="AM10">
-        <v>0.00112</v>
+        <v>0.00024</v>
       </c>
       <c r="AN10">
-        <v>0.00083</v>
+        <v>0.00206</v>
       </c>
       <c r="AO10">
-        <v>0.00173</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.00013</v>
+        <v>0.00427</v>
       </c>
       <c r="AQ10">
-        <v>0.00115</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0.00166</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.00354</v>
+        <v>0.00048</v>
       </c>
       <c r="AT10">
-        <v>0.00143</v>
+        <v>0.00059</v>
       </c>
       <c r="AU10">
-        <v>0.00332</v>
+        <v>0.00249</v>
       </c>
       <c r="AV10">
-        <v>0.00164</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>0.00836</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>0.00035</v>
+        <v>0.00016</v>
       </c>
       <c r="AY10">
-        <v>0.00183</v>
+        <v>0.00012</v>
       </c>
       <c r="AZ10">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
       <c r="BA10">
-        <v>0.00189</v>
+        <v>0.00046</v>
       </c>
       <c r="BB10">
-        <v>0.00287</v>
+        <v>0</v>
       </c>
       <c r="BC10">
-        <v>0.00294</v>
-      </c>
-      <c r="BD10">
-        <v>0.00089</v>
-      </c>
-      <c r="BE10">
-        <v>0.00143</v>
-      </c>
-      <c r="BF10">
-        <v>0.0046</v>
-      </c>
-      <c r="BG10">
-        <v>0.00158</v>
-      </c>
-      <c r="BH10">
-        <v>0.00137</v>
-      </c>
-      <c r="BI10">
-        <v>0.0008</v>
-      </c>
-      <c r="BJ10">
-        <v>0.0002</v>
-      </c>
-      <c r="BK10">
-        <v>0.00174</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0.00066</v>
-      </c>
-      <c r="BN10">
-        <v>0.0011</v>
-      </c>
-      <c r="BO10">
-        <v>0.0004</v>
-      </c>
-      <c r="BP10">
-        <v>0.00063</v>
-      </c>
-      <c r="BQ10">
-        <v>0.00032</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0.00118</v>
-      </c>
-      <c r="BT10">
-        <v>0.00029</v>
-      </c>
-      <c r="BU10">
-        <v>0.00079</v>
-      </c>
-      <c r="BV10">
-        <v>0.00024</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0.00079</v>
-      </c>
-      <c r="BY10">
-        <v>0.00044</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0.00205</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10">
-        <v>0</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0.00022</v>
-      </c>
-      <c r="CG10">
-        <v>0.00051</v>
-      </c>
-      <c r="CH10">
-        <v>0.00022</v>
-      </c>
-      <c r="CI10">
-        <v>0.00167</v>
-      </c>
-      <c r="CJ10">
-        <v>0.00059</v>
-      </c>
-      <c r="CK10">
-        <v>0.00045</v>
-      </c>
-      <c r="CL10">
-        <v>0.00249</v>
-      </c>
-      <c r="CM10">
-        <v>0.00038</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
-      <c r="CP10">
-        <v>0</v>
-      </c>
-      <c r="CQ10">
-        <v>0.00046</v>
-      </c>
-      <c r="CR10">
-        <v>0.00077</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CW10">
-        <v>0.0007</v>
-      </c>
-      <c r="CX10">
-        <v>0</v>
-      </c>
-      <c r="CY10">
-        <v>0</v>
-      </c>
-      <c r="CZ10">
-        <v>0</v>
-      </c>
-      <c r="DA10">
-        <v>0.00028</v>
-      </c>
-      <c r="DB10">
-        <v>0.00016</v>
-      </c>
-      <c r="DC10">
-        <v>0</v>
-      </c>
-      <c r="DD10">
-        <v>0.00021</v>
-      </c>
-      <c r="DE10">
-        <v>0</v>
-      </c>
-      <c r="DF10">
-        <v>0</v>
-      </c>
-      <c r="DG10">
-        <v>0</v>
-      </c>
-      <c r="DH10">
-        <v>0</v>
-      </c>
-      <c r="DI10">
-        <v>0.00012</v>
-      </c>
-      <c r="DJ10">
-        <v>0</v>
-      </c>
-      <c r="DK10">
-        <v>0</v>
-      </c>
-      <c r="DL10">
-        <v>0</v>
-      </c>
-      <c r="DM10">
-        <v>0.00016</v>
-      </c>
-      <c r="DN10">
-        <v>0</v>
-      </c>
-      <c r="DO10">
-        <v>0.00046</v>
-      </c>
-      <c r="DP10">
-        <v>0</v>
-      </c>
-      <c r="DQ10">
-        <v>0</v>
-      </c>
-      <c r="DR10">
-        <v>0</v>
-      </c>
-      <c r="DS10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:123">
+    <row r="11" spans="1:55">
       <c r="A11" s="1" t="s">
         <v>781</v>
       </c>
@@ -41283,370 +39243,166 @@
         <v>0.02692</v>
       </c>
       <c r="C11">
-        <v>0.01452</v>
+        <v>0.04052</v>
       </c>
       <c r="D11">
-        <v>0.01315</v>
+        <v>0.0077</v>
       </c>
       <c r="E11">
-        <v>0.02117</v>
+        <v>0.00788</v>
       </c>
       <c r="F11">
-        <v>0.04052</v>
+        <v>0.01202</v>
       </c>
       <c r="G11">
-        <v>0.04986</v>
+        <v>0.01408</v>
       </c>
       <c r="H11">
-        <v>0.00799</v>
+        <v>0.00801</v>
       </c>
       <c r="I11">
-        <v>0.0077</v>
+        <v>0.01279</v>
       </c>
       <c r="J11">
-        <v>0.00754</v>
+        <v>0.00898</v>
       </c>
       <c r="K11">
-        <v>0.00788</v>
+        <v>0.01513</v>
       </c>
       <c r="L11">
-        <v>0.01202</v>
+        <v>0.01522</v>
       </c>
       <c r="M11">
-        <v>0.01713</v>
+        <v>0.00775</v>
       </c>
       <c r="N11">
-        <v>0.01408</v>
+        <v>0.00062</v>
       </c>
       <c r="O11">
-        <v>0.00801</v>
+        <v>0.00062</v>
       </c>
       <c r="P11">
-        <v>0.00636</v>
+        <v>0.00227</v>
       </c>
       <c r="Q11">
-        <v>0.00027</v>
+        <v>0.00158</v>
       </c>
       <c r="R11">
-        <v>0.0022</v>
+        <v>0.01049</v>
       </c>
       <c r="S11">
-        <v>0.00442</v>
+        <v>0.01176</v>
       </c>
       <c r="T11">
-        <v>0.00771</v>
+        <v>0.01081</v>
       </c>
       <c r="U11">
-        <v>0.01279</v>
+        <v>0.00698</v>
       </c>
       <c r="V11">
-        <v>0.00274</v>
+        <v>0.00803</v>
       </c>
       <c r="W11">
-        <v>0.00898</v>
+        <v>0.006</v>
       </c>
       <c r="X11">
-        <v>0.00238</v>
+        <v>0.00649</v>
       </c>
       <c r="Y11">
-        <v>0.03236</v>
+        <v>0.00709</v>
       </c>
       <c r="Z11">
-        <v>0.00277</v>
+        <v>0.00632</v>
       </c>
       <c r="AA11">
-        <v>0.00453</v>
+        <v>0.02914</v>
       </c>
       <c r="AB11">
-        <v>0.01513</v>
+        <v>0.00097</v>
       </c>
       <c r="AC11">
-        <v>0.01522</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.00977</v>
+        <v>0.00398</v>
       </c>
       <c r="AE11">
-        <v>0.00775</v>
+        <v>0.00649</v>
       </c>
       <c r="AF11">
-        <v>0.0031</v>
+        <v>0.00486</v>
       </c>
       <c r="AG11">
-        <v>0.00118</v>
+        <v>0.0081</v>
       </c>
       <c r="AH11">
-        <v>0.01082</v>
+        <v>0.01474</v>
       </c>
       <c r="AI11">
-        <v>0.00573</v>
+        <v>0.00321</v>
       </c>
       <c r="AJ11">
-        <v>0.00062</v>
+        <v>0.00224</v>
       </c>
       <c r="AK11">
-        <v>0.00062</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.00227</v>
+        <v>0.00837</v>
       </c>
       <c r="AM11">
-        <v>0.00158</v>
+        <v>0.0027</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.00134</v>
       </c>
       <c r="AO11">
-        <v>0.01049</v>
+        <v>0.00186</v>
       </c>
       <c r="AP11">
-        <v>0.01176</v>
+        <v>0.00242</v>
       </c>
       <c r="AQ11">
-        <v>0.00261</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.01081</v>
+        <v>0.00412</v>
       </c>
       <c r="AS11">
-        <v>0.00698</v>
+        <v>0.00135</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.00292</v>
       </c>
       <c r="AU11">
-        <v>0.0368</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.00803</v>
+        <v>0.0005</v>
       </c>
       <c r="AW11">
-        <v>0.00062</v>
+        <v>0.00124</v>
       </c>
       <c r="AX11">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.00649</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.00709</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0.00632</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.00319</v>
+        <v>0</v>
       </c>
       <c r="BC11">
-        <v>0.02914</v>
-      </c>
-      <c r="BD11">
-        <v>0.0205</v>
-      </c>
-      <c r="BE11">
-        <v>0.00097</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0.00398</v>
-      </c>
-      <c r="BH11">
-        <v>0.00649</v>
-      </c>
-      <c r="BI11">
-        <v>0.00114</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0.00486</v>
-      </c>
-      <c r="BL11">
-        <v>0.00217</v>
-      </c>
-      <c r="BM11">
-        <v>0.0081</v>
-      </c>
-      <c r="BN11">
-        <v>0.01474</v>
-      </c>
-      <c r="BO11">
-        <v>0.00044</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0.00224</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0.00837</v>
-      </c>
-      <c r="BT11">
-        <v>0.00163</v>
-      </c>
-      <c r="BU11">
-        <v>0.0009</v>
-      </c>
-      <c r="BV11">
-        <v>0.0027</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0.00168</v>
-      </c>
-      <c r="BY11">
-        <v>0.0025</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>0.00186</v>
-      </c>
-      <c r="CB11">
-        <v>0.00129</v>
-      </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11">
-        <v>0</v>
-      </c>
-      <c r="CE11">
-        <v>0.00412</v>
-      </c>
-      <c r="CF11">
-        <v>0.00063</v>
-      </c>
-      <c r="CG11">
-        <v>0</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
-      </c>
-      <c r="CI11">
-        <v>0.0019</v>
-      </c>
-      <c r="CJ11">
-        <v>0.00292</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0.00059</v>
-      </c>
-      <c r="CO11">
-        <v>0.0005</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
-      </c>
-      <c r="CQ11">
-        <v>0.00033</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0.00067</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
-        <v>0.00066</v>
-      </c>
-      <c r="CX11">
-        <v>0</v>
-      </c>
-      <c r="CY11">
-        <v>0.00124</v>
-      </c>
-      <c r="CZ11">
-        <v>0</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DB11">
-        <v>0</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
-      <c r="DD11">
-        <v>0</v>
-      </c>
-      <c r="DE11">
-        <v>0</v>
-      </c>
-      <c r="DF11">
-        <v>0</v>
-      </c>
-      <c r="DG11">
-        <v>0</v>
-      </c>
-      <c r="DH11">
-        <v>0</v>
-      </c>
-      <c r="DI11">
-        <v>0</v>
-      </c>
-      <c r="DJ11">
-        <v>0</v>
-      </c>
-      <c r="DK11">
-        <v>0</v>
-      </c>
-      <c r="DL11">
-        <v>0</v>
-      </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DN11">
-        <v>0</v>
-      </c>
-      <c r="DO11">
-        <v>0</v>
-      </c>
-      <c r="DP11">
-        <v>0</v>
-      </c>
-      <c r="DQ11">
-        <v>0</v>
-      </c>
-      <c r="DR11">
-        <v>0</v>
-      </c>
-      <c r="DS11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:123">
+    <row r="12" spans="1:55">
       <c r="A12" s="1" t="s">
         <v>782</v>
       </c>
@@ -41654,370 +39410,166 @@
         <v>0.18067</v>
       </c>
       <c r="C12">
-        <v>0.01916</v>
+        <v>0.04895</v>
       </c>
       <c r="D12">
-        <v>0.00674</v>
+        <v>0.04662</v>
       </c>
       <c r="E12">
-        <v>0.08392</v>
+        <v>0.01031</v>
       </c>
       <c r="F12">
-        <v>0.04895</v>
+        <v>0.00472</v>
       </c>
       <c r="G12">
-        <v>0.05624</v>
+        <v>0.00619</v>
       </c>
       <c r="H12">
-        <v>0.09819</v>
+        <v>0.02738</v>
       </c>
       <c r="I12">
-        <v>0.04662</v>
+        <v>0.00282</v>
       </c>
       <c r="J12">
-        <v>0.06649</v>
+        <v>0.00157</v>
       </c>
       <c r="K12">
-        <v>0.01031</v>
+        <v>0.00726</v>
       </c>
       <c r="L12">
-        <v>0.00472</v>
+        <v>0.0021</v>
       </c>
       <c r="M12">
-        <v>0.05383</v>
+        <v>0.00177</v>
       </c>
       <c r="N12">
-        <v>0.00619</v>
+        <v>0.00121</v>
       </c>
       <c r="O12">
-        <v>0.02738</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.08343</v>
+        <v>0.02383</v>
       </c>
       <c r="Q12">
-        <v>0.03519</v>
+        <v>0.018</v>
       </c>
       <c r="R12">
-        <v>0.01088</v>
+        <v>0.00275</v>
       </c>
       <c r="S12">
-        <v>0.01189</v>
+        <v>0.00602</v>
       </c>
       <c r="T12">
-        <v>0.00391</v>
+        <v>0.00462</v>
       </c>
       <c r="U12">
-        <v>0.00282</v>
+        <v>0.00531</v>
       </c>
       <c r="V12">
-        <v>0.0012</v>
+        <v>0.00232</v>
       </c>
       <c r="W12">
-        <v>0.00157</v>
+        <v>0.00249</v>
       </c>
       <c r="X12">
-        <v>0.02896</v>
+        <v>0.00714</v>
       </c>
       <c r="Y12">
-        <v>0.0112</v>
+        <v>0.00366</v>
       </c>
       <c r="Z12">
-        <v>0.0023</v>
+        <v>0.00363</v>
       </c>
       <c r="AA12">
-        <v>0.00152</v>
+        <v>0.00041</v>
       </c>
       <c r="AB12">
-        <v>0.00726</v>
+        <v>0.00057</v>
       </c>
       <c r="AC12">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>0.00117</v>
+        <v>0.00215</v>
       </c>
       <c r="AE12">
-        <v>0.00177</v>
+        <v>0.00484</v>
       </c>
       <c r="AF12">
-        <v>0.00077</v>
+        <v>0.00707</v>
       </c>
       <c r="AG12">
-        <v>0.01499</v>
+        <v>0.00245</v>
       </c>
       <c r="AH12">
-        <v>0.00163</v>
+        <v>0.00213</v>
       </c>
       <c r="AI12">
-        <v>0.00745</v>
+        <v>0.00302</v>
       </c>
       <c r="AJ12">
-        <v>0.00121</v>
+        <v>0.00774</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>0.00809</v>
       </c>
       <c r="AL12">
-        <v>0.02383</v>
+        <v>0.00131</v>
       </c>
       <c r="AM12">
-        <v>0.018</v>
+        <v>0.00742</v>
       </c>
       <c r="AN12">
-        <v>0.02449</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>0.00275</v>
+        <v>0.00044</v>
       </c>
       <c r="AP12">
-        <v>0.00602</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0.02354</v>
+        <v>0.00106</v>
       </c>
       <c r="AR12">
-        <v>0.00462</v>
+        <v>0.00032</v>
       </c>
       <c r="AS12">
-        <v>0.00531</v>
+        <v>0.00035</v>
       </c>
       <c r="AT12">
-        <v>0.01788</v>
+        <v>0.00033</v>
       </c>
       <c r="AU12">
-        <v>0.00061</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>0.00232</v>
+        <v>0.0002</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>0.00249</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>0.00714</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <v>0.00366</v>
+        <v>0</v>
       </c>
       <c r="BA12">
-        <v>0.00363</v>
+        <v>0</v>
       </c>
       <c r="BB12">
-        <v>0.00306</v>
+        <v>0</v>
       </c>
       <c r="BC12">
-        <v>0.00041</v>
-      </c>
-      <c r="BD12">
-        <v>0.00378</v>
-      </c>
-      <c r="BE12">
-        <v>0.00057</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0.00215</v>
-      </c>
-      <c r="BH12">
-        <v>0.00484</v>
-      </c>
-      <c r="BI12">
-        <v>0.03083</v>
-      </c>
-      <c r="BJ12">
-        <v>0.01726</v>
-      </c>
-      <c r="BK12">
-        <v>0.00707</v>
-      </c>
-      <c r="BL12">
-        <v>0.03373</v>
-      </c>
-      <c r="BM12">
-        <v>0.00245</v>
-      </c>
-      <c r="BN12">
-        <v>0.00213</v>
-      </c>
-      <c r="BO12">
-        <v>0.00999</v>
-      </c>
-      <c r="BP12">
-        <v>0.00747</v>
-      </c>
-      <c r="BQ12">
-        <v>0.00774</v>
-      </c>
-      <c r="BR12">
-        <v>0.00809</v>
-      </c>
-      <c r="BS12">
-        <v>0.00131</v>
-      </c>
-      <c r="BT12">
-        <v>0.01181</v>
-      </c>
-      <c r="BU12">
-        <v>0.00369</v>
-      </c>
-      <c r="BV12">
-        <v>0.00742</v>
-      </c>
-      <c r="BW12">
-        <v>0.00486</v>
-      </c>
-      <c r="BX12">
-        <v>0.0011</v>
-      </c>
-      <c r="BY12">
-        <v>0.00393</v>
-      </c>
-      <c r="BZ12">
-        <v>0.00536</v>
-      </c>
-      <c r="CA12">
-        <v>0.00044</v>
-      </c>
-      <c r="CB12">
-        <v>0.00025</v>
-      </c>
-      <c r="CC12">
-        <v>0.01025</v>
-      </c>
-      <c r="CD12">
-        <v>0.00106</v>
-      </c>
-      <c r="CE12">
-        <v>0.00032</v>
-      </c>
-      <c r="CF12">
-        <v>0.00074</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0.00074</v>
-      </c>
-      <c r="CJ12">
-        <v>0.00033</v>
-      </c>
-      <c r="CK12">
-        <v>0.001</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0.00128</v>
-      </c>
-      <c r="CN12">
-        <v>0.00023</v>
-      </c>
-      <c r="CO12">
-        <v>0.0002</v>
-      </c>
-      <c r="CP12">
-        <v>0.0017</v>
-      </c>
-      <c r="CQ12">
-        <v>0.00013</v>
-      </c>
-      <c r="CR12">
-        <v>0.00688</v>
-      </c>
-      <c r="CS12">
-        <v>0.00017</v>
-      </c>
-      <c r="CT12">
-        <v>0.00048</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0.00415</v>
-      </c>
-      <c r="CW12">
-        <v>0.00026</v>
-      </c>
-      <c r="CX12">
-        <v>0.00036</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="CZ12">
-        <v>0.00035</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DB12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DD12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DF12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>0.0007</v>
-      </c>
-      <c r="DH12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DJ12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DL12">
-        <v>0</v>
-      </c>
-      <c r="DM12">
-        <v>0.00018</v>
-      </c>
-      <c r="DN12">
-        <v>0</v>
-      </c>
-      <c r="DO12">
-        <v>0</v>
-      </c>
-      <c r="DP12">
-        <v>0.00023</v>
-      </c>
-      <c r="DQ12">
-        <v>0.00051</v>
-      </c>
-      <c r="DR12">
-        <v>0</v>
-      </c>
-      <c r="DS12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:123">
+    <row r="13" spans="1:55">
       <c r="A13" s="1" t="s">
         <v>783</v>
       </c>
@@ -42025,370 +39577,166 @@
         <v>0.00568</v>
       </c>
       <c r="C13">
-        <v>0.01137</v>
+        <v>0.00922</v>
       </c>
       <c r="D13">
-        <v>0.00687</v>
+        <v>0.00386</v>
       </c>
       <c r="E13">
-        <v>0.01052</v>
+        <v>0.003</v>
       </c>
       <c r="F13">
-        <v>0.00922</v>
+        <v>0.00346</v>
       </c>
       <c r="G13">
-        <v>0.01275</v>
+        <v>0.00426</v>
       </c>
       <c r="H13">
-        <v>0.00062</v>
+        <v>0.00358</v>
       </c>
       <c r="I13">
-        <v>0.00386</v>
+        <v>0.00418</v>
       </c>
       <c r="J13">
-        <v>0.01036</v>
+        <v>0.0007</v>
       </c>
       <c r="K13">
-        <v>0.003</v>
+        <v>0.00356</v>
       </c>
       <c r="L13">
-        <v>0.00346</v>
+        <v>0.0018</v>
       </c>
       <c r="M13">
-        <v>0.0054</v>
+        <v>0.00102</v>
       </c>
       <c r="N13">
-        <v>0.00426</v>
+        <v>0.00303</v>
       </c>
       <c r="O13">
-        <v>0.00358</v>
+        <v>0.00902</v>
       </c>
       <c r="P13">
-        <v>0.00198</v>
+        <v>0.00015</v>
       </c>
       <c r="Q13">
-        <v>0.00146</v>
+        <v>0.01079</v>
       </c>
       <c r="R13">
-        <v>0.00445</v>
+        <v>0.00143</v>
       </c>
       <c r="S13">
-        <v>0.00148</v>
+        <v>0.0001</v>
       </c>
       <c r="T13">
-        <v>0.00356</v>
+        <v>0.00205</v>
       </c>
       <c r="U13">
-        <v>0.00418</v>
+        <v>0.00048</v>
       </c>
       <c r="V13">
-        <v>0.00167</v>
+        <v>0.00012</v>
       </c>
       <c r="W13">
-        <v>0.0007</v>
+        <v>0.00109</v>
       </c>
       <c r="X13">
-        <v>0.00146</v>
+        <v>0.00053</v>
       </c>
       <c r="Y13">
-        <v>0.0061</v>
+        <v>0.00133</v>
       </c>
       <c r="Z13">
-        <v>0.00311</v>
+        <v>0.00173</v>
       </c>
       <c r="AA13">
-        <v>0.00239</v>
+        <v>0.00085</v>
       </c>
       <c r="AB13">
-        <v>0.00356</v>
+        <v>0.00115</v>
       </c>
       <c r="AC13">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.00116</v>
+        <v>0.00109</v>
       </c>
       <c r="AE13">
-        <v>0.00102</v>
+        <v>0.00018</v>
       </c>
       <c r="AF13">
-        <v>0.00161</v>
+        <v>0.00335</v>
       </c>
       <c r="AG13">
-        <v>0.00129</v>
+        <v>0.00085</v>
       </c>
       <c r="AH13">
-        <v>0.00193</v>
+        <v>0.00106</v>
       </c>
       <c r="AI13">
-        <v>0.00434</v>
+        <v>0.00123</v>
       </c>
       <c r="AJ13">
-        <v>0.00303</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>0.00902</v>
+        <v>0.00053</v>
       </c>
       <c r="AL13">
-        <v>0.00015</v>
+        <v>0.00069</v>
       </c>
       <c r="AM13">
-        <v>0.01079</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>0.00106</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>0.00143</v>
+        <v>0.0001</v>
       </c>
       <c r="AP13">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0.00196</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>0.00205</v>
+        <v>0.00068</v>
       </c>
       <c r="AS13">
-        <v>0.00048</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>0.00012</v>
+        <v>0.00014</v>
       </c>
       <c r="AW13">
-        <v>0.00919</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>0.00109</v>
+        <v>0</v>
       </c>
       <c r="AY13">
-        <v>0.00053</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
-        <v>0.00133</v>
+        <v>0.00017</v>
       </c>
       <c r="BA13">
-        <v>0.00173</v>
+        <v>0</v>
       </c>
       <c r="BB13">
-        <v>0.00116</v>
+        <v>0</v>
       </c>
       <c r="BC13">
-        <v>0.00085</v>
-      </c>
-      <c r="BD13">
-        <v>0.00011</v>
-      </c>
-      <c r="BE13">
-        <v>0.00115</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0.00109</v>
-      </c>
-      <c r="BH13">
-        <v>0.00018</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0.00335</v>
-      </c>
-      <c r="BL13">
-        <v>0.00059</v>
-      </c>
-      <c r="BM13">
-        <v>0.00085</v>
-      </c>
-      <c r="BN13">
-        <v>0.00106</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0.00032</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0.00053</v>
-      </c>
-      <c r="BS13">
-        <v>0.00069</v>
-      </c>
-      <c r="BT13">
-        <v>0.00022</v>
-      </c>
-      <c r="BU13">
-        <v>0.00012</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0.00018</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0.0001</v>
-      </c>
-      <c r="CB13">
-        <v>0.0007</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13">
-        <v>0</v>
-      </c>
-      <c r="CE13">
-        <v>0.00068</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CG13">
-        <v>0.00198</v>
-      </c>
-      <c r="CH13">
-        <v>0.00085</v>
-      </c>
-      <c r="CI13">
-        <v>0.00078</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0.00012</v>
-      </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0.0003</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0.00014</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
-      </c>
-      <c r="CQ13">
-        <v>9e-05</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DB13">
-        <v>0</v>
-      </c>
-      <c r="DC13">
-        <v>0.00034</v>
-      </c>
-      <c r="DD13">
-        <v>0</v>
-      </c>
-      <c r="DE13">
-        <v>0.00035</v>
-      </c>
-      <c r="DF13">
-        <v>0.00034</v>
-      </c>
-      <c r="DG13">
-        <v>0</v>
-      </c>
-      <c r="DH13">
-        <v>0</v>
-      </c>
-      <c r="DI13">
-        <v>0</v>
-      </c>
-      <c r="DJ13">
-        <v>0</v>
-      </c>
-      <c r="DK13">
-        <v>0.00017</v>
-      </c>
-      <c r="DL13">
-        <v>0</v>
-      </c>
-      <c r="DM13">
-        <v>0</v>
-      </c>
-      <c r="DN13">
-        <v>0</v>
-      </c>
-      <c r="DO13">
-        <v>0</v>
-      </c>
-      <c r="DP13">
-        <v>0</v>
-      </c>
-      <c r="DQ13">
-        <v>0</v>
-      </c>
-      <c r="DR13">
-        <v>0</v>
-      </c>
-      <c r="DS13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:123">
+    <row r="14" spans="1:55">
       <c r="A14" s="1" t="s">
         <v>784</v>
       </c>
@@ -42396,370 +39744,166 @@
         <v>0.01157</v>
       </c>
       <c r="C14">
-        <v>0.00979</v>
+        <v>0.01697</v>
       </c>
       <c r="D14">
-        <v>0.0106</v>
+        <v>0.00677</v>
       </c>
       <c r="E14">
-        <v>0.0189</v>
+        <v>0.00436</v>
       </c>
       <c r="F14">
-        <v>0.01697</v>
+        <v>0.00437</v>
       </c>
       <c r="G14">
-        <v>0.0172</v>
+        <v>0.00726</v>
       </c>
       <c r="H14">
+        <v>0.00155</v>
+      </c>
+      <c r="I14">
+        <v>0.0034</v>
+      </c>
+      <c r="J14">
+        <v>0.00093</v>
+      </c>
+      <c r="K14">
+        <v>0.00367</v>
+      </c>
+      <c r="L14">
+        <v>0.0015</v>
+      </c>
+      <c r="M14">
+        <v>0.001</v>
+      </c>
+      <c r="N14">
+        <v>0.01053</v>
+      </c>
+      <c r="O14">
+        <v>0.0222</v>
+      </c>
+      <c r="P14">
         <v>0.00062</v>
       </c>
-      <c r="I14">
-        <v>0.00677</v>
-      </c>
-      <c r="J14">
-        <v>0.00803</v>
-      </c>
-      <c r="K14">
-        <v>0.00436</v>
-      </c>
-      <c r="L14">
-        <v>0.00437</v>
-      </c>
-      <c r="M14">
-        <v>0.00743</v>
-      </c>
-      <c r="N14">
-        <v>0.00726</v>
-      </c>
-      <c r="O14">
-        <v>0.00155</v>
-      </c>
-      <c r="P14">
+      <c r="Q14">
+        <v>0.01264</v>
+      </c>
+      <c r="R14">
+        <v>0.00064</v>
+      </c>
+      <c r="S14">
+        <v>0.00065</v>
+      </c>
+      <c r="T14">
+        <v>0.00137</v>
+      </c>
+      <c r="U14">
+        <v>0.00095</v>
+      </c>
+      <c r="V14">
+        <v>0.00169</v>
+      </c>
+      <c r="W14">
+        <v>0.00121</v>
+      </c>
+      <c r="X14">
+        <v>0.00047</v>
+      </c>
+      <c r="Y14">
+        <v>0.00081</v>
+      </c>
+      <c r="Z14">
+        <v>0.00071</v>
+      </c>
+      <c r="AA14">
+        <v>0.00379</v>
+      </c>
+      <c r="AB14">
+        <v>0.00189</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0.00054</v>
+      </c>
+      <c r="AE14">
+        <v>0.00024</v>
+      </c>
+      <c r="AF14">
+        <v>0.00687</v>
+      </c>
+      <c r="AG14">
+        <v>0.00113</v>
+      </c>
+      <c r="AH14">
+        <v>0.00056</v>
+      </c>
+      <c r="AI14">
+        <v>0.0084</v>
+      </c>
+      <c r="AJ14">
+        <v>0.00016</v>
+      </c>
+      <c r="AK14">
+        <v>0.00187</v>
+      </c>
+      <c r="AL14">
+        <v>0.0003</v>
+      </c>
+      <c r="AM14">
+        <v>0.00025</v>
+      </c>
+      <c r="AN14">
+        <v>0.00016</v>
+      </c>
+      <c r="AO14">
+        <v>0.00014</v>
+      </c>
+      <c r="AP14">
+        <v>0.00044</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0.0009</v>
+      </c>
+      <c r="AS14">
         <v>0.00033</v>
       </c>
-      <c r="Q14">
-        <v>0.00019</v>
-      </c>
-      <c r="R14">
-        <v>0.0104</v>
-      </c>
-      <c r="S14">
-        <v>0.00488</v>
-      </c>
-      <c r="T14">
-        <v>0.00684</v>
-      </c>
-      <c r="U14">
-        <v>0.0034</v>
-      </c>
-      <c r="V14">
-        <v>0.00528</v>
-      </c>
-      <c r="W14">
-        <v>0.00093</v>
-      </c>
-      <c r="X14">
-        <v>0.00389</v>
-      </c>
-      <c r="Y14">
-        <v>0.00673</v>
-      </c>
-      <c r="Z14">
-        <v>0.00201</v>
-      </c>
-      <c r="AA14">
-        <v>0.00306</v>
-      </c>
-      <c r="AB14">
-        <v>0.00367</v>
-      </c>
-      <c r="AC14">
-        <v>0.0015</v>
-      </c>
-      <c r="AD14">
-        <v>0.00201</v>
-      </c>
-      <c r="AE14">
-        <v>0.001</v>
-      </c>
-      <c r="AF14">
-        <v>0.00392</v>
-      </c>
-      <c r="AG14">
-        <v>0.00291</v>
-      </c>
-      <c r="AH14">
-        <v>0.00076</v>
-      </c>
-      <c r="AI14">
-        <v>0.0069</v>
-      </c>
-      <c r="AJ14">
-        <v>0.01053</v>
-      </c>
-      <c r="AK14">
-        <v>0.0222</v>
-      </c>
-      <c r="AL14">
-        <v>0.00062</v>
-      </c>
-      <c r="AM14">
-        <v>0.01264</v>
-      </c>
-      <c r="AN14">
-        <v>0.00057</v>
-      </c>
-      <c r="AO14">
-        <v>0.00064</v>
-      </c>
-      <c r="AP14">
-        <v>0.00065</v>
-      </c>
-      <c r="AQ14">
-        <v>0.00426</v>
-      </c>
-      <c r="AR14">
-        <v>0.00137</v>
-      </c>
-      <c r="AS14">
-        <v>0.00095</v>
-      </c>
       <c r="AT14">
-        <v>0.00089</v>
+        <v>0.0003</v>
       </c>
       <c r="AU14">
-        <v>0.00085</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>0.00169</v>
+        <v>0.00073</v>
       </c>
       <c r="AW14">
-        <v>0.01699</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>0.00121</v>
+        <v>0.00016</v>
       </c>
       <c r="AY14">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
-        <v>0.00081</v>
+        <v>0</v>
       </c>
       <c r="BA14">
-        <v>0.00071</v>
+        <v>0</v>
       </c>
       <c r="BB14">
-        <v>0.00399</v>
+        <v>0</v>
       </c>
       <c r="BC14">
-        <v>0.00379</v>
-      </c>
-      <c r="BD14">
-        <v>0.0003</v>
-      </c>
-      <c r="BE14">
-        <v>0.00189</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0.00054</v>
-      </c>
-      <c r="BH14">
-        <v>0.00024</v>
-      </c>
-      <c r="BI14">
-        <v>0.00166</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0.00687</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0.00113</v>
-      </c>
-      <c r="BN14">
-        <v>0.00056</v>
-      </c>
-      <c r="BO14">
-        <v>0.00021</v>
-      </c>
-      <c r="BP14">
-        <v>0.00022</v>
-      </c>
-      <c r="BQ14">
-        <v>0.00016</v>
-      </c>
-      <c r="BR14">
-        <v>0.00187</v>
-      </c>
-      <c r="BS14">
-        <v>0.0003</v>
-      </c>
-      <c r="BT14">
-        <v>0.00089</v>
-      </c>
-      <c r="BU14">
-        <v>0.00033</v>
-      </c>
-      <c r="BV14">
-        <v>0.00025</v>
-      </c>
-      <c r="BW14">
-        <v>0.00047</v>
-      </c>
-      <c r="BX14">
-        <v>0</v>
-      </c>
-      <c r="BY14">
-        <v>0</v>
-      </c>
-      <c r="BZ14">
-        <v>0</v>
-      </c>
-      <c r="CA14">
-        <v>0.00014</v>
-      </c>
-      <c r="CB14">
-        <v>0.00094</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0.0009</v>
-      </c>
-      <c r="CF14">
-        <v>0.00092</v>
-      </c>
-      <c r="CG14">
-        <v>0.00238</v>
-      </c>
-      <c r="CH14">
-        <v>0.00362</v>
-      </c>
-      <c r="CI14">
-        <v>0.00103</v>
-      </c>
-      <c r="CJ14">
-        <v>0.0003</v>
-      </c>
-      <c r="CK14">
-        <v>0.00046</v>
-      </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0.00073</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
-      </c>
-      <c r="CQ14">
-        <v>0.00012</v>
-      </c>
-      <c r="CR14">
-        <v>0.0008</v>
-      </c>
-      <c r="CS14">
-        <v>0</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0.00128</v>
-      </c>
-      <c r="CW14">
-        <v>0</v>
-      </c>
-      <c r="CX14">
-        <v>0.00033</v>
-      </c>
-      <c r="CY14">
-        <v>0</v>
-      </c>
-      <c r="CZ14">
-        <v>0</v>
-      </c>
-      <c r="DA14">
-        <v>0</v>
-      </c>
-      <c r="DB14">
-        <v>0.00016</v>
-      </c>
-      <c r="DC14">
-        <v>0</v>
-      </c>
-      <c r="DD14">
-        <v>0.00021</v>
-      </c>
-      <c r="DE14">
-        <v>0.00023</v>
-      </c>
-      <c r="DF14">
-        <v>0.00022</v>
-      </c>
-      <c r="DG14">
-        <v>0</v>
-      </c>
-      <c r="DH14">
-        <v>0.00046</v>
-      </c>
-      <c r="DI14">
-        <v>0</v>
-      </c>
-      <c r="DJ14">
-        <v>0.00024</v>
-      </c>
-      <c r="DK14">
-        <v>0</v>
-      </c>
-      <c r="DL14">
-        <v>0</v>
-      </c>
-      <c r="DM14">
-        <v>0</v>
-      </c>
-      <c r="DN14">
-        <v>0</v>
-      </c>
-      <c r="DO14">
-        <v>0</v>
-      </c>
-      <c r="DP14">
-        <v>0</v>
-      </c>
-      <c r="DQ14">
-        <v>0</v>
-      </c>
-      <c r="DR14">
-        <v>0</v>
-      </c>
-      <c r="DS14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:123">
+    <row r="15" spans="1:55">
       <c r="A15" s="1" t="s">
         <v>785</v>
       </c>
@@ -42767,366 +39911,162 @@
         <v>0.03495</v>
       </c>
       <c r="C15">
-        <v>0.01479</v>
+        <v>0.04932</v>
       </c>
       <c r="D15">
-        <v>0.02089</v>
+        <v>0.01268</v>
       </c>
       <c r="E15">
-        <v>0.01075</v>
+        <v>0.00684</v>
       </c>
       <c r="F15">
-        <v>0.04932</v>
+        <v>0.01541</v>
       </c>
       <c r="G15">
-        <v>0.04257</v>
+        <v>0.01001</v>
       </c>
       <c r="H15">
-        <v>0.00809</v>
+        <v>0.00482</v>
       </c>
       <c r="I15">
-        <v>0.01268</v>
+        <v>0.01729</v>
       </c>
       <c r="J15">
-        <v>0.01108</v>
+        <v>0.01011</v>
       </c>
       <c r="K15">
-        <v>0.00684</v>
+        <v>0.00849</v>
       </c>
       <c r="L15">
-        <v>0.01541</v>
+        <v>0.01784</v>
       </c>
       <c r="M15">
-        <v>0.01755</v>
+        <v>0.01299</v>
       </c>
       <c r="N15">
-        <v>0.01001</v>
+        <v>0.00238</v>
       </c>
       <c r="O15">
-        <v>0.00482</v>
+        <v>0.00054</v>
       </c>
       <c r="P15">
-        <v>0.0156</v>
+        <v>0.00438</v>
       </c>
       <c r="Q15">
-        <v>0.00069</v>
+        <v>0.00068</v>
       </c>
       <c r="R15">
-        <v>0.00283</v>
+        <v>0.01067</v>
       </c>
       <c r="S15">
-        <v>0.00478</v>
+        <v>0.00796</v>
       </c>
       <c r="T15">
-        <v>0.00994</v>
+        <v>0.01596</v>
       </c>
       <c r="U15">
-        <v>0.01729</v>
+        <v>0.00525</v>
       </c>
       <c r="V15">
-        <v>0.00159</v>
+        <v>0.00817</v>
       </c>
       <c r="W15">
-        <v>0.01011</v>
+        <v>0.01203</v>
       </c>
       <c r="X15">
-        <v>0.00741</v>
+        <v>0.01255</v>
       </c>
       <c r="Y15">
-        <v>0.02314</v>
+        <v>0.01162</v>
       </c>
       <c r="Z15">
-        <v>0.0028</v>
+        <v>0.01232</v>
       </c>
       <c r="AA15">
-        <v>0.00292</v>
+        <v>0.02772</v>
       </c>
       <c r="AB15">
-        <v>0.00849</v>
+        <v>0.00063</v>
       </c>
       <c r="AC15">
-        <v>0.01784</v>
+        <v>0.00023</v>
       </c>
       <c r="AD15">
-        <v>0.01496</v>
+        <v>0.00898</v>
       </c>
       <c r="AE15">
-        <v>0.01299</v>
+        <v>0.00307</v>
       </c>
       <c r="AF15">
-        <v>0.00175</v>
+        <v>0.0035</v>
       </c>
       <c r="AG15">
-        <v>0.00586</v>
+        <v>0.01177</v>
       </c>
       <c r="AH15">
-        <v>0.01431</v>
+        <v>0.01633</v>
       </c>
       <c r="AI15">
-        <v>0.00246</v>
+        <v>0.00138</v>
       </c>
       <c r="AJ15">
-        <v>0.00238</v>
+        <v>0.00135</v>
       </c>
       <c r="AK15">
-        <v>0.00054</v>
+        <v>0.00249</v>
       </c>
       <c r="AL15">
-        <v>0.00438</v>
+        <v>0.01258</v>
       </c>
       <c r="AM15">
-        <v>0.00068</v>
+        <v>0.00087</v>
       </c>
       <c r="AN15">
-        <v>0.001</v>
+        <v>0.00231</v>
       </c>
       <c r="AO15">
-        <v>0.01067</v>
+        <v>0.00176</v>
       </c>
       <c r="AP15">
-        <v>0.00796</v>
+        <v>0.00208</v>
       </c>
       <c r="AQ15">
-        <v>0.00728</v>
+        <v>0.00019</v>
       </c>
       <c r="AR15">
-        <v>0.01596</v>
+        <v>0.00142</v>
       </c>
       <c r="AS15">
-        <v>0.00525</v>
+        <v>0.00116</v>
       </c>
       <c r="AT15">
-        <v>0.00559</v>
+        <v>0.00143</v>
       </c>
       <c r="AU15">
-        <v>0.03666</v>
+        <v>0.00055</v>
       </c>
       <c r="AV15">
-        <v>0.00817</v>
+        <v>0.00022</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>0.00106</v>
       </c>
       <c r="AX15">
-        <v>0.01203</v>
+        <v>0.00019</v>
       </c>
       <c r="AY15">
-        <v>0.01255</v>
+        <v>0.00029</v>
       </c>
       <c r="AZ15">
-        <v>0.01162</v>
+        <v>0</v>
       </c>
       <c r="BA15">
-        <v>0.01232</v>
+        <v>0</v>
       </c>
       <c r="BB15">
-        <v>0.00426</v>
+        <v>0</v>
       </c>
       <c r="BC15">
-        <v>0.02772</v>
-      </c>
-      <c r="BD15">
-        <v>0.00413</v>
-      </c>
-      <c r="BE15">
-        <v>0.00063</v>
-      </c>
-      <c r="BF15">
-        <v>0.00023</v>
-      </c>
-      <c r="BG15">
-        <v>0.00898</v>
-      </c>
-      <c r="BH15">
-        <v>0.00307</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0.00098</v>
-      </c>
-      <c r="BK15">
-        <v>0.0035</v>
-      </c>
-      <c r="BL15">
-        <v>0.00047</v>
-      </c>
-      <c r="BM15">
-        <v>0.01177</v>
-      </c>
-      <c r="BN15">
-        <v>0.01633</v>
-      </c>
-      <c r="BO15">
-        <v>0.00097</v>
-      </c>
-      <c r="BP15">
-        <v>0.00102</v>
-      </c>
-      <c r="BQ15">
-        <v>0.00135</v>
-      </c>
-      <c r="BR15">
-        <v>0.00249</v>
-      </c>
-      <c r="BS15">
-        <v>0.01258</v>
-      </c>
-      <c r="BT15">
-        <v>0.00105</v>
-      </c>
-      <c r="BU15">
-        <v>0.00135</v>
-      </c>
-      <c r="BV15">
-        <v>0.00087</v>
-      </c>
-      <c r="BW15">
-        <v>0.00252</v>
-      </c>
-      <c r="BX15">
-        <v>0.00121</v>
-      </c>
-      <c r="BY15">
-        <v>0.00242</v>
-      </c>
-      <c r="BZ15">
-        <v>0.00049</v>
-      </c>
-      <c r="CA15">
-        <v>0.00176</v>
-      </c>
-      <c r="CB15">
-        <v>0.00028</v>
-      </c>
-      <c r="CC15">
-        <v>0.00093</v>
-      </c>
-      <c r="CD15">
-        <v>0.00019</v>
-      </c>
-      <c r="CE15">
-        <v>0.00142</v>
-      </c>
-      <c r="CF15">
-        <v>0.00108</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
-      </c>
-      <c r="CI15">
-        <v>0.00081</v>
-      </c>
-      <c r="CJ15">
-        <v>0.00143</v>
-      </c>
-      <c r="CK15">
-        <v>0.00037</v>
-      </c>
-      <c r="CL15">
-        <v>0.00055</v>
-      </c>
-      <c r="CM15">
-        <v>0</v>
-      </c>
-      <c r="CN15">
-        <v>0.00151</v>
-      </c>
-      <c r="CO15">
-        <v>0.00022</v>
-      </c>
-      <c r="CP15">
-        <v>0.00027</v>
-      </c>
-      <c r="CQ15">
-        <v>0.00028</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0.00289</v>
-      </c>
-      <c r="CV15">
-        <v>0</v>
-      </c>
-      <c r="CW15">
-        <v>0.00028</v>
-      </c>
-      <c r="CX15">
-        <v>0</v>
-      </c>
-      <c r="CY15">
-        <v>0.00106</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15">
-        <v>0.00138</v>
-      </c>
-      <c r="DB15">
-        <v>0.00019</v>
-      </c>
-      <c r="DC15">
-        <v>0</v>
-      </c>
-      <c r="DD15">
-        <v>0.00025</v>
-      </c>
-      <c r="DE15">
-        <v>0</v>
-      </c>
-      <c r="DF15">
-        <v>0</v>
-      </c>
-      <c r="DG15">
-        <v>0</v>
-      </c>
-      <c r="DH15">
-        <v>0</v>
-      </c>
-      <c r="DI15">
-        <v>0.00029</v>
-      </c>
-      <c r="DJ15">
-        <v>0.00029</v>
-      </c>
-      <c r="DK15">
-        <v>0</v>
-      </c>
-      <c r="DL15">
-        <v>0</v>
-      </c>
-      <c r="DM15">
-        <v>0</v>
-      </c>
-      <c r="DN15">
-        <v>0</v>
-      </c>
-      <c r="DO15">
-        <v>0</v>
-      </c>
-      <c r="DP15">
-        <v>0</v>
-      </c>
-      <c r="DQ15">
-        <v>0</v>
-      </c>
-      <c r="DR15">
-        <v>0</v>
-      </c>
-      <c r="DS15">
         <v>0</v>
       </c>
     </row>
@@ -43137,7 +40077,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43159,7 +40099,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.00383660130718954</v>
+        <v>0.00463888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -43167,10 +40107,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>0.00265686274509804</v>
+        <v>0.00474922839506173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -43178,10 +40118,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>0.00254705882352941</v>
+        <v>0.00563310185185185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -43189,10 +40129,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>0.00266274509803922</v>
+        <v>0.00491652637485971</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -43200,10 +40140,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0.0036281045751634</v>
+        <v>0.00717746913580247</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -43211,10 +40151,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>0.00494117647058823</v>
+        <v>0.0047554012345679</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -43222,10 +40162,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>0.0046875816993464</v>
+        <v>0.00435648148148148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -43233,10 +40173,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.0025702614379085</v>
+        <v>0.00506186868686869</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -43244,10 +40184,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>0.00332156862745098</v>
+        <v>0.0177671156004489</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -43255,10 +40195,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>0.00451437908496732</v>
+        <v>0.00729282407407407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -43266,10 +40206,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>0.00908823529411765</v>
+        <v>0.00543364197530864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -43277,10 +40217,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C13">
-        <v>0.00266666666666667</v>
+        <v>0.00800838243546577</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -43288,10 +40228,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>0.00362549019607843</v>
+        <v>0.00467091049382716</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -43299,10 +40239,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>0.00553767082590612</v>
+        <v>0.00551003086419753</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -43310,10 +40250,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>0.00438562091503268</v>
+        <v>0.00498533950617284</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -43321,10 +40261,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C17">
-        <v>0.00349084967320261</v>
+        <v>0.0050258487654321</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -43332,10 +40272,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C18">
-        <v>0.00471830065359477</v>
+        <v>0.0179571759259259</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -43343,10 +40283,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C19">
-        <v>0.00301633986928105</v>
+        <v>0.0198202160493827</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -43354,10 +40294,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C20">
-        <v>0.00333986928104575</v>
+        <v>0.0128001543209877</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -43365,10 +40305,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C21">
-        <v>0.00293725490196078</v>
+        <v>0.00547916666666667</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -43376,10 +40316,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C22">
-        <v>0.00344509803921569</v>
+        <v>0.00959248737373737</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -43387,10 +40327,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C23">
-        <v>0.028281045751634</v>
+        <v>0.0102739197530864</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -43398,10 +40338,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C24">
-        <v>0.00321862745098039</v>
+        <v>0.0045162037037037</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -43409,10 +40349,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C25">
-        <v>0.00308888888888889</v>
+        <v>0.0141925154320988</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -43420,10 +40360,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C26">
-        <v>0.00322549019607843</v>
+        <v>0.00609350448933782</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -43431,10 +40371,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C27">
-        <v>0.00493464052287582</v>
+        <v>0.00911486391694725</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -43442,10 +40382,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="C28">
-        <v>0.00895686274509804</v>
+        <v>0.0052145061728395</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -43453,10 +40393,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="C29">
-        <v>0.0031437908496732</v>
+        <v>0.00553202160493827</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -43464,10 +40404,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C30">
-        <v>0.00268692810457516</v>
+        <v>0.00675385802469136</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -43475,10 +40415,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C31">
-        <v>0.0105245098039216</v>
+        <v>0.00439699074074074</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -43486,10 +40426,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C32">
-        <v>0.00245686274509804</v>
+        <v>0.00506558641975308</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -43497,10 +40437,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C33">
-        <v>0.00307124183006536</v>
+        <v>0.0190612373737374</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -43508,10 +40448,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="C34">
-        <v>0.00492287581699346</v>
+        <v>0.0090625</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -43519,10 +40459,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="C35">
-        <v>0.00348039215686274</v>
+        <v>0.00478535353535353</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -43530,10 +40470,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C36">
-        <v>0.00533921568627451</v>
+        <v>0.00455324074074074</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -43541,10 +40481,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C37">
-        <v>0.00431437908496732</v>
+        <v>0.00531327160493827</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -43552,10 +40492,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="C38">
-        <v>0.00413921568627451</v>
+        <v>0.00692915263748597</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -43563,10 +40503,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="C39">
-        <v>0.00343137254901961</v>
+        <v>0.007496632996633</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -43574,10 +40514,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="C40">
-        <v>0.0024156862745098</v>
+        <v>0.00454320987654321</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -43585,10 +40525,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="C41">
-        <v>0.0214267973856209</v>
+        <v>0.00612847222222222</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -43596,10 +40536,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="C42">
-        <v>0.0173084967320262</v>
+        <v>0.00451736111111111</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -43607,10 +40547,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="C43">
-        <v>0.00452614379084967</v>
+        <v>0.00511689814814815</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -43618,10 +40558,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="C44">
-        <v>0.0215477124183007</v>
+        <v>0.00457986111111111</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -43629,10 +40569,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="C45">
-        <v>0.00580261437908497</v>
+        <v>0.00467389169472503</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -43640,10 +40580,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="C46">
-        <v>0.0051437908496732</v>
+        <v>0.0048820847362514</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -43651,10 +40591,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="C47">
-        <v>0.00265686274509804</v>
+        <v>0.00503780864197531</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -43662,10 +40602,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="C48">
-        <v>0.00847385620915032</v>
+        <v>0.00500526094276094</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -43673,10 +40613,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="C49">
-        <v>0.0037516339869281</v>
+        <v>0.0151406074635241</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -43684,10 +40624,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="C50">
-        <v>0.0150522875816994</v>
+        <v>0.00438425925925926</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -43695,10 +40635,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>511</v>
       </c>
       <c r="C51">
-        <v>0.00277254901960784</v>
+        <v>0.00480927328843995</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -43706,10 +40646,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>545</v>
       </c>
       <c r="C52">
-        <v>0.0136830065359477</v>
+        <v>0.00508757716049383</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -43717,10 +40657,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="C53">
-        <v>0.00795620915032679</v>
+        <v>0.00557046156004489</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -43728,10 +40668,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>597</v>
       </c>
       <c r="C54">
-        <v>0.00531633986928104</v>
+        <v>0.00530758978675645</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -43739,758 +40679,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>619</v>
       </c>
       <c r="C55">
-        <v>0.0123193998811646</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56">
-        <v>0.00266274509803922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57">
-        <v>0.00445490196078431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58">
-        <v>0.00399084967320261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59">
-        <v>0.0104019607843137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60">
-        <v>0.00322549019607843</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61">
-        <v>0.00495490196078431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63">
-        <v>0.00500980392156863</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64">
-        <v>0.0042483660130719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65">
-        <v>0.0276112299465241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66">
-        <v>0.0154601307189543</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67">
-        <v>0.00307124183006536</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68">
-        <v>0.00308235294117647</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69">
-        <v>0.0048554367201426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70">
-        <v>0.00404575163398693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71">
-        <v>0.0102535947712418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72">
-        <v>0.0051562091503268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73">
-        <v>0.00497777777777778</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74">
-        <v>0.00563517528223411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75">
-        <v>0.00334313725490196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76">
-        <v>0.00369607843137255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77">
-        <v>0.00347385620915033</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78">
-        <v>0.00315686274509804</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79">
-        <v>0.00432287581699346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80">
-        <v>0.00280457516339869</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81">
-        <v>0.00284117647058824</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82">
-        <v>0.00482549019607843</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C83">
-        <v>0.00451176470588235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84">
-        <v>0.00379869281045752</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>271</v>
-      </c>
-      <c r="C85">
-        <v>0.00345882352941176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86">
-        <v>0.00376993464052288</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>282</v>
-      </c>
-      <c r="C87">
-        <v>0.00316339869281046</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>290</v>
-      </c>
-      <c r="C88">
-        <v>0.00431307189542484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>294</v>
-      </c>
-      <c r="C89">
-        <v>0.00410065359477124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>319</v>
-      </c>
-      <c r="C90">
-        <v>0.00366732026143791</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>327</v>
-      </c>
-      <c r="C91">
-        <v>0.0028</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>329</v>
-      </c>
-      <c r="C92">
-        <v>0.00295163398692811</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93">
-        <v>0.00551699346405228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94">
-        <v>0.00266993464052288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>350</v>
-      </c>
-      <c r="C95">
-        <v>0.00246470588235294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>357</v>
-      </c>
-      <c r="C96">
-        <v>0.00314509803921569</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>367</v>
-      </c>
-      <c r="C97">
-        <v>0.00352156862745098</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>373</v>
-      </c>
-      <c r="C98">
-        <v>0.00355490196078431</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>381</v>
-      </c>
-      <c r="C99">
-        <v>0.00243790849673203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>384</v>
-      </c>
-      <c r="C100">
-        <v>0.0043921568627451</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>390</v>
-      </c>
-      <c r="C101">
-        <v>0.0035718954248366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>393</v>
-      </c>
-      <c r="C102">
-        <v>0.0026078431372549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>422</v>
-      </c>
-      <c r="C103">
-        <v>0.0171015448603684</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>428</v>
-      </c>
-      <c r="C104">
-        <v>0.00269019607843137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>434</v>
-      </c>
-      <c r="C105">
-        <v>0.00449411764705882</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>469</v>
-      </c>
-      <c r="C106">
-        <v>0.00464705882352941</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>471</v>
-      </c>
-      <c r="C107">
-        <v>0.00430653594771242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>478</v>
-      </c>
-      <c r="C108">
-        <v>0.00447450980392157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>479</v>
-      </c>
-      <c r="C109">
-        <v>0.0043235294117647</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>484</v>
-      </c>
-      <c r="C110">
-        <v>0.00368300653594771</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>490</v>
-      </c>
-      <c r="C111">
-        <v>0.00548692810457516</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>492</v>
-      </c>
-      <c r="C112">
-        <v>0.00274509803921569</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>511</v>
-      </c>
-      <c r="C113">
-        <v>0.00653660130718954</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>518</v>
-      </c>
-      <c r="C114">
-        <v>0.00286274509803922</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>545</v>
-      </c>
-      <c r="C115">
-        <v>0.00286732026143791</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>552</v>
-      </c>
-      <c r="C116">
-        <v>0.00471045751633987</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>572</v>
-      </c>
-      <c r="C117">
-        <v>0.00429019607843137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>575</v>
-      </c>
-      <c r="C118">
-        <v>0.00391176470588235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>582</v>
-      </c>
-      <c r="C119">
-        <v>0.00429150326797386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>583</v>
-      </c>
-      <c r="C120">
-        <v>0.00287320261437908</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>586</v>
-      </c>
-      <c r="C121">
-        <v>0.00349673202614379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>597</v>
-      </c>
-      <c r="C122">
-        <v>0.0025359477124183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>619</v>
-      </c>
-      <c r="C123">
-        <v>0.00482483660130719</v>
+        <v>0.00685865600448934</v>
       </c>
     </row>
   </sheetData>
